--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$21</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -122,10 +122,160 @@
     <t>TJ22</t>
   </si>
   <si>
+    <t>吳宗鴻</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>14:07:00</t>
+  </si>
+  <si>
+    <t>14:22:00</t>
+  </si>
+  <si>
+    <t>THILF03840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區龍門路176號</t>
+  </si>
+  <si>
+    <t>北縣天龍店</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PMQ3</t>
+  </si>
+  <si>
+    <t>14:45:00</t>
+  </si>
+  <si>
+    <t>15:06:00</t>
+  </si>
+  <si>
+    <t>THILF04241</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街12號壹樓部份及仁興街39巷37號壹樓部份</t>
+  </si>
+  <si>
+    <t>三重仁義店</t>
+  </si>
+  <si>
+    <t>13:40:00</t>
+  </si>
+  <si>
+    <t>14:01:00</t>
+  </si>
+  <si>
+    <t>THILF04586</t>
+  </si>
+  <si>
+    <t>新北市三重區文化北路224巷1號及3號</t>
+  </si>
+  <si>
+    <t>三重三文店</t>
+  </si>
+  <si>
+    <t>15:25:00</t>
+  </si>
+  <si>
+    <t>15:48:00</t>
+  </si>
+  <si>
+    <t>THILF0D346</t>
+  </si>
+  <si>
+    <t>新北市三重區三和路三段137號</t>
+  </si>
+  <si>
+    <t>三重維德店</t>
+  </si>
+  <si>
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>2025-08-01</t>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>T302800057</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>MFP商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣善美的股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市五股區工商路128號1樓(五股DC廠工商運輸)</t>
+  </si>
+  <si>
+    <t>五股DC廠工商運輸</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>T302800060</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股運輸)</t>
+  </si>
+  <si>
+    <t>五股運輸</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>T351800042</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯實業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區水湳街74號2樓</t>
+  </si>
+  <si>
+    <t>蘆洲北二處</t>
+  </si>
+  <si>
+    <t>T351800045</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股生鮮物流)</t>
+  </si>
+  <si>
+    <t>五股</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -137,33 +287,9 @@
     <t>T351800110</t>
   </si>
   <si>
-    <t>eS-3518A 黑白複合機</t>
-  </si>
-  <si>
-    <t>MFP商品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台灣善美的股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市五股區五工六路35號4樓(五股)</t>
   </si>
   <si>
-    <t>五股</t>
-  </si>
-  <si>
-    <t>服務</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Pm</t>
-  </si>
-  <si>
-    <t>抄表</t>
-  </si>
-  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -171,6 +297,39 @@
   </si>
   <si>
     <t>黑線髒污 更換OD OD刮 回刮</t>
+  </si>
+  <si>
+    <t>T351800111</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股檢品)</t>
+  </si>
+  <si>
+    <t>五股檢品</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>12:50:00</t>
+  </si>
+  <si>
+    <t>THILF0D148</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>新北市新莊區福營路336,338號</t>
+  </si>
+  <si>
+    <t>新莊福營店</t>
+  </si>
+  <si>
+    <t>更換滑鼠</t>
   </si>
   <si>
     <t>合計</t>
@@ -587,10 +746,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025080027</v>
+        <v>2025080101</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -771,31 +930,27 @@
       <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7">
-        <v>180622</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -804,17 +959,21 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025080028</v>
+        <v>2025080112</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -829,38 +988,36 @@
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -868,19 +1025,21 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025080029</v>
+        <v>2025080098</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -895,38 +1054,36 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="M5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>180622</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -934,45 +1091,1039 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="9">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2025080131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2025080129</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <v>253107</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2025080130</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>253107</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2025080134</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7">
+        <v>199706</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2025080135</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>199706</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2025080143</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7">
+        <v>287428</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2025080144</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <v>287428</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2025080132</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7">
+        <v>116181</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2025080133</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>116181</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2025080027</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7">
+        <v>180622</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2025080028</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
+        <v>180622</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2025080029</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7">
+        <v>180622</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2025080136</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
+        <v>342829</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2025080137</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7">
+        <v>342829</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2025080035</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$33</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -125,6 +125,52 @@
     <t>吳宗鴻</t>
   </si>
   <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>13:28:00</t>
+  </si>
+  <si>
+    <t>THILF02259</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區中華路18號</t>
+  </si>
+  <si>
+    <t>三重興華店</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119011857
+換上8119012492</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>13:29:00</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119011905
+換上8119012491</t>
+  </si>
+  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -137,9 +183,6 @@
     <t>THILF03840</t>
   </si>
   <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市三重區龍門路176號</t>
   </si>
   <si>
@@ -149,12 +192,30 @@
     <t>服務</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>PMQ3</t>
   </si>
   <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>16:05:00</t>
+  </si>
+  <si>
+    <t>THILF04155</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路415號及417號1樓全部</t>
+  </si>
+  <si>
+    <t>三重穀保店</t>
+  </si>
+  <si>
+    <t>已將錢櫃線接至主機端，請門市人員觀察狀況</t>
+  </si>
+  <si>
+    <t>16:04:00</t>
+  </si>
+  <si>
     <t>14:45:00</t>
   </si>
   <si>
@@ -170,6 +231,24 @@
     <t>三重仁義店</t>
   </si>
   <si>
+    <t>10:19:00</t>
+  </si>
+  <si>
+    <t>10:49:00</t>
+  </si>
+  <si>
+    <t>THILF04312</t>
+  </si>
+  <si>
+    <t>新北市三重區文化北路116號一樓</t>
+  </si>
+  <si>
+    <t>三重文化北</t>
+  </si>
+  <si>
+    <t>到場確認線路及列印皆為正常，請門市在進行觀察</t>
+  </si>
+  <si>
     <t>13:40:00</t>
   </si>
   <si>
@@ -200,6 +279,25 @@
     <t>三重維德店</t>
   </si>
   <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:56:00</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119006973
+換上8119012493</t>
+  </si>
+  <si>
+    <t>11:58:00</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119008137
+換上8119012490</t>
+  </si>
+  <si>
     <t>湯家瑋</t>
   </si>
   <si>
@@ -233,9 +331,6 @@
     <t>抄表</t>
   </si>
   <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -251,6 +346,27 @@
     <t>15:30:00</t>
   </si>
   <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>T351500007</t>
+  </si>
+  <si>
+    <t>eS-3515AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號5樓-3(三重湯城維修中</t>
+  </si>
+  <si>
+    <t>三重湯城手機維修中心</t>
+  </si>
+  <si>
+    <t>調整參數 清潔光學</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -293,9 +409,6 @@
     <t>10:30:00</t>
   </si>
   <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>黑線髒污 更換OD OD刮 回刮</t>
   </si>
   <si>
@@ -308,6 +421,18 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>THILF04154</t>
+  </si>
+  <si>
+    <t>新北市林口區文化一路一段52號1樓部份</t>
+  </si>
+  <si>
+    <t>林口麗園店</t>
+  </si>
+  <si>
     <t>12:00:00</t>
   </si>
   <si>
@@ -317,12 +442,6 @@
     <t>THILF0D148</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>新北市新莊區福營路336,338號</t>
   </si>
   <si>
@@ -330,6 +449,18 @@
   </si>
   <si>
     <t>更換滑鼠</t>
+  </si>
+  <si>
+    <t>THILF0L551</t>
+  </si>
+  <si>
+    <t>新北市林口區麗園一街2巷1號地下層</t>
+  </si>
+  <si>
+    <t>林口顧家店</t>
+  </si>
+  <si>
+    <t>重開數據機 重設網路參數</t>
   </si>
   <si>
     <t>合計</t>
@@ -746,10 +877,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -907,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025080101</v>
+        <v>2025080365</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -930,28 +1061,30 @@
       <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L3" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7">
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -959,10 +1092,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -973,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025080112</v>
+        <v>2025080366</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -988,36 +1121,38 @@
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1025,21 +1160,19 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025080098</v>
+        <v>2025080101</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1051,7 +1184,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>46</v>
@@ -1065,7 +1198,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>49</v>
@@ -1074,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1082,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1091,10 +1224,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1105,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025080131</v>
+        <v>2025080371</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1120,36 +1253,38 @@
         <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L6" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1157,10 +1292,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="3">
         <v>1</v>
@@ -1171,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025080129</v>
+        <v>2025080482</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1180,46 +1315,44 @@
         <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>253107</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1227,9 +1360,11 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="1:28">
@@ -1237,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025080130</v>
+        <v>2025080112</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1246,28 +1381,24 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>63</v>
@@ -1276,14 +1407,16 @@
         <v>64</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>253107</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1291,19 +1424,21 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB8" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025080134</v>
+        <v>2025080142</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1312,46 +1447,44 @@
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>199706</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1359,17 +1492,21 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025080135</v>
+        <v>2025080098</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1378,44 +1515,42 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>199706</v>
-      </c>
-      <c r="S10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1423,19 +1558,21 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025080143</v>
+        <v>2025080131</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1444,45 +1581,41 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="8" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>287428</v>
+        <v>0</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1491,17 +1624,21 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025080144</v>
+        <v>2025080362</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1510,42 +1647,42 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>287428</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1555,19 +1692,21 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB12" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025080132</v>
+        <v>2025080363</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1576,46 +1715,44 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <v>116181</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1623,9 +1760,11 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA13" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28">
@@ -1633,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025080133</v>
+        <v>2025080129</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1642,44 +1781,46 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>253107</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1687,11 +1828,9 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
@@ -1699,7 +1838,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025080027</v>
+        <v>2025080130</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1708,46 +1847,44 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>180622</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>253107</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -1755,9 +1892,11 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28">
@@ -1765,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025080028</v>
+        <v>2025080134</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1774,44 +1913,46 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>199706</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1819,11 +1960,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28">
@@ -1831,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025080029</v>
+        <v>2025080135</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1840,42 +1979,42 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>180622</v>
+        <v>199706</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -1885,10 +2024,10 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB17" s="7"/>
     </row>
@@ -1897,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025080136</v>
+        <v>2025080415</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1906,46 +2045,44 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>342829</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1953,17 +2090,21 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025080137</v>
+        <v>2025080143</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -1972,44 +2113,46 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <v>342829</v>
-      </c>
-      <c r="S19" s="7"/>
+        <v>287428</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2017,11 +2160,9 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28">
@@ -2029,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025080035</v>
+        <v>2025080144</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2038,42 +2179,42 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>287428</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2083,47 +2224,837 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>5</v>
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2025080132</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <v>116181</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2025080133</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
+        <v>116181</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2025080027</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <v>180622</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2025080028</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
+        <v>180622</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2025080029</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7">
+        <v>180622</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2025080136</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
+        <v>342829</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2025080137</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <v>342829</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2025080447</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2025080035</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2025080425</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2025080426</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2025080367</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$53</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -123,6 +123,85 @@
   </si>
   <si>
     <t>吳宗鴻</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>14:53:00</t>
+  </si>
+  <si>
+    <t>15:08:00</t>
+  </si>
+  <si>
+    <t>T301800172</t>
+  </si>
+  <si>
+    <t>eS-3018A 黑白複合機</t>
+  </si>
+  <si>
+    <t>MFP商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智基科技開發股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中山路123號3樓(淡水分校)</t>
+  </si>
+  <si>
+    <t>淡水</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>13:15:00</t>
+  </si>
+  <si>
+    <t>13:59:00</t>
+  </si>
+  <si>
+    <t>T302800006</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信宇顧問有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區民族路50巷46號3樓</t>
+  </si>
+  <si>
+    <t>PM抄表
+更換A4第一紙夾中的取紙輪 送紙輪 分離輪</t>
+  </si>
+  <si>
+    <t>14:39:00</t>
+  </si>
+  <si>
+    <t>14:54:00</t>
+  </si>
+  <si>
+    <t>T351500137</t>
+  </si>
+  <si>
+    <t>eS-3515AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>華南永昌綜合証券股份有限公司-淡水?</t>
+  </si>
+  <si>
+    <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
     <t>2025-08-04</t>
@@ -160,9 +239,6 @@
 換上8119012492</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>13:29:00</t>
   </si>
   <si>
@@ -189,10 +265,33 @@
     <t>北縣天龍店</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>PMQ3</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>THILF04101</t>
+  </si>
+  <si>
+    <t>新北市三重區溪尾街293號及295號</t>
+  </si>
+  <si>
+    <t>三重溪華店</t>
+  </si>
+  <si>
+    <t>更換多卡機
+換下8183000568
+換上8183001839</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>10:41:00</t>
   </si>
   <si>
     <t>14:30:00</t>
@@ -301,21 +400,78 @@
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
+  </si>
+  <si>
+    <t>T251000029</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">力翔精密機械有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區和平路114巷8號6樓</t>
+  </si>
+  <si>
+    <t>鴻森</t>
+  </si>
+  <si>
+    <t>更換OD OD刮</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
     <t>14:00:00</t>
   </si>
   <si>
+    <t>T252000125</t>
+  </si>
+  <si>
+    <t>eS-2520AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行股份有限公司林口文化分行</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號2F(放款部</t>
+  </si>
+  <si>
+    <t>林口文化2F放款部</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>09:48:00</t>
+  </si>
+  <si>
+    <t>10:18:00</t>
+  </si>
+  <si>
+    <t>T301800026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(節目部)</t>
+  </si>
+  <si>
+    <t>節目部</t>
+  </si>
+  <si>
+    <t>更換radf分離輪</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
-    <t>MFP商品</t>
-  </si>
-  <si>
     <t xml:space="preserve">台灣善美的股份有限公司 </t>
   </si>
   <si>
@@ -325,12 +481,6 @@
     <t>五股DC廠工商運輸</t>
   </si>
   <si>
-    <t>Pm</t>
-  </si>
-  <si>
-    <t>抄表</t>
-  </si>
-  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -343,6 +493,9 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>OD OD刮 回刮</t>
+  </si>
+  <si>
     <t>15:30:00</t>
   </si>
   <si>
@@ -352,9 +505,6 @@
     <t>T351500007</t>
   </si>
   <si>
-    <t>eS-3515AC 彩色複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">台灣大哥大股份有限公司 </t>
   </si>
   <si>
@@ -367,6 +517,9 @@
     <t>調整參數 清潔光學</t>
   </si>
   <si>
+    <t>修改設定</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -397,9 +550,6 @@
     <t>09:00:00</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>T351800110</t>
   </si>
   <si>
@@ -412,6 +562,9 @@
     <t>黑線髒污 更換OD OD刮 回刮</t>
   </si>
   <si>
+    <t>OD OD刮 回刮 取送分輪 碳粉</t>
+  </si>
+  <si>
     <t>T351800111</t>
   </si>
   <si>
@@ -421,6 +574,21 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>T452800047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-4528A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號1F(營業部)</t>
+  </si>
+  <si>
+    <t>林口文化1F營業部</t>
+  </si>
+  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -461,6 +629,34 @@
   </si>
   <si>
     <t>重開數據機 重設網路參數</t>
+  </si>
+  <si>
+    <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>11:50:00</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>THILF04917</t>
+  </si>
+  <si>
+    <t>新北市板橋區翠華街6巷1號1樓</t>
+  </si>
+  <si>
+    <t>板橋翠華店</t>
+  </si>
+  <si>
+    <t>12:13:00</t>
+  </si>
+  <si>
+    <t>錢箱線路換接至TCX800
+測試正常</t>
+  </si>
+  <si>
+    <t>12:14:00</t>
   </si>
   <si>
     <t>合計</t>
@@ -877,10 +1073,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025080365</v>
+        <v>2025080663</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1082,9 +1278,11 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>24174</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1092,10 +1290,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1106,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025080366</v>
+        <v>2025080664</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1124,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>34</v>
@@ -1145,12 +1343,12 @@
         <v>39</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>24174</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1160,10 +1358,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1172,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025080101</v>
+        <v>2025080648</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1184,38 +1382,40 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1224,10 +1424,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1238,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025080371</v>
+        <v>2025080649</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1253,36 +1453,34 @@
         <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1292,21 +1490,19 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025080482</v>
+        <v>2025080660</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1321,36 +1517,38 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7">
+        <v>2380</v>
+      </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>287252</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1360,19 +1558,21 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025080112</v>
+        <v>2025080659</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1384,38 +1584,44 @@
         <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L8" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>2380</v>
+      </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>287252</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -1424,21 +1630,19 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025080142</v>
+        <v>2025080365</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1450,34 +1654,34 @@
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1492,10 +1696,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1506,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025080098</v>
+        <v>2025080366</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1518,39 +1722,41 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L10" s="6" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1558,21 +1764,19 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025080131</v>
+        <v>2025080101</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1584,30 +1788,30 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1615,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1624,10 +1828,10 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -1638,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025080362</v>
+        <v>2025080422</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1653,31 +1857,31 @@
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1692,10 +1896,10 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="3">
         <v>1</v>
@@ -1706,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025080363</v>
+        <v>2025080594</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1721,28 +1925,24 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1952,9 @@
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1760,10 +1962,10 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="7"/>
     </row>
@@ -1772,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025080129</v>
+        <v>2025080371</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1781,46 +1983,44 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="N14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="O14" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>253107</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1828,17 +2028,21 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025080130</v>
+        <v>2025080482</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1847,42 +2051,42 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="J15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>253107</v>
+        <v>0</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1892,10 +2096,10 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB15" s="7"/>
     </row>
@@ -1904,7 +2108,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025080134</v>
+        <v>2025080112</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1913,45 +2117,41 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>199706</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -1960,17 +2160,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025080135</v>
+        <v>2025080142</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1979,42 +2183,42 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>199706</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2024,19 +2228,21 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB17" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025080415</v>
+        <v>2025080098</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2045,28 +2251,24 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>106</v>
@@ -2080,9 +2282,11 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>330</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2090,10 +2294,10 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2104,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025080143</v>
+        <v>2025080131</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2113,13 +2317,13 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>109</v>
@@ -2127,31 +2331,27 @@
       <c r="I19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <v>287428</v>
+        <v>0</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2160,17 +2360,21 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025080144</v>
+        <v>2025080362</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2179,42 +2383,42 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>110</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="N20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>287428</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2224,19 +2428,21 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB20" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025080132</v>
+        <v>2025080363</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2245,46 +2451,44 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="N21" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>116181</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2292,9 +2496,11 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA21" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
@@ -2302,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025080133</v>
+        <v>2025080617</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2311,42 +2517,44 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <v>10117</v>
+      </c>
       <c r="R22" s="3">
-        <v>116181</v>
+        <v>69822</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2354,21 +2562,25 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z22" s="6" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB22" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025080027</v>
+        <v>2025080644</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2377,45 +2589,47 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>338</v>
+      </c>
       <c r="R23" s="7">
-        <v>180622</v>
+        <v>21935</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2424,7 +2638,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
@@ -2434,7 +2648,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025080028</v>
+        <v>2025080645</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2443,42 +2657,44 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3">
+        <v>338</v>
+      </c>
       <c r="R24" s="3">
-        <v>180622</v>
+        <v>21935</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2488,10 +2704,10 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB24" s="3"/>
     </row>
@@ -2500,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080029</v>
+        <v>2025080586</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2509,42 +2725,42 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>180622</v>
+        <v>163873</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2554,19 +2770,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB25" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080136</v>
+        <v>2025080129</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2575,45 +2793,45 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>342829</v>
+        <v>253107</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2622,7 +2840,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -2632,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025080137</v>
+        <v>2025080130</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2641,42 +2859,42 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>342829</v>
+        <v>253107</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2686,10 +2904,10 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB27" s="7"/>
     </row>
@@ -2698,7 +2916,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080447</v>
+        <v>2025080134</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2707,41 +2925,45 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L28" s="6" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>0</v>
+        <v>199706</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -2750,21 +2972,17 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080035</v>
+        <v>2025080135</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2773,42 +2991,42 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>0</v>
+        <v>199706</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2818,21 +3036,19 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB29" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080425</v>
+        <v>2025080589</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2841,53 +3057,57 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L30" s="6" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>199706</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="Y30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z30" s="6" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -2898,7 +3118,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025080426</v>
+        <v>2025080415</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2907,42 +3127,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L31" s="8" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -2950,19 +3172,21 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB31" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025080367</v>
+        <v>2025080615</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -2971,42 +3195,42 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3016,45 +3240,1371 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2025080143</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <v>287428</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2025080144</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
+        <v>287428</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2025080132</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7">
+        <v>116181</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2025080133</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <v>116181</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2025080027</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
+        <v>180622</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2025080028</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
+        <v>180622</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2025080029</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>180622</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2025080588</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <v>180622</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2025080136</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>342829</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2025080137</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <v>342829</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2025080642</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <v>31483</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB33" s="9">
-        <v>12</v>
+      <c r="B44" s="3">
+        <v>2025080643</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>31483</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2025080447</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2025080035</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2025080425</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2025080426</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2025080367</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2025080636</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2025080521</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2025080527</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$56</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -448,6 +448,24 @@
     <t>Pm</t>
   </si>
   <si>
+    <t>16:42:00</t>
+  </si>
+  <si>
+    <t>16:57:00</t>
+  </si>
+  <si>
+    <t>T301800012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號2樓</t>
+  </si>
+  <si>
+    <t>台北客服2樓(黑)</t>
+  </si>
+  <si>
     <t>09:48:00</t>
   </si>
   <si>
@@ -505,9 +523,6 @@
     <t>T351500007</t>
   </si>
   <si>
-    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市三重區重新路五段609巷2號5樓-3(三重湯城維修中</t>
   </si>
   <si>
@@ -520,6 +535,21 @@
     <t>修改設定</t>
   </si>
   <si>
+    <t>16:51:00</t>
+  </si>
+  <si>
+    <t>T351500019</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號10樓</t>
+  </si>
+  <si>
+    <t>台北客服10樓(彩)</t>
+  </si>
+  <si>
+    <t>黃色攪拌棒偵測器故障</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -637,7 +667,7 @@
     <t>11:50:00</t>
   </si>
   <si>
-    <t>12:10:00</t>
+    <t>12:13:00</t>
   </si>
   <si>
     <t>THILF04917</t>
@@ -647,13 +677,13 @@
   </si>
   <si>
     <t>板橋翠華店</t>
-  </si>
-  <si>
-    <t>12:13:00</t>
   </si>
   <si>
     <t>錢箱線路換接至TCX800
 測試正常</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
   </si>
   <si>
     <t>12:14:00</t>
@@ -1073,10 +1103,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1502,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025080660</v>
+        <v>2025080659</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1541,7 +1571,7 @@
         <v>39</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7">
@@ -1550,7 +1580,9 @@
       <c r="R7" s="7">
         <v>287252</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1572,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025080659</v>
+        <v>2025080660</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1611,7 +1643,7 @@
         <v>39</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
@@ -1620,9 +1652,7 @@
       <c r="R8" s="3">
         <v>287252</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -2716,7 +2746,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080586</v>
+        <v>2025080704</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2755,14 +2785,16 @@
         <v>140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>163873</v>
-      </c>
-      <c r="S25" s="7"/>
+        <v>7108</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2770,21 +2802,17 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080129</v>
+        <v>2025080705</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2796,43 +2824,41 @@
         <v>118</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>253107</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>7108</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2842,7 +2868,9 @@
       <c r="Z26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
@@ -2850,7 +2878,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025080130</v>
+        <v>2025080586</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2862,39 +2890,39 @@
         <v>118</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>253107</v>
+        <v>163873</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2904,19 +2932,21 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080134</v>
+        <v>2025080129</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2931,13 +2961,13 @@
         <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>47</v>
@@ -2946,13 +2976,13 @@
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>40</v>
@@ -2960,7 +2990,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>199706</v>
+        <v>253107</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>41</v>
@@ -2982,7 +3012,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080135</v>
+        <v>2025080130</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2997,13 +3027,13 @@
         <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>47</v>
@@ -3012,13 +3042,13 @@
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>43</v>
@@ -3026,7 +3056,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>199706</v>
+        <v>253107</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3048,7 +3078,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080589</v>
+        <v>2025080134</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3060,16 +3090,16 @@
         <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>47</v>
@@ -3078,13 +3108,13 @@
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>40</v>
@@ -3094,31 +3124,27 @@
       <c r="R30" s="3">
         <v>199706</v>
       </c>
-      <c r="S30" s="3"/>
+      <c r="S30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025080415</v>
+        <v>2025080135</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3130,10 +3156,10 @@
         <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>152</v>
@@ -3142,27 +3168,27 @@
         <v>153</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="O31" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>330</v>
+        <v>199706</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -3172,21 +3198,19 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025080615</v>
+        <v>2025080589</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3201,36 +3225,36 @@
         <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>153</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="O32" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>330</v>
+        <v>199706</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3238,9 +3262,11 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z32" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
@@ -3254,7 +3280,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025080143</v>
+        <v>2025080415</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3266,43 +3292,41 @@
         <v>118</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>287428</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3310,17 +3334,21 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025080144</v>
+        <v>2025080615</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3332,39 +3360,39 @@
         <v>118</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="J34" s="3" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>287428</v>
+        <v>330</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3374,19 +3402,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080132</v>
+        <v>2025080696</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3398,25 +3428,25 @@
         <v>118</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>166</v>
@@ -3425,16 +3455,16 @@
         <v>167</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="Q35" s="7">
+        <v>6663</v>
+      </c>
       <c r="R35" s="7">
-        <v>116181</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>11174</v>
+      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3442,17 +3472,21 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080133</v>
+        <v>2025080143</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3467,38 +3501,40 @@
         <v>70</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>287428</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3508,9 +3544,7 @@
       <c r="Z36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA36" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
@@ -3518,7 +3552,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080027</v>
+        <v>2025080144</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3533,40 +3567,38 @@
         <v>70</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>180622</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>287428</v>
+      </c>
+      <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3576,7 +3608,9 @@
       <c r="Z37" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA37" s="7"/>
+      <c r="AA37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
@@ -3584,7 +3618,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025080028</v>
+        <v>2025080132</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3599,38 +3633,40 @@
         <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>116181</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3640,9 +3676,7 @@
       <c r="Z38" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA38" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
@@ -3650,7 +3684,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025080029</v>
+        <v>2025080133</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3665,36 +3699,36 @@
         <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>180622</v>
+        <v>116181</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -3704,7 +3738,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -3716,7 +3750,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025080588</v>
+        <v>2025080027</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3728,31 +3762,31 @@
         <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
@@ -3762,31 +3796,27 @@
       <c r="R40" s="3">
         <v>180622</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080136</v>
+        <v>2025080028</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3801,40 +3831,38 @@
         <v>70</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>342829</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3844,7 +3872,9 @@
       <c r="Z41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA41" s="7"/>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -3852,7 +3882,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080137</v>
+        <v>2025080029</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3867,36 +3897,36 @@
         <v>70</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>342829</v>
+        <v>180622</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -3906,7 +3936,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -3918,7 +3948,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080642</v>
+        <v>2025080588</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3933,28 +3963,28 @@
         <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>180</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
@@ -3962,29 +3992,33 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>31483</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
+      <c r="Y43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080643</v>
+        <v>2025080137</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -3996,31 +4030,31 @@
         <v>118</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>43</v>
@@ -4028,7 +4062,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>31483</v>
+        <v>342829</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -4043,14 +4077,16 @@
       <c r="AA44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB44" s="3"/>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025080447</v>
+        <v>2025080136</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4062,27 +4098,31 @@
         <v>118</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L45" s="8" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>40</v>
@@ -4090,7 +4130,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>0</v>
+        <v>342829</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>41</v>
@@ -4102,21 +4142,17 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025080035</v>
+        <v>2025080642</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4128,41 +4164,43 @@
         <v>118</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>31483</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4170,21 +4208,17 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025080425</v>
+        <v>2025080643</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4196,39 +4230,41 @@
         <v>118</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L47" s="8" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>31483</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4236,21 +4272,19 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025080426</v>
+        <v>2025080447</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4265,13 +4299,13 @@
         <v>57</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4279,10 +4313,10 @@
         <v>63</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>40</v>
@@ -4307,14 +4341,16 @@
       <c r="AA48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025080367</v>
+        <v>2025080035</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4326,16 +4362,16 @@
         <v>118</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>61</v>
@@ -4347,10 +4383,10 @@
         <v>63</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>66</v>
@@ -4368,19 +4404,21 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB49" s="7"/>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025080636</v>
+        <v>2025080425</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4389,19 +4427,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4409,10 +4447,10 @@
         <v>63</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>40</v>
@@ -4446,7 +4484,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025080521</v>
+        <v>2025080426</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4455,44 +4493,42 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
         <v>0</v>
       </c>
-      <c r="S51" s="7"/>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4500,7 +4536,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
@@ -4512,7 +4548,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025080527</v>
+        <v>2025080367</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4521,19 +4557,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>61</v>
@@ -4545,10 +4581,10 @@
         <v>63</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>66</v>
@@ -4566,7 +4602,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
@@ -4574,37 +4610,235 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB53" s="9">
-        <v>22</v>
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2025080521</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2025080636</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2025080527</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB55" s="7"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$58</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -535,6 +535,30 @@
     <t>修改設定</t>
   </si>
   <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>11:50:00</t>
+  </si>
+  <si>
+    <t>T351500013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣固網股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路5段609巷2號4F(三重湯城)</t>
+  </si>
+  <si>
+    <t>三重湯城4樓(固網客服)(彩)</t>
+  </si>
+  <si>
+    <t>整機 取送分輪 radf分輪</t>
+  </si>
+  <si>
     <t>16:51:00</t>
   </si>
   <si>
@@ -586,9 +610,6 @@
     <t>新北市五股區五工六路35號4樓(五股)</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
     <t>黑線髒污 更換OD OD刮 回刮</t>
   </si>
   <si>
@@ -604,6 +625,21 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>T451800007</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號10樓-3</t>
+  </si>
+  <si>
+    <t>台北客服10樓-3(黑)</t>
+  </si>
+  <si>
+    <t>更換上熱 分爪 OD OD刮 回刮</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -664,26 +700,23 @@
     <t>狄澤洋</t>
   </si>
   <si>
-    <t>11:50:00</t>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>THILF04917</t>
+  </si>
+  <si>
+    <t>新北市板橋區翠華街6巷1號1樓</t>
+  </si>
+  <si>
+    <t>板橋翠華店</t>
   </si>
   <si>
     <t>12:13:00</t>
-  </si>
-  <si>
-    <t>THILF04917</t>
-  </si>
-  <si>
-    <t>新北市板橋區翠華街6巷1號1樓</t>
-  </si>
-  <si>
-    <t>板橋翠華店</t>
   </si>
   <si>
     <t>錢箱線路換接至TCX800
 測試正常</t>
-  </si>
-  <si>
-    <t>12:10:00</t>
   </si>
   <si>
     <t>12:14:00</t>
@@ -1103,10 +1136,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3416,7 +3449,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080696</v>
+        <v>2025080775</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3428,16 +3461,16 @@
         <v>118</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>54</v>
@@ -3446,23 +3479,23 @@
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7">
-        <v>6663</v>
+        <v>1595</v>
       </c>
       <c r="R35" s="7">
-        <v>11174</v>
+        <v>27090</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -3472,7 +3505,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3486,7 +3519,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080143</v>
+        <v>2025080696</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3498,43 +3531,43 @@
         <v>118</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>157</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="3">
+        <v>6663</v>
+      </c>
       <c r="R36" s="3">
-        <v>287428</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11174</v>
+      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3542,17 +3575,21 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080144</v>
+        <v>2025080143</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3570,35 +3607,37 @@
         <v>157</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
         <v>287428</v>
       </c>
-      <c r="S37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3608,9 +3647,7 @@
       <c r="Z37" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA37" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
@@ -3618,7 +3655,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025080132</v>
+        <v>2025080144</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3633,40 +3670,38 @@
         <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>287428</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3676,7 +3711,9 @@
       <c r="Z38" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA38" s="3"/>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
@@ -3684,7 +3721,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025080133</v>
+        <v>2025080132</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3705,10 +3742,10 @@
         <v>85</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
@@ -3717,20 +3754,22 @@
         <v>149</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <v>116181</v>
       </c>
-      <c r="S39" s="7"/>
+      <c r="S39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3740,9 +3779,7 @@
       <c r="Z39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA39" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
@@ -3750,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025080027</v>
+        <v>2025080133</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3765,16 +3802,16 @@
         <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
@@ -3783,22 +3820,20 @@
         <v>149</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>116181</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3808,7 +3843,9 @@
       <c r="Z40" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -3816,7 +3853,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080028</v>
+        <v>2025080027</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3831,16 +3868,16 @@
         <v>70</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
@@ -3849,20 +3886,22 @@
         <v>149</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
         <v>180622</v>
       </c>
-      <c r="S41" s="7"/>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3872,9 +3911,7 @@
       <c r="Z41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA41" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -3882,7 +3919,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080029</v>
+        <v>2025080028</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3897,16 +3934,16 @@
         <v>70</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="I42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
@@ -3915,13 +3952,13 @@
         <v>149</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3936,7 +3973,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -3948,7 +3985,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080588</v>
+        <v>2025080029</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3960,19 +3997,19 @@
         <v>118</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
@@ -3981,13 +4018,13 @@
         <v>149</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -4000,25 +4037,21 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080137</v>
+        <v>2025080588</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4030,19 +4063,19 @@
         <v>118</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
@@ -4051,18 +4084,18 @@
         <v>149</v>
       </c>
       <c r="M44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="N44" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="O44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>342829</v>
+        <v>180622</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -4070,9 +4103,11 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
+      <c r="Y44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z44" s="6" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
@@ -4107,10 +4142,10 @@
         <v>157</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
@@ -4119,10 +4154,10 @@
         <v>149</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>40</v>
@@ -4152,7 +4187,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025080642</v>
+        <v>2025080137</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4164,43 +4199,41 @@
         <v>118</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>31483</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>342829</v>
+      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4210,7 +4243,9 @@
       <c r="Z46" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AA46" s="3"/>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
@@ -4218,7 +4253,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025080643</v>
+        <v>2025080766</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4230,39 +4265,39 @@
         <v>118</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>31483</v>
+        <v>86982</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4272,19 +4307,21 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7"/>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025080447</v>
+        <v>2025080643</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4296,39 +4333,41 @@
         <v>118</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L48" s="6" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>31483</v>
+      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4336,7 +4375,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -4350,7 +4389,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025080035</v>
+        <v>2025080642</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4362,41 +4401,43 @@
         <v>118</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>0</v>
-      </c>
-      <c r="S49" s="7"/>
+        <v>31483</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4404,21 +4445,17 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB49" s="7">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025080425</v>
+        <v>2025080447</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4433,13 +4470,13 @@
         <v>57</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4447,10 +4484,10 @@
         <v>63</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>40</v>
@@ -4484,7 +4521,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025080426</v>
+        <v>2025080035</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4496,39 +4533,41 @@
         <v>118</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="L51" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
         <v>0</v>
       </c>
-      <c r="S51" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4536,19 +4575,21 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7"/>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025080367</v>
+        <v>2025080425</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4563,38 +4604,36 @@
         <v>57</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="I52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3"/>
+      <c r="S52" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4602,19 +4641,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025080521</v>
+        <v>2025080426</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4623,44 +4664,42 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
         <v>0</v>
       </c>
-      <c r="S53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4668,21 +4707,19 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025080636</v>
+        <v>2025080367</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4691,42 +4728,44 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L54" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4734,7 +4773,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
@@ -4746,7 +4785,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025080527</v>
+        <v>2025080636</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4755,44 +4794,42 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
         <v>0</v>
       </c>
-      <c r="S55" s="7"/>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4800,45 +4837,179 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7"/>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB56" s="9">
-        <v>24</v>
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2025080521</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2025080527</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$73</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -164,6 +164,27 @@
     <t>抄表</t>
   </si>
   <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>12:57:00</t>
+  </si>
+  <si>
+    <t>13:12:00</t>
+  </si>
+  <si>
+    <t>T302800001</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>財團法人台北國際社區青年育樂活動中心基金會</t>
+  </si>
+  <si>
+    <t>台北市士林區天玉街26-1號</t>
+  </si>
+  <si>
     <t>13:15:00</t>
   </si>
   <si>
@@ -171,9 +192,6 @@
   </si>
   <si>
     <t>T302800006</t>
-  </si>
-  <si>
-    <t>eS-3028A 黑白複合機</t>
   </si>
   <si>
     <t xml:space="preserve">信宇顧問有限公司 </t>
@@ -204,6 +222,39 @@
     <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>THILF02014</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路66號</t>
+  </si>
+  <si>
+    <t>三重果菜市場</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>螢幕測試正常，SC主機的VGA 孔位損壞，需更換主機，現場的螢幕切換器也損壞無法切換，已告知店員報修，目前將SC和螢幕直接對接使用
+更換SC主機
+換下8114003252
+換上8114004371</t>
+  </si>
+  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -216,22 +267,10 @@
     <t>THILF02259</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市三重區中華路18號</t>
   </si>
   <si>
     <t>三重興華店</t>
-  </si>
-  <si>
-    <t>維修</t>
   </si>
   <si>
     <t>更換掃描槍
@@ -487,6 +526,54 @@
     <t>更換radf分離輪</t>
   </si>
   <si>
+    <t>T301800171</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正區336-1號(新莊)</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>T301800174</t>
+  </si>
+  <si>
+    <t>新北市板橋區中山路1段10號5樓(板橋分校)</t>
+  </si>
+  <si>
+    <t>板橋</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>T302800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財團法人台灣省私立台灣盲人重建院 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號3樓</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>T302800008</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號4樓</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -499,9 +586,6 @@
     <t>五股DC廠工商運輸</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>T302800060</t>
   </si>
   <si>
@@ -514,7 +598,16 @@
     <t>OD OD刮 回刮</t>
   </si>
   <si>
-    <t>15:30:00</t>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>T302800123</t>
+  </si>
+  <si>
+    <t>新北市三重區正義北路218號(三重分校)</t>
+  </si>
+  <si>
+    <t>三重</t>
   </si>
   <si>
     <t>16:30:00</t>
@@ -535,9 +628,6 @@
     <t>修改設定</t>
   </si>
   <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -574,9 +664,6 @@
     <t>黃色攪拌棒偵測器故障</t>
   </si>
   <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
     <t>T351800042</t>
   </si>
   <si>
@@ -625,6 +712,18 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>T352500148</t>
+  </si>
+  <si>
+    <t>eS-3525AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宏偉營造工程有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區光復路1段61巷26號2樓</t>
+  </si>
+  <si>
     <t>T451800007</t>
   </si>
   <si>
@@ -640,9 +739,6 @@
     <t>更換上熱 分爪 OD OD刮 回刮</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -655,9 +751,6 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>THILF04154</t>
   </si>
   <si>
@@ -700,7 +793,7 @@
     <t>狄澤洋</t>
   </si>
   <si>
-    <t>12:10:00</t>
+    <t>12:13:00</t>
   </si>
   <si>
     <t>THILF04917</t>
@@ -710,9 +803,6 @@
   </si>
   <si>
     <t>板橋翠華店</t>
-  </si>
-  <si>
-    <t>12:13:00</t>
   </si>
   <si>
     <t>錢箱線路換接至TCX800
@@ -720,6 +810,9 @@
   </si>
   <si>
     <t>12:14:00</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
   </si>
   <si>
     <t>合計</t>
@@ -1136,10 +1229,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1433,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025080648</v>
+        <v>2025080786</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1445,37 +1538,39 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>26400</v>
+        <v>63324</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>41</v>
@@ -1487,7 +1582,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>41</v>
@@ -1501,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025080649</v>
+        <v>2025080787</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1513,37 +1608,39 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>26400</v>
+        <v>63324</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1553,7 +1650,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>41</v>
@@ -1565,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025080659</v>
+        <v>2025080648</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1589,29 +1686,25 @@
         <v>53</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7">
-        <v>2380</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>287252</v>
+        <v>26400</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>41</v>
@@ -1623,7 +1716,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>41</v>
@@ -1637,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025080660</v>
+        <v>2025080649</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1661,29 +1754,25 @@
         <v>53</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>2380</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>287252</v>
+        <v>26400</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1693,7 +1782,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>41</v>
@@ -1705,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025080365</v>
+        <v>2025080659</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1717,41 +1806,45 @@
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>2380</v>
+      </c>
       <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>287252</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1759,7 +1852,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>41</v>
@@ -1773,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025080366</v>
+        <v>2025080660</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1785,39 +1878,41 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="N10" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>2380</v>
+      </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>287252</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1827,7 +1922,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>41</v>
@@ -1839,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025080101</v>
+        <v>2025080650</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1851,39 +1946,41 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
         <v>0</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1891,7 +1988,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -1905,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025080422</v>
+        <v>2025080365</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1917,34 +2014,34 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="N12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1959,7 +2056,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
@@ -1973,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025080594</v>
+        <v>2025080366</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1985,39 +2082,41 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="L13" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -2025,7 +2124,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
@@ -2037,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025080371</v>
+        <v>2025080101</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2049,41 +2148,39 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="N14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="O14" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2091,7 +2188,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2105,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025080482</v>
+        <v>2025080422</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2117,34 +2214,34 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2159,19 +2256,21 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025080112</v>
+        <v>2025080594</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2183,27 +2282,27 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -2223,21 +2322,19 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025080142</v>
+        <v>2025080371</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2249,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>97</v>
@@ -2261,13 +2358,13 @@
         <v>99</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>100</v>
@@ -2276,7 +2373,7 @@
         <v>101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2305,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025080098</v>
+        <v>2025080482</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2317,39 +2414,41 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="L18" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2357,21 +2456,19 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025080131</v>
+        <v>2025080112</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2383,27 +2480,27 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2423,7 +2520,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2437,7 +2534,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025080362</v>
+        <v>2025080142</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2449,34 +2546,34 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2491,7 +2588,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2505,7 +2602,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025080363</v>
+        <v>2025080098</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2517,41 +2614,39 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>116</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2559,19 +2654,21 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="7"/>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025080617</v>
+        <v>2025080131</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2580,56 +2677,50 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="N22" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3">
-        <v>10117</v>
-      </c>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>69822</v>
-      </c>
-      <c r="S22" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2643,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025080644</v>
+        <v>2025080362</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2652,48 +2743,44 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>338</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>21935</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2701,17 +2788,21 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025080645</v>
+        <v>2025080363</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2720,44 +2811,42 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3">
-        <v>338</v>
-      </c>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>21935</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2767,7 +2856,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -2779,7 +2868,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080704</v>
+        <v>2025080617</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2788,64 +2877,70 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="7">
+        <v>10117</v>
+      </c>
       <c r="R25" s="7">
-        <v>7108</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>69822</v>
+      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
+      <c r="Y25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080705</v>
+        <v>2025080644</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2854,44 +2949,48 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3">
+        <v>338</v>
+      </c>
       <c r="R26" s="3">
-        <v>7108</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>21935</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2899,11 +2998,9 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
@@ -2911,7 +3008,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025080586</v>
+        <v>2025080645</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2920,42 +3017,44 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="N27" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="7">
+        <v>338</v>
+      </c>
       <c r="R27" s="7">
-        <v>163873</v>
+        <v>21935</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2965,21 +3064,19 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080129</v>
+        <v>2025080704</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2988,34 +3085,34 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>40</v>
@@ -3023,7 +3120,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>253107</v>
+        <v>7108</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>41</v>
@@ -3035,7 +3132,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -3045,7 +3142,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080130</v>
+        <v>2025080705</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3054,34 +3151,34 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>43</v>
@@ -3089,7 +3186,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>253107</v>
+        <v>7108</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3099,7 +3196,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
@@ -3111,7 +3208,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080134</v>
+        <v>2025080586</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3120,46 +3217,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>199706</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>163873</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3167,17 +3262,21 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025080135</v>
+        <v>2025080852</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3186,44 +3285,46 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>199706</v>
-      </c>
-      <c r="S31" s="7"/>
+        <v>46640</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3231,19 +3332,21 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025080589</v>
+        <v>2025080853</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3252,42 +3355,42 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>199706</v>
+        <v>46640</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3295,25 +3398,21 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB32" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025080415</v>
+        <v>2025080850</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3322,44 +3421,46 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>330</v>
-      </c>
-      <c r="S33" s="7"/>
+        <v>76522</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3367,7 +3468,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
@@ -3381,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025080615</v>
+        <v>2025080851</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3390,42 +3491,42 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>330</v>
+        <v>76522</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3435,21 +3536,19 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080775</v>
+        <v>2025080858</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3458,46 +3557,46 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7">
-        <v>1595</v>
-      </c>
+      <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>27090</v>
-      </c>
-      <c r="S35" s="7"/>
+        <v>146880</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3505,7 +3604,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3519,7 +3618,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080696</v>
+        <v>2025080859</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3528,44 +3627,42 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3">
-        <v>6663</v>
-      </c>
+      <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>11174</v>
+        <v>146880</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3575,21 +3672,19 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080143</v>
+        <v>2025080864</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3598,46 +3693,44 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>287428</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>131744</v>
+      </c>
+      <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3645,17 +3738,21 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025080144</v>
+        <v>2025080863</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3664,44 +3761,46 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>287428</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>131744</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3709,7 +3808,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -3721,7 +3820,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025080132</v>
+        <v>2025080129</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3730,34 +3829,34 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3765,7 +3864,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>116181</v>
+        <v>253107</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>41</v>
@@ -3777,7 +3876,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -3787,7 +3886,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025080133</v>
+        <v>2025080130</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3796,34 +3895,34 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>43</v>
@@ -3831,7 +3930,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>116181</v>
+        <v>253107</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3841,7 +3940,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
@@ -3853,7 +3952,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080027</v>
+        <v>2025080134</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3862,34 +3961,34 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
@@ -3897,7 +3996,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>180622</v>
+        <v>199706</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>41</v>
@@ -3909,7 +4008,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -3919,7 +4018,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080028</v>
+        <v>2025080135</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3928,34 +4027,34 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>43</v>
@@ -3963,7 +4062,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>180622</v>
+        <v>199706</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -3973,7 +4072,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -3985,7 +4084,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080029</v>
+        <v>2025080589</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3994,42 +4093,42 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>180622</v>
+        <v>199706</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4037,21 +4136,25 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
+      <c r="Y43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z43" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7"/>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080588</v>
+        <v>2025080848</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4060,34 +4163,34 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>40</v>
@@ -4095,19 +4198,19 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>2363</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
@@ -4121,7 +4224,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025080136</v>
+        <v>2025080849</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4130,46 +4233,44 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>342829</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>2363</v>
+      </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4177,9 +4278,11 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA45" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
@@ -4187,7 +4290,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025080137</v>
+        <v>2025080415</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4196,42 +4299,42 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>342829</v>
+        <v>330</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -4241,19 +4344,21 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB46" s="3"/>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025080766</v>
+        <v>2025080615</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4262,42 +4367,42 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>86982</v>
+        <v>330</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4307,7 +4412,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
@@ -4321,7 +4426,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025080643</v>
+        <v>2025080775</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4330,42 +4435,44 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="3">
+        <v>1595</v>
+      </c>
       <c r="R48" s="3">
-        <v>31483</v>
+        <v>27090</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4375,7 +4482,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -4389,7 +4496,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025080642</v>
+        <v>2025080696</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4398,46 +4505,46 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="Q49" s="7">
+        <v>6663</v>
+      </c>
       <c r="R49" s="7">
-        <v>31483</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>11174</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4445,17 +4552,21 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025080447</v>
+        <v>2025080143</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4464,30 +4575,34 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L50" s="6" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>40</v>
@@ -4495,7 +4610,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>0</v>
+        <v>287428</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>41</v>
@@ -4507,21 +4622,17 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>1</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025080035</v>
+        <v>2025080144</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4530,42 +4641,42 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="M51" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="N51" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="O51" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>0</v>
+        <v>287428</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -4575,21 +4686,19 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025080425</v>
+        <v>2025080132</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4598,30 +4707,34 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L52" s="6" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
@@ -4629,7 +4742,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>116181</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>41</v>
@@ -4641,21 +4754,17 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025080426</v>
+        <v>2025080133</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4664,42 +4773,44 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L53" s="8" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>0</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>116181</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4707,7 +4818,7 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
@@ -4719,7 +4830,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025080367</v>
+        <v>2025080027</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4728,44 +4839,46 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>180622</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4773,11 +4886,9 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
@@ -4785,7 +4896,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025080636</v>
+        <v>2025080028</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4794,42 +4905,44 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L55" s="8" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>0</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4837,21 +4950,19 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025080521</v>
+        <v>2025080029</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4860,42 +4971,42 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>0</v>
+        <v>180622</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -4905,7 +5016,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>41</v>
@@ -4917,7 +5028,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025080527</v>
+        <v>2025080588</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4926,42 +5037,42 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>0</v>
+        <v>180622</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -4969,47 +5080,1051 @@
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
+      <c r="Y57" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z57" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2025080136</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
+        <v>342829</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2025080137</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <v>342829</v>
+      </c>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2025080856</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="AA57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB57" s="7"/>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="9" t="s">
+      <c r="M60" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3">
+        <v>1205</v>
+      </c>
+      <c r="R60" s="3">
+        <v>3849</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2025080857</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7">
+        <v>1205</v>
+      </c>
+      <c r="R61" s="7">
+        <v>3849</v>
+      </c>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2025080766</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AB58" s="9">
-        <v>26</v>
+      <c r="J62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
+        <v>86982</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2025080642</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <v>31483</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2025080643</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
+        <v>31483</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2025080447</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2025080035</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2025080425</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2025080426</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2025080367</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2025080521</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2025080527</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2025080636</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB72" s="3"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB73" s="9">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$87</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -222,6 +222,41 @@
     <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>17:20:00</t>
+  </si>
+  <si>
+    <t>T351800086</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅樹林有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中正東路1段3巷33號7樓</t>
+  </si>
+  <si>
+    <t>7樓工程部</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>LDAP DB破損
+需更換硬碟測試</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>LDAP DB損壞
+需更換硬碟測試</t>
+  </si>
+  <si>
     <t>09:40:00</t>
   </si>
   <si>
@@ -244,9 +279,6 @@
   </si>
   <si>
     <t>三重果菜市場</t>
-  </si>
-  <si>
-    <t>維修</t>
   </si>
   <si>
     <t>螢幕測試正常，SC主機的VGA 孔位損壞，需更換主機，現場的螢幕切換器也損壞無法切換，已告知店員報修，目前將SC和螢幕直接對接使用
@@ -307,6 +339,27 @@
     <t>PMQ3</t>
   </si>
   <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>10:54:00</t>
+  </si>
+  <si>
+    <t>11:24:00</t>
+  </si>
+  <si>
+    <t>THILF03890</t>
+  </si>
+  <si>
+    <t>新北市三重區二重疏洪道疏洪十六路重新橋下</t>
+  </si>
+  <si>
+    <t>三重美堤店</t>
+  </si>
+  <si>
+    <t>更換錢箱線</t>
+  </si>
+  <si>
     <t>09:30:00</t>
   </si>
   <si>
@@ -333,6 +386,13 @@
     <t>10:41:00</t>
   </si>
   <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>更換變壓器
+目前測試皆為正常，重新開機測試也正常</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -400,6 +460,24 @@
   </si>
   <si>
     <t>三重三文店</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>THILF05352</t>
+  </si>
+  <si>
+    <t>新北市三重區重陽路四段132、134號一樓及地下室</t>
+  </si>
+  <si>
+    <t>三重重陽店</t>
+  </si>
+  <si>
+    <t>重新下載文字檔案測試，寄件人和取件人列印都有出現</t>
   </si>
   <si>
     <t>15:25:00</t>
@@ -562,9 +640,6 @@
     <t>3F</t>
   </si>
   <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
     <t>T302800008</t>
   </si>
   <si>
@@ -649,6 +724,9 @@
     <t>整機 取送分輪 radf分輪</t>
   </si>
   <si>
+    <t>取送分輪 RADF分輪</t>
+  </si>
+  <si>
     <t>16:51:00</t>
   </si>
   <si>
@@ -667,9 +745,6 @@
     <t>T351800042</t>
   </si>
   <si>
-    <t>eS-3518A 黑白複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">全聯實業股份有限公司 </t>
   </si>
   <si>
@@ -739,6 +814,9 @@
     <t>更換上熱 分爪 OD OD刮 回刮</t>
   </si>
   <si>
+    <t>更換OD OD刮 回刮 上熱 分爪</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -751,6 +829,27 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>THILF03052</t>
+  </si>
+  <si>
+    <t>新北市新莊區自信街77號+75巷2號</t>
+  </si>
+  <si>
+    <t>北縣莊玲店</t>
+  </si>
+  <si>
+    <t>THILF04025</t>
+  </si>
+  <si>
+    <t>新北市新莊區中信街20號一樓全部、22號一樓部份</t>
+  </si>
+  <si>
+    <t>新莊祐信店</t>
+  </si>
+  <si>
     <t>THILF04154</t>
   </si>
   <si>
@@ -760,6 +859,15 @@
     <t>林口麗園店</t>
   </si>
   <si>
+    <t>THILF04163</t>
+  </si>
+  <si>
+    <t>新北市新莊區中誠街161號及163號一樓全部</t>
+  </si>
+  <si>
+    <t>新莊中泉店</t>
+  </si>
+  <si>
     <t>12:00:00</t>
   </si>
   <si>
@@ -793,16 +901,42 @@
     <t>狄澤洋</t>
   </si>
   <si>
+    <t>15:16:00</t>
+  </si>
+  <si>
+    <t>15:42:00</t>
+  </si>
+  <si>
+    <t>THILF04046</t>
+  </si>
+  <si>
+    <t>新北市板橋區僑中一街124巷11弄1、3號一樓全部</t>
+  </si>
+  <si>
+    <t>板橋福康店</t>
+  </si>
+  <si>
+    <t>更換QP3000
+換上 8183003279
+換下 8183001981</t>
+  </si>
+  <si>
+    <t>15:24:00</t>
+  </si>
+  <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
+    <t>THILF04917</t>
+  </si>
+  <si>
+    <t>新北市板橋區翠華街6巷1號1樓</t>
+  </si>
+  <si>
+    <t>板橋翠華店</t>
+  </si>
+  <si>
     <t>12:13:00</t>
-  </si>
-  <si>
-    <t>THILF04917</t>
-  </si>
-  <si>
-    <t>新北市板橋區翠華街6巷1號1樓</t>
-  </si>
-  <si>
-    <t>板橋翠華店</t>
   </si>
   <si>
     <t>錢箱線路換接至TCX800
@@ -812,7 +946,28 @@
     <t>12:14:00</t>
   </si>
   <si>
-    <t>12:10:00</t>
+    <t>14:23:00</t>
+  </si>
+  <si>
+    <t>15:10:00</t>
+  </si>
+  <si>
+    <t>THILF05384</t>
+  </si>
+  <si>
+    <t>新北市板橋區民生路三段68-1號1樓</t>
+  </si>
+  <si>
+    <t>板橋民生站</t>
+  </si>
+  <si>
+    <t>原店內印票機測試正常，更換設備供門市測試
+更換印票機
+換上 8139002712
+換下 8139003247</t>
+  </si>
+  <si>
+    <t>EDC</t>
   </si>
   <si>
     <t>合計</t>
@@ -1229,10 +1384,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AB87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1934,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025080650</v>
+        <v>2025080881</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1961,24 +2116,24 @@
         <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>0</v>
+        <v>126234</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1988,7 +2143,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -2002,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025080365</v>
+        <v>2025080941</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2014,39 +2169,39 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="N12" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>149364</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2056,21 +2211,19 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025080366</v>
+        <v>2025080650</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2082,34 +2235,34 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2124,19 +2277,21 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025080101</v>
+        <v>2025080365</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2148,39 +2303,41 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L14" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2188,7 +2345,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2202,7 +2359,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025080422</v>
+        <v>2025080366</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2214,34 +2371,34 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>90</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2256,21 +2413,19 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025080594</v>
+        <v>2025080101</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2282,27 +2437,27 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -2322,19 +2477,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" s="3"/>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025080371</v>
+        <v>2025080892</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2346,34 +2503,34 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2388,7 +2545,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2402,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025080482</v>
+        <v>2025080422</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2414,34 +2571,34 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2456,19 +2613,21 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="3"/>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025080112</v>
+        <v>2025080594</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2480,27 +2639,27 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2520,21 +2679,19 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025080142</v>
+        <v>2025080821</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2546,34 +2703,34 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="N20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2588,7 +2745,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2602,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025080098</v>
+        <v>2025080371</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2614,39 +2771,41 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L21" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2654,7 +2813,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
@@ -2668,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025080131</v>
+        <v>2025080482</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2680,39 +2839,41 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2720,21 +2881,19 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025080362</v>
+        <v>2025080112</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2746,41 +2905,39 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="N23" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <v>0</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2788,7 +2945,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -2802,7 +2959,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025080363</v>
+        <v>2025080142</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2814,34 +2971,34 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2856,19 +3013,21 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080617</v>
+        <v>2025080098</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2877,56 +3036,50 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7">
-        <v>10117</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>69822</v>
-      </c>
-      <c r="S25" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
@@ -2940,7 +3093,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080644</v>
+        <v>2025080953</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2949,10 +3102,10 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>139</v>
@@ -2964,33 +3117,29 @@
         <v>141</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3">
-        <v>338</v>
-      </c>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>21935</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2998,17 +3147,21 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025080645</v>
+        <v>2025080131</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3017,46 +3170,42 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>338</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>21935</v>
-      </c>
-      <c r="S27" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3064,19 +3213,21 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080704</v>
+        <v>2025080362</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3085,46 +3236,44 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="J28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="N28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>7108</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3132,17 +3281,21 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080705</v>
+        <v>2025080363</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3151,42 +3304,42 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="N29" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>7108</v>
+        <v>0</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3196,7 +3349,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
@@ -3208,7 +3361,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080586</v>
+        <v>2025080617</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3217,42 +3370,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="3">
+        <v>10117</v>
+      </c>
       <c r="R30" s="3">
-        <v>163873</v>
+        <v>69822</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -3260,9 +3415,11 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="Y30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z30" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
@@ -3276,7 +3433,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025080852</v>
+        <v>2025080644</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3285,42 +3442,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="7">
+        <v>338</v>
+      </c>
       <c r="R31" s="7">
-        <v>46640</v>
+        <v>21935</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>41</v>
@@ -3332,21 +3491,17 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025080853</v>
+        <v>2025080645</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3355,42 +3510,44 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="3">
+        <v>338</v>
+      </c>
       <c r="R32" s="3">
-        <v>46640</v>
+        <v>21935</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3400,7 +3557,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
@@ -3412,7 +3569,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025080850</v>
+        <v>2025080704</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3421,19 +3578,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>35</v>
@@ -3442,13 +3599,13 @@
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>40</v>
@@ -3456,7 +3613,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>76522</v>
+        <v>7108</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>41</v>
@@ -3468,21 +3625,17 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB33" s="7">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025080851</v>
+        <v>2025080705</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3491,19 +3644,19 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>35</v>
@@ -3512,13 +3665,13 @@
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>43</v>
@@ -3526,7 +3679,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>76522</v>
+        <v>7108</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3536,7 +3689,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
@@ -3548,7 +3701,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080858</v>
+        <v>2025080586</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3557,46 +3710,44 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>146880</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>163873</v>
+      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3604,7 +3755,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3618,7 +3769,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080859</v>
+        <v>2025080852</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3627,44 +3778,46 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>146880</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>46640</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3672,19 +3825,21 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="3"/>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080864</v>
+        <v>2025080853</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3693,34 +3848,34 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>43</v>
@@ -3728,7 +3883,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>131744</v>
+        <v>46640</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -3738,21 +3893,19 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025080863</v>
+        <v>2025080850</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3761,34 +3914,34 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>40</v>
@@ -3796,7 +3949,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>131744</v>
+        <v>76522</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>41</v>
@@ -3808,19 +3961,21 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB38" s="3"/>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025080129</v>
+        <v>2025080851</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3829,46 +3984,44 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>253107</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>76522</v>
+      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3876,9 +4029,11 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA39" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
@@ -3886,7 +4041,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025080130</v>
+        <v>2025080858</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3895,19 +4050,19 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>48</v>
@@ -3916,23 +4071,25 @@
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>253107</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>146880</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3940,19 +4097,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB40" s="3"/>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080134</v>
+        <v>2025080859</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3961,19 +4120,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>48</v>
@@ -3982,25 +4141,23 @@
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>199706</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>146880</v>
+      </c>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4008,9 +4165,11 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA41" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -4018,7 +4177,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080135</v>
+        <v>2025080863</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4027,19 +4186,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>48</v>
@@ -4048,23 +4207,25 @@
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>199706</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>131744</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4072,19 +4233,21 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB42" s="3"/>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080589</v>
+        <v>2025080864</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4093,19 +4256,19 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>48</v>
@@ -4114,21 +4277,21 @@
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>199706</v>
+        <v>131744</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4136,25 +4299,21 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
-      <c r="Y43" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080848</v>
+        <v>2025080129</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4163,19 +4322,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>48</v>
@@ -4184,13 +4343,13 @@
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>40</v>
@@ -4198,7 +4357,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>2363</v>
+        <v>253107</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>41</v>
@@ -4210,21 +4369,17 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025080849</v>
+        <v>2025080130</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4233,19 +4388,19 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>48</v>
@@ -4254,13 +4409,13 @@
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>43</v>
@@ -4268,7 +4423,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>2363</v>
+        <v>253107</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4278,7 +4433,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
@@ -4290,7 +4445,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025080415</v>
+        <v>2025080134</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4299,44 +4454,46 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>330</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>199706</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4344,21 +4501,17 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025080615</v>
+        <v>2025080135</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4367,42 +4520,42 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>330</v>
+        <v>199706</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4412,21 +4565,19 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025080775</v>
+        <v>2025080589</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4435,44 +4586,42 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3">
-        <v>1595</v>
-      </c>
+      <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>27090</v>
+        <v>199706</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4480,9 +4629,11 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
+      <c r="Y48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z48" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -4496,7 +4647,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025080696</v>
+        <v>2025080849</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4505,44 +4656,42 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P49" s="7"/>
-      <c r="Q49" s="7">
-        <v>6663</v>
-      </c>
+      <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>11174</v>
+        <v>2363</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -4552,7 +4701,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
@@ -4566,7 +4715,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025080143</v>
+        <v>2025080848</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4575,34 +4724,34 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>40</v>
@@ -4610,7 +4759,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>287428</v>
+        <v>2363</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>41</v>
@@ -4622,9 +4771,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA50" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
@@ -4632,7 +4783,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025080144</v>
+        <v>2025080415</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4641,42 +4792,42 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>287428</v>
+        <v>330</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -4686,19 +4837,21 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7"/>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025080132</v>
+        <v>2025080615</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4707,46 +4860,44 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4754,17 +4905,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025080133</v>
+        <v>2025080775</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4773,42 +4928,44 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="Q53" s="7">
+        <v>1595</v>
+      </c>
       <c r="R53" s="7">
-        <v>116181</v>
+        <v>27090</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -4818,19 +4975,21 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7"/>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025080027</v>
+        <v>2025080990</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4839,64 +4998,70 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="Q54" s="3">
+        <v>1595</v>
+      </c>
       <c r="R54" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>27090</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
+      <c r="Y54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z54" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025080028</v>
+        <v>2025080696</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4905,42 +5070,44 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
+      <c r="Q55" s="7">
+        <v>6663</v>
+      </c>
       <c r="R55" s="7">
-        <v>180622</v>
+        <v>11174</v>
       </c>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -4950,19 +5117,21 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7"/>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025080029</v>
+        <v>2025080143</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4971,44 +5140,46 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>287428</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5016,11 +5187,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -5028,7 +5197,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025080588</v>
+        <v>2025080144</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5037,42 +5206,42 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>180622</v>
+        <v>287428</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5080,25 +5249,21 @@
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025080136</v>
+        <v>2025080133</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5107,46 +5272,44 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>342829</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>116181</v>
+      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5154,17 +5317,21 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025080137</v>
+        <v>2025080132</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5173,44 +5340,46 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>342829</v>
-      </c>
-      <c r="S59" s="7"/>
+        <v>116181</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5218,11 +5387,9 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA59" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
@@ -5230,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025080856</v>
+        <v>2025080027</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5239,44 +5406,42 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3">
-        <v>1205</v>
-      </c>
+      <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>3849</v>
+        <v>180622</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>41</v>
@@ -5288,21 +5453,17 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025080857</v>
+        <v>2025080028</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5311,44 +5472,42 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P61" s="7"/>
-      <c r="Q61" s="7">
-        <v>1205</v>
-      </c>
+      <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>3849</v>
+        <v>180622</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5358,7 +5517,7 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
@@ -5370,7 +5529,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025080766</v>
+        <v>2025080029</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5379,42 +5538,42 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>86982</v>
+        <v>180622</v>
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -5424,21 +5583,19 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB62" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025080642</v>
+        <v>2025080588</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5447,34 +5604,34 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>40</v>
@@ -5482,29 +5639,33 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>31483</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
+      <c r="Y63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z63" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025080643</v>
+        <v>2025080136</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5513,44 +5674,46 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>31483</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>342829</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5558,11 +5721,9 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA64" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
@@ -5570,7 +5731,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025080447</v>
+        <v>2025080137</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5579,42 +5740,44 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L65" s="8" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>0</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>342829</v>
+      </c>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5622,21 +5785,19 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB65" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025080035</v>
+        <v>2025080856</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5645,44 +5806,48 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="Q66" s="3">
+        <v>1205</v>
+      </c>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>3849</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5690,7 +5855,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
@@ -5704,7 +5869,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025080425</v>
+        <v>2025080857</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5713,42 +5878,46 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L67" s="8" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
+      <c r="Q67" s="7">
+        <v>1205</v>
+      </c>
       <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3849</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5756,21 +5925,19 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025080426</v>
+        <v>2025080766</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5779,42 +5946,44 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L68" s="6" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>0</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>86982</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -5822,19 +5991,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB68" s="3"/>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025080367</v>
+        <v>2025080989</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5843,42 +6014,42 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>0</v>
+        <v>86982</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -5886,21 +6057,25 @@
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
+      <c r="Y69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z69" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7"/>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025080521</v>
+        <v>2025080642</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -5909,44 +6084,46 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3"/>
+        <v>31483</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -5954,21 +6131,17 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025080527</v>
+        <v>2025080643</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -5977,42 +6150,42 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>0</v>
+        <v>31483</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -6022,7 +6195,7 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
@@ -6034,7 +6207,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025080636</v>
+        <v>2025081004</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6043,30 +6216,30 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>40</v>
@@ -6086,45 +6259,971 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB72" s="3"/>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:28">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB73" s="9">
-        <v>33</v>
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2025081012</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2025080447</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2025081016</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2025080035</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2025080425</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2025080426</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="3"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2025080367</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2025080889</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2025081062</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2025080636</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2025080521</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB83" s="7"/>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2025080527</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2025080946</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2025081053</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z86" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3"/>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB87" s="9">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$115</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -225,35 +225,35 @@
     <t>16:00:00</t>
   </si>
   <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>T351800086</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅樹林有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中正東路1段3巷33號7樓</t>
+  </si>
+  <si>
+    <t>7樓工程部</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>LDAP DB損壞
+需更換硬碟測試</t>
+  </si>
+  <si>
     <t>17:20:00</t>
   </si>
   <si>
-    <t>T351800086</t>
-  </si>
-  <si>
-    <t>eS-3518A 黑白複合機</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紅樹林有線電視股份有限公司 </t>
-  </si>
-  <si>
-    <t>新北市淡水區中正東路1段3巷33號7樓</t>
-  </si>
-  <si>
-    <t>7樓工程部</t>
-  </si>
-  <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>LDAP DB破損
-需更換硬碟測試</t>
-  </si>
-  <si>
-    <t>17:30:00</t>
-  </si>
-  <si>
-    <t>LDAP DB損壞
 需更換硬碟測試</t>
   </si>
   <si>
@@ -287,6 +287,27 @@
 換上8114004371</t>
   </si>
   <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>16:39:00</t>
+  </si>
+  <si>
+    <t>17:04:00</t>
+  </si>
+  <si>
+    <t>THILF02222</t>
+  </si>
+  <si>
+    <t>新北市三重區永福街256及258號</t>
+  </si>
+  <si>
+    <t>三重義天店</t>
+  </si>
+  <si>
+    <t>PMQ3</t>
+  </si>
+  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -318,6 +339,41 @@
 換上8119012491</t>
   </si>
   <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>10:12:00</t>
+  </si>
+  <si>
+    <t>THILF03741</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路三段2號</t>
+  </si>
+  <si>
+    <t>三重重新三</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119011532
+換上8119011671</t>
+  </si>
+  <si>
+    <t>15:20:00</t>
+  </si>
+  <si>
+    <t>15:46:00</t>
+  </si>
+  <si>
+    <t>THILF03772</t>
+  </si>
+  <si>
+    <t>新北市三重區溪尾街１０８巷５８號</t>
+  </si>
+  <si>
+    <t>三重美溪店</t>
+  </si>
+  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -336,9 +392,6 @@
     <t>北縣天龍店</t>
   </si>
   <si>
-    <t>PMQ3</t>
-  </si>
-  <si>
     <t>2025-08-07</t>
   </si>
   <si>
@@ -358,9 +411,6 @@
   </si>
   <si>
     <t>更換錢箱線</t>
-  </si>
-  <si>
-    <t>09:30:00</t>
   </si>
   <si>
     <t>10:00:00</t>
@@ -393,6 +443,18 @@
 目前測試皆為正常，重新開機測試也正常</t>
   </si>
   <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>12:40:00</t>
+  </si>
+  <si>
+    <t>更換多卡機
+換下8183001839
+換上8183003229
+將TM1和TM2交換對接做卡機測試，比且等待店家交班及清帳後再次測試確認，目前都可以進行讀卡的動作，請店家在進行觀察</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -478,6 +540,33 @@
   </si>
   <si>
     <t>重新下載文字檔案測試，寄件人和取件人列印都有出現</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:20:00</t>
+  </si>
+  <si>
+    <t>THILF0D022</t>
+  </si>
+  <si>
+    <t>新北市三重區溪尾街192號</t>
+  </si>
+  <si>
+    <t>三重溪尾店</t>
+  </si>
+  <si>
+    <t>14:51:00</t>
+  </si>
+  <si>
+    <t>THILF0D057</t>
+  </si>
+  <si>
+    <t>新北市三重區溪尾街122號</t>
+  </si>
+  <si>
+    <t>北縣溪尾二店</t>
   </si>
   <si>
     <t>15:25:00</t>
@@ -541,18 +630,54 @@
     <t>更換OD OD刮</t>
   </si>
   <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>T251000087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區和興街66號3樓(節目中心)</t>
+  </si>
+  <si>
+    <t>節目中心</t>
+  </si>
+  <si>
+    <t>卡貼紙 清潔轉皮 滾筒 磁軸</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>T252000086</t>
+  </si>
+  <si>
+    <t>eS-2520AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街79巷旁工地</t>
+  </si>
+  <si>
+    <t>華固慕川</t>
+  </si>
+  <si>
+    <t>請客戶另存新檔 重新列印 目前正常 觀察中</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
     <t>T252000125</t>
   </si>
   <si>
-    <t>eS-2520AC 彩色複合機</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行股份有限公司林口文化分行</t>
   </si>
   <si>
@@ -583,6 +708,18 @@
     <t>台北客服2樓(黑)</t>
   </si>
   <si>
+    <t>T301800025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台2)</t>
+  </si>
+  <si>
+    <t>櫃台2</t>
+  </si>
+  <si>
     <t>09:48:00</t>
   </si>
   <si>
@@ -592,9 +729,6 @@
     <t>T301800026</t>
   </si>
   <si>
-    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市新莊區中正路651-5號10樓(節目部)</t>
   </si>
   <si>
@@ -604,6 +738,9 @@
     <t>更換radf分離輪</t>
   </si>
   <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
     <t>T301800171</t>
   </si>
   <si>
@@ -622,12 +759,6 @@
     <t>板橋</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>15:30:00</t>
-  </si>
-  <si>
     <t>T302800007</t>
   </si>
   <si>
@@ -673,9 +804,6 @@
     <t>OD OD刮 回刮</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
     <t>T302800123</t>
   </si>
   <si>
@@ -703,9 +831,6 @@
     <t>修改設定</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
     <t>11:50:00</t>
   </si>
   <si>
@@ -763,6 +888,48 @@
     <t>五股</t>
   </si>
   <si>
+    <t>16:20:00</t>
+  </si>
+  <si>
+    <t>T351800082</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台1)</t>
+  </si>
+  <si>
+    <t>櫃台1</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>T351800083</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部1)</t>
+  </si>
+  <si>
+    <t>工程部1</t>
+  </si>
+  <si>
+    <t>T351800084</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(走道)</t>
+  </si>
+  <si>
+    <t>走道</t>
+  </si>
+  <si>
+    <t>T351800085</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(營管部)</t>
+  </si>
+  <si>
+    <t>營管部</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -787,6 +954,15 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>T351800118</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部2)</t>
+  </si>
+  <si>
+    <t>工程部2</t>
+  </si>
+  <si>
     <t>T352500148</t>
   </si>
   <si>
@@ -799,12 +975,21 @@
     <t>新北市三重區光復路1段61巷26號2樓</t>
   </si>
   <si>
+    <t>T451800006</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凱擘股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-10號2樓</t>
+  </si>
+  <si>
     <t>T451800007</t>
   </si>
   <si>
-    <t>eS-4518A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市三重區重新路五段609巷2號10樓-3</t>
   </si>
   <si>
@@ -829,6 +1014,21 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
+    <t>16:40:00</t>
+  </si>
+  <si>
+    <t>TE30600111</t>
+  </si>
+  <si>
+    <t>eS-306 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市泰山區美寧街57巷34號1樓(異地備援)</t>
+  </si>
+  <si>
+    <t>異地備援泰山</t>
+  </si>
+  <si>
     <t>12:10:00</t>
   </si>
   <si>
@@ -866,6 +1066,24 @@
   </si>
   <si>
     <t>新莊中泉店</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>08:45:00</t>
+  </si>
+  <si>
+    <t>THILF04856</t>
+  </si>
+  <si>
+    <t>新北市新莊區中港三街5及7號</t>
+  </si>
+  <si>
+    <t>新莊小胖店</t>
+  </si>
+  <si>
+    <t>客戶取消</t>
   </si>
   <si>
     <t>12:00:00</t>
@@ -927,6 +1145,9 @@
     <t>15:45:00</t>
   </si>
   <si>
+    <t>12:14:00</t>
+  </si>
+  <si>
     <t>THILF04917</t>
   </si>
   <si>
@@ -934,16 +1155,13 @@
   </si>
   <si>
     <t>板橋翠華店</t>
-  </si>
-  <si>
-    <t>12:13:00</t>
   </si>
   <si>
     <t>錢箱線路換接至TCX800
 測試正常</t>
   </si>
   <si>
-    <t>12:14:00</t>
+    <t>12:13:00</t>
   </si>
   <si>
     <t>14:23:00</t>
@@ -1384,10 +1602,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB87"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2089,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025080881</v>
+        <v>2025080941</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2133,7 +2351,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>126234</v>
+        <v>149364</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -2157,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025080941</v>
+        <v>2025080881</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2201,7 +2419,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>149364</v>
+        <v>126234</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2291,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025080365</v>
+        <v>2025081220</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2314,12 +2532,8 @@
       <c r="I14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
         <v>79</v>
       </c>
@@ -2330,14 +2544,16 @@
         <v>88</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2359,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025080366</v>
+        <v>2025080365</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2371,16 +2587,16 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>77</v>
@@ -2392,10 +2608,10 @@
         <v>79</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -2413,19 +2629,21 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025080101</v>
+        <v>2025080366</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2437,39 +2655,41 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2482,16 +2702,14 @@
       <c r="AA16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025080892</v>
+        <v>2025081011</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2503,16 +2721,16 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>77</v>
@@ -2524,10 +2742,10 @@
         <v>79</v>
       </c>
       <c r="M17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -2545,7 +2763,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2559,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025080422</v>
+        <v>2025081215</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2571,41 +2789,39 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2613,7 +2829,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2627,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025080594</v>
+        <v>2025080101</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2639,16 +2855,16 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2656,10 +2872,10 @@
         <v>79</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2679,19 +2895,21 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" s="7"/>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025080821</v>
+        <v>2025080892</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2703,16 +2921,16 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>77</v>
@@ -2724,10 +2942,10 @@
         <v>79</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>70</v>
@@ -2745,7 +2963,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2759,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025080371</v>
+        <v>2025080422</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2771,16 +2989,16 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>77</v>
@@ -2792,10 +3010,10 @@
         <v>79</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>70</v>
@@ -2813,7 +3031,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
@@ -2827,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025080482</v>
+        <v>2025080594</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2839,41 +3057,39 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2881,7 +3097,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2893,7 +3109,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025080112</v>
+        <v>2025080821</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2905,39 +3121,41 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <v>0</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2945,7 +3163,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -2959,7 +3177,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025080142</v>
+        <v>2025081073</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2974,13 +3192,13 @@
         <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>77</v>
@@ -2992,10 +3210,10 @@
         <v>79</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>70</v>
@@ -3013,7 +3231,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -3027,7 +3245,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080098</v>
+        <v>2025080371</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3039,39 +3257,41 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <v>0</v>
       </c>
-      <c r="S25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -3079,7 +3299,7 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
@@ -3093,7 +3313,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080953</v>
+        <v>2025080482</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3105,16 +3325,16 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>77</v>
@@ -3126,10 +3346,10 @@
         <v>79</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>70</v>
@@ -3147,21 +3367,19 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025080131</v>
+        <v>2025080112</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3173,16 +3391,16 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -3190,10 +3408,10 @@
         <v>79</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3213,7 +3431,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
@@ -3227,7 +3445,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080362</v>
+        <v>2025080142</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3239,16 +3457,16 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>77</v>
@@ -3260,10 +3478,10 @@
         <v>79</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>70</v>
@@ -3295,7 +3513,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080363</v>
+        <v>2025080098</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3307,41 +3525,39 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
         <v>0</v>
       </c>
-      <c r="S29" s="7"/>
+      <c r="S29" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3349,19 +3565,21 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080617</v>
+        <v>2025080953</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3370,28 +3588,28 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>161</v>
@@ -3400,14 +3618,12 @@
         <v>162</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3">
-        <v>10117</v>
-      </c>
+      <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>69822</v>
+        <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -3415,9 +3631,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
         <v>163</v>
       </c>
@@ -3433,7 +3647,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025080644</v>
+        <v>2025081193</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3442,10 +3656,10 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>164</v>
@@ -3456,30 +3670,24 @@
       <c r="I31" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7">
-        <v>338</v>
-      </c>
+      <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>21935</v>
+        <v>0</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>41</v>
@@ -3491,17 +3699,21 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025080645</v>
+        <v>2025081196</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3510,10 +3722,10 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>164</v>
@@ -3524,32 +3736,28 @@
       <c r="I32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="O32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3">
-        <v>338</v>
-      </c>
+      <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>21935</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3557,7 +3765,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
@@ -3569,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025080704</v>
+        <v>2025081194</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3578,34 +3786,30 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>40</v>
@@ -3613,7 +3817,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>7108</v>
+        <v>0</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>41</v>
@@ -3625,17 +3829,21 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025080705</v>
+        <v>2025080131</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3644,28 +3852,24 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>176</v>
@@ -3674,14 +3878,16 @@
         <v>177</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>7108</v>
-      </c>
-      <c r="S34" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3689,19 +3895,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080586</v>
+        <v>2025080362</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3710,10 +3918,10 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>178</v>
@@ -3722,22 +3930,22 @@
         <v>179</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>70</v>
@@ -3745,7 +3953,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>163873</v>
+        <v>0</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -3755,7 +3963,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3769,7 +3977,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080852</v>
+        <v>2025080363</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3778,46 +3986,44 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>46640</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3825,21 +4031,19 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080853</v>
+        <v>2025080617</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3848,42 +4052,44 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="7">
+        <v>10117</v>
+      </c>
       <c r="R37" s="7">
-        <v>46640</v>
+        <v>69822</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -3891,21 +4097,25 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
+      <c r="Y37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z37" s="8" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025080850</v>
+        <v>2025081134</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3914,46 +4124,46 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="3">
+        <v>27842</v>
+      </c>
       <c r="R38" s="3">
-        <v>76522</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>23949</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3961,7 +4171,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -3975,7 +4185,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025080851</v>
+        <v>2025081032</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3984,42 +4194,46 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="P39" s="7">
+        <v>1696</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>2263</v>
+      </c>
       <c r="R39" s="7">
-        <v>76522</v>
+        <v>5390</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -4029,19 +4243,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB39" s="7"/>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025080858</v>
+        <v>2025080644</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4050,42 +4266,44 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="Q40" s="3">
+        <v>338</v>
+      </c>
       <c r="R40" s="3">
-        <v>146880</v>
+        <v>21935</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>41</v>
@@ -4097,21 +4315,17 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080859</v>
+        <v>2025080645</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4120,42 +4334,44 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="7">
+        <v>338</v>
+      </c>
       <c r="R41" s="7">
-        <v>146880</v>
+        <v>21935</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -4165,7 +4381,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>41</v>
@@ -4177,7 +4393,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080863</v>
+        <v>2025080704</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4186,34 +4402,34 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
@@ -4221,7 +4437,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>131744</v>
+        <v>7108</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>41</v>
@@ -4233,21 +4449,17 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080864</v>
+        <v>2025080705</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4256,34 +4468,34 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>43</v>
@@ -4291,7 +4503,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>131744</v>
+        <v>7108</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4301,7 +4513,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
@@ -4313,7 +4525,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080129</v>
+        <v>2025081092</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4322,10 +4534,10 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>164</v>
@@ -4334,22 +4546,22 @@
         <v>165</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>40</v>
@@ -4357,7 +4569,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>253107</v>
+        <v>395025</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>41</v>
@@ -4369,17 +4581,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025080130</v>
+        <v>2025081093</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4388,10 +4604,10 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>164</v>
@@ -4400,22 +4616,22 @@
         <v>165</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>43</v>
@@ -4423,7 +4639,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>253107</v>
+        <v>395025</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4433,7 +4649,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
@@ -4445,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025080134</v>
+        <v>2025080586</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4454,46 +4670,44 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>199706</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>163873</v>
+      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4501,17 +4715,21 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025080135</v>
+        <v>2025081100</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4520,44 +4738,46 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>199706</v>
-      </c>
-      <c r="S47" s="7"/>
+        <v>164338</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4565,19 +4785,21 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7"/>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025080589</v>
+        <v>2025081101</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4586,42 +4808,42 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>199706</v>
+        <v>164338</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4629,25 +4851,21 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB48" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025080849</v>
+        <v>2025080852</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4656,22 +4874,22 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
@@ -4680,20 +4898,22 @@
         <v>37</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>2363</v>
-      </c>
-      <c r="S49" s="7"/>
+        <v>46640</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4701,7 +4921,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
@@ -4715,7 +4935,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025080848</v>
+        <v>2025080853</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4724,22 +4944,22 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
@@ -4748,22 +4968,20 @@
         <v>37</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>2363</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>46640</v>
+      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4771,7 +4989,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -4783,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025080415</v>
+        <v>2025080850</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4792,44 +5010,46 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>330</v>
-      </c>
-      <c r="S51" s="7"/>
+        <v>76522</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4837,7 +5057,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
@@ -4851,7 +5071,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025080615</v>
+        <v>2025080851</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4860,42 +5080,42 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>330</v>
+        <v>76522</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4905,21 +5125,19 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025080775</v>
+        <v>2025080858</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4928,46 +5146,46 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P53" s="7"/>
-      <c r="Q53" s="7">
-        <v>1595</v>
-      </c>
+      <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>27090</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>146880</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4975,7 +5193,7 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
@@ -4989,7 +5207,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025080990</v>
+        <v>2025080859</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4998,44 +5216,42 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3">
-        <v>1595</v>
-      </c>
+      <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>27090</v>
+        <v>146880</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -5043,25 +5259,21 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025080696</v>
+        <v>2025080863</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5070,46 +5282,46 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P55" s="7"/>
-      <c r="Q55" s="7">
-        <v>6663</v>
-      </c>
+      <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>11174</v>
-      </c>
-      <c r="S55" s="7"/>
+        <v>131744</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5117,7 +5329,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
@@ -5131,7 +5343,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025080143</v>
+        <v>2025080864</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5140,46 +5352,44 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>287428</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>131744</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5187,9 +5397,11 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA56" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -5197,7 +5409,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025080144</v>
+        <v>2025080130</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5206,34 +5418,34 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
@@ -5241,7 +5453,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>287428</v>
+        <v>253107</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5251,19 +5463,21 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7"/>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025080133</v>
+        <v>2025080129</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5272,44 +5486,46 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S58" s="3"/>
+        <v>253107</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5317,21 +5533,17 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025080132</v>
+        <v>2025080134</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5340,34 +5552,34 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>40</v>
@@ -5375,7 +5587,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>116181</v>
+        <v>199706</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>41</v>
@@ -5387,7 +5599,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
@@ -5397,7 +5609,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025080027</v>
+        <v>2025080135</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5406,46 +5618,44 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>199706</v>
+      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5453,9 +5663,11 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA60" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
@@ -5463,7 +5675,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025080028</v>
+        <v>2025080589</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5472,42 +5684,42 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>180622</v>
+        <v>199706</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5515,21 +5727,25 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
+      <c r="Y61" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z61" s="8" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7"/>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025080029</v>
+        <v>2025080848</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5538,44 +5754,46 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S62" s="3"/>
+        <v>2363</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5583,19 +5801,21 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB62" s="3"/>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025080588</v>
+        <v>2025080849</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5604,42 +5824,42 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>180622</v>
+        <v>2363</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -5647,25 +5867,21 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
-      <c r="Y63" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB63" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025080136</v>
+        <v>2025080415</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5674,46 +5890,44 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>342829</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5721,17 +5935,21 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025080137</v>
+        <v>2025080615</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5740,42 +5958,42 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>342829</v>
+        <v>330</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -5785,19 +6003,21 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB65" s="7"/>
+      <c r="AB65" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025080856</v>
+        <v>2025080775</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5806,48 +6026,46 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3">
-        <v>1205</v>
+        <v>1595</v>
       </c>
       <c r="R66" s="3">
-        <v>3849</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>27090</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5855,7 +6073,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
@@ -5869,7 +6087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025080857</v>
+        <v>2025080990</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5878,44 +6096,44 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7">
-        <v>1205</v>
+        <v>1595</v>
       </c>
       <c r="R67" s="7">
-        <v>3849</v>
+        <v>27090</v>
       </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
@@ -5923,21 +6141,25 @@
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
+      <c r="Y67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z67" s="8" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025080766</v>
+        <v>2025080696</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5946,42 +6168,44 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="Q68" s="3">
+        <v>6663</v>
+      </c>
       <c r="R68" s="3">
-        <v>86982</v>
+        <v>11174</v>
       </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -5991,7 +6215,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
@@ -6005,7 +6229,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025080989</v>
+        <v>2025080143</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6014,34 +6238,34 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>40</v>
@@ -6049,33 +6273,29 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>86982</v>
-      </c>
-      <c r="S69" s="7"/>
+        <v>287428</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
-      <c r="Y69" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA69" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB69" s="7">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025080642</v>
+        <v>2025080144</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6084,46 +6304,44 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>31483</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>287428</v>
+      </c>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6131,9 +6349,11 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA70" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
@@ -6141,7 +6361,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025080643</v>
+        <v>2025080132</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6150,44 +6370,46 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>31483</v>
-      </c>
-      <c r="S71" s="7"/>
+        <v>116181</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6195,11 +6417,9 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
@@ -6207,7 +6427,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025081004</v>
+        <v>2025080133</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6216,42 +6436,44 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L72" s="6" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>116181</v>
+      </c>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6259,21 +6481,19 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025081012</v>
+        <v>2025081104</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6282,30 +6502,34 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L73" s="8" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>40</v>
@@ -6313,7 +6537,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>0</v>
+        <v>11452</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>41</v>
@@ -6325,7 +6549,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
@@ -6339,7 +6563,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025080447</v>
+        <v>2025081105</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6348,42 +6572,44 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L74" s="6" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>0</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11452</v>
+      </c>
+      <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6391,21 +6617,19 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB74" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025081016</v>
+        <v>2025081095</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6414,42 +6638,44 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L75" s="8" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>0</v>
-      </c>
-      <c r="S75" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>147602</v>
+      </c>
+      <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6457,7 +6683,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
@@ -6471,7 +6697,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025080035</v>
+        <v>2025081094</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6480,44 +6706,46 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3"/>
+        <v>147602</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6525,21 +6753,19 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB76" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="7">
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025080425</v>
+        <v>2025081098</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6548,30 +6774,34 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L77" s="8" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>40</v>
@@ -6579,7 +6809,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>0</v>
+        <v>259807</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>41</v>
@@ -6591,7 +6821,7 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
@@ -6605,7 +6835,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025080426</v>
+        <v>2025081099</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6614,42 +6844,44 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L78" s="6" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>259807</v>
+      </c>
+      <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6657,7 +6889,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA78" s="3" t="s">
         <v>41</v>
@@ -6669,7 +6901,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025080367</v>
+        <v>2025081102</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6678,44 +6910,46 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>0</v>
-      </c>
-      <c r="S79" s="7"/>
+        <v>127215</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -6723,19 +6957,21 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB79" s="7"/>
+      <c r="AB79" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025080889</v>
+        <v>2025081103</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6744,42 +6980,42 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>0</v>
+        <v>127215</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6789,21 +7025,19 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB80" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025081062</v>
+        <v>2025080027</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6812,30 +7046,34 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="I81" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L81" s="8" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>40</v>
@@ -6843,7 +7081,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>0</v>
+        <v>180622</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>41</v>
@@ -6855,11 +7093,9 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA81" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -6867,7 +7103,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025080636</v>
+        <v>2025080028</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -6876,42 +7112,44 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L82" s="6" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>0</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -6919,21 +7157,19 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB82" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025080521</v>
+        <v>2025080029</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -6942,34 +7178,34 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>70</v>
@@ -6977,7 +7213,7 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>0</v>
+        <v>180622</v>
       </c>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
@@ -6987,7 +7223,7 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>41</v>
@@ -6999,7 +7235,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025080527</v>
+        <v>2025080588</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7008,42 +7244,42 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>0</v>
+        <v>180622</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -7051,21 +7287,25 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
+      <c r="Y84" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z84" s="6" t="s">
         <v>296</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="3"/>
+      <c r="AB84" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025080946</v>
+        <v>2025080136</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7074,44 +7314,46 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G85" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M85" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="N85" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="N85" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="O85" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>0</v>
-      </c>
-      <c r="S85" s="7"/>
+        <v>342829</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7119,21 +7361,17 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA85" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB85" s="7">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025081053</v>
+        <v>2025080137</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7142,38 +7380,42 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="M86" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="N86" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="O86" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>0</v>
+        <v>342829</v>
       </c>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
@@ -7181,49 +7423,1921 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-      <c r="Y86" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3"/>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2025081096</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7">
+        <v>199625</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2025081097</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
+        <v>199625</v>
+      </c>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2025080856</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="AA86" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB86" s="3"/>
-    </row>
-    <row r="87" spans="1:28">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="9" t="s">
+      <c r="K89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="AB87" s="9">
-        <v>45</v>
+      <c r="M89" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7">
+        <v>1205</v>
+      </c>
+      <c r="R89" s="7">
+        <v>3849</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2025080857</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3">
+        <v>1205</v>
+      </c>
+      <c r="R90" s="3">
+        <v>3849</v>
+      </c>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>2025081132</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7">
+        <v>38278</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2025081133</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
+        <v>38278</v>
+      </c>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB92" s="3"/>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>2025080766</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7">
+        <v>86982</v>
+      </c>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2025080989</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
+        <v>86982</v>
+      </c>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z94" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2025080643</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7">
+        <v>31483</v>
+      </c>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2025080642</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
+        <v>31483</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
+        <v>2025081106</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7">
+        <v>25326</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2025081107</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3">
+        <v>25326</v>
+      </c>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3"/>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
+        <v>2025081004</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2025081012</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>2025080447</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7">
+        <v>0</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2025081016</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>2025081108</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7">
+        <v>9</v>
+      </c>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2025080035</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3">
+        <v>0</v>
+      </c>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2025080425</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7">
+        <v>0</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2025080426</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
+        <v>0</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB106" s="3"/>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7">
+        <v>2025080367</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB107" s="7"/>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2025080889</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2025081062</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB109" s="7"/>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2025080527</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2025080636</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2025080521</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3">
+        <v>0</v>
+      </c>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB112" s="3"/>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>2025080946</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2025081053</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3">
+        <v>0</v>
+      </c>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z114" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB115" s="9">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$141</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -225,35 +225,35 @@
     <t>16:00:00</t>
   </si>
   <si>
+    <t>17:20:00</t>
+  </si>
+  <si>
+    <t>T351800086</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅樹林有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中正東路1段3巷33號7樓</t>
+  </si>
+  <si>
+    <t>7樓工程部</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>LDAP DB破損
+需更換硬碟測試</t>
+  </si>
+  <si>
     <t>17:30:00</t>
   </si>
   <si>
-    <t>T351800086</t>
-  </si>
-  <si>
-    <t>eS-3518A 黑白複合機</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紅樹林有線電視股份有限公司 </t>
-  </si>
-  <si>
-    <t>新北市淡水區中正東路1段3巷33號7樓</t>
-  </si>
-  <si>
-    <t>7樓工程部</t>
-  </si>
-  <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>LDAP DB損壞
-需更換硬碟測試</t>
-  </si>
-  <si>
-    <t>17:20:00</t>
-  </si>
-  <si>
-    <t>LDAP DB破損
 需更換硬碟測試</t>
   </si>
   <si>
@@ -339,6 +339,30 @@
 換上8119012491</t>
   </si>
   <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>THILF02267</t>
+  </si>
+  <si>
+    <t>急修件</t>
+  </si>
+  <si>
+    <t>新北市金山區中正路26號</t>
+  </si>
+  <si>
+    <t>北縣金陽店</t>
+  </si>
+  <si>
+    <t>更換第二顆硬碟不備份還原完成</t>
+  </si>
+  <si>
     <t>09:30:00</t>
   </si>
   <si>
@@ -509,6 +533,45 @@
     <t>到場確認線路及列印皆為正常，請門市在進行觀察</t>
   </si>
   <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>THILF04528</t>
+  </si>
+  <si>
+    <t>新北市八里區中山路一段43、43-1號</t>
+  </si>
+  <si>
+    <t>八里鐵塔店</t>
+  </si>
+  <si>
+    <t>更換第一顆硬碟不備份還原完成</t>
+  </si>
+  <si>
+    <t>15:27:00</t>
+  </si>
+  <si>
+    <t>15:57:00</t>
+  </si>
+  <si>
+    <t>THILF04541</t>
+  </si>
+  <si>
+    <t>新北市淡水區濱海路三段140、142號</t>
+  </si>
+  <si>
+    <t>淡水海天店</t>
+  </si>
+  <si>
+    <t>重新插拔客顯USB，重開機後正常</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>15:59:00</t>
+  </si>
+  <si>
     <t>13:40:00</t>
   </si>
   <si>
@@ -630,6 +693,42 @@
     <t>更換OD OD刮</t>
   </si>
   <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>T251000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奧創資訊股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市板橋區文化路二段285號32樓</t>
+  </si>
+  <si>
+    <t>奧爾資訊多媒體</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>T251000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台固媒體股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服部)</t>
+  </si>
+  <si>
+    <t>新莊8F客服部</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -651,18 +750,24 @@
     <t>卡貼紙 清潔轉皮 滾筒 磁軸</t>
   </si>
   <si>
-    <t>15:30:00</t>
+    <t>T252000025</t>
+  </si>
+  <si>
+    <t>eS-2520AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區莊田路與信華三街交叉口(華固一莊)</t>
+  </si>
+  <si>
+    <t>華固一莊</t>
   </si>
   <si>
     <t>T252000086</t>
   </si>
   <si>
-    <t>eS-2520AC 彩色複合機</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品興營造股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市三重區仁義街79巷旁工地</t>
   </si>
   <si>
@@ -672,6 +777,18 @@
     <t>請客戶另存新檔 重新列印 目前正常 觀察中</t>
   </si>
   <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>T252000113</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街與元信一街交叉口</t>
+  </si>
+  <si>
+    <t>華固織幸</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
@@ -741,15 +858,31 @@
     <t>15:40:00</t>
   </si>
   <si>
+    <t>T301800140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣紋意股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區五權二路8號2樓</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>OD OD刮 回刮 上熱 鐵粉 更換
+配送碳粉</t>
+  </si>
+  <si>
     <t>T301800171</t>
   </si>
   <si>
     <t>新北市新莊區中正區336-1號(新莊)</t>
   </si>
   <si>
-    <t>新莊</t>
-  </si>
-  <si>
     <t>T301800174</t>
   </si>
   <si>
@@ -852,6 +985,21 @@
     <t>取送分輪 RADF分輪</t>
   </si>
   <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>T351500014</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號10樓-2(三重湯城)</t>
+  </si>
+  <si>
+    <t>台北客服10樓-2(彩)</t>
+  </si>
+  <si>
+    <t>列印抬頭被裁切 調整驅動設定</t>
+  </si>
+  <si>
     <t>16:51:00</t>
   </si>
   <si>
@@ -888,6 +1036,12 @@
     <t>五股</t>
   </si>
   <si>
+    <t>T351800081</t>
+  </si>
+  <si>
+    <t>新莊8F</t>
+  </si>
+  <si>
     <t>16:20:00</t>
   </si>
   <si>
@@ -930,9 +1084,6 @@
     <t>營管部</t>
   </si>
   <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
     <t>T351800110</t>
   </si>
   <si>
@@ -963,6 +1114,15 @@
     <t>工程部2</t>
   </si>
   <si>
+    <t>T351800123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喬治費歇爾機械股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區興德路94號</t>
+  </si>
+  <si>
     <t>T352500148</t>
   </si>
   <si>
@@ -1002,6 +1162,12 @@
     <t>更換OD OD刮 回刮 上熱 分爪</t>
   </si>
   <si>
+    <t>T451800125</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊8F)</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -1068,9 +1234,6 @@
     <t>新莊中泉店</t>
   </si>
   <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
     <t>08:45:00</t>
   </si>
   <si>
@@ -1084,9 +1247,6 @@
   </si>
   <si>
     <t>客戶取消</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
   </si>
   <si>
     <t>12:50:00</t>
@@ -1145,9 +1305,6 @@
     <t>15:45:00</t>
   </si>
   <si>
-    <t>12:14:00</t>
-  </si>
-  <si>
     <t>THILF04917</t>
   </si>
   <si>
@@ -1155,13 +1312,16 @@
   </si>
   <si>
     <t>板橋翠華店</t>
+  </si>
+  <si>
+    <t>12:13:00</t>
   </si>
   <si>
     <t>錢箱線路換接至TCX800
 測試正常</t>
   </si>
   <si>
-    <t>12:13:00</t>
+    <t>12:14:00</t>
   </si>
   <si>
     <t>14:23:00</t>
@@ -1177,15 +1337,15 @@
   </si>
   <si>
     <t>板橋民生站</t>
+  </si>
+  <si>
+    <t>EDC</t>
   </si>
   <si>
     <t>原店內印票機測試正常，更換設備供門市測試
 更換印票機
 換上 8139002712
 換下 8139003247</t>
-  </si>
-  <si>
-    <t>EDC</t>
   </si>
   <si>
     <t>合計</t>
@@ -1602,10 +1762,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2307,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025080941</v>
+        <v>2025080881</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2351,7 +2511,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>149364</v>
+        <v>126234</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -2375,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025080881</v>
+        <v>2025080941</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2419,7 +2579,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>126234</v>
+        <v>149364</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2709,7 +2869,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025081011</v>
+        <v>2025081377</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2721,19 +2881,19 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>78</v>
@@ -2742,10 +2902,10 @@
         <v>79</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -2763,7 +2923,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2777,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025081215</v>
+        <v>2025081011</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2792,36 +2952,38 @@
         <v>83</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L18" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2829,7 +2991,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2843,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025080101</v>
+        <v>2025081215</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2855,16 +3017,16 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2872,10 +3034,10 @@
         <v>79</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2909,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025080892</v>
+        <v>2025080101</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2921,41 +3083,39 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2963,7 +3123,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2977,7 +3137,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025080422</v>
+        <v>2025080892</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2989,16 +3149,16 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>77</v>
@@ -3010,10 +3170,10 @@
         <v>79</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>70</v>
@@ -3031,7 +3191,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
@@ -3045,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025080594</v>
+        <v>2025080422</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -3060,36 +3220,38 @@
         <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L22" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -3097,19 +3259,21 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025080821</v>
+        <v>2025080594</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3121,41 +3285,39 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <v>0</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -3163,21 +3325,19 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025081073</v>
+        <v>2025080821</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3189,16 +3349,16 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>77</v>
@@ -3210,10 +3370,10 @@
         <v>79</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>70</v>
@@ -3231,7 +3391,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -3245,7 +3405,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080371</v>
+        <v>2025081073</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3257,16 +3417,16 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>77</v>
@@ -3278,10 +3438,10 @@
         <v>79</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>70</v>
@@ -3299,7 +3459,7 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
@@ -3313,7 +3473,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080482</v>
+        <v>2025080371</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3328,13 +3488,13 @@
         <v>90</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>77</v>
@@ -3346,10 +3506,10 @@
         <v>79</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>70</v>
@@ -3367,19 +3527,21 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025080112</v>
+        <v>2025080482</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3391,39 +3553,41 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L27" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <v>0</v>
       </c>
-      <c r="S27" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3431,21 +3595,19 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080142</v>
+        <v>2025080112</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3457,41 +3619,39 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
         <v>0</v>
       </c>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3499,7 +3659,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
@@ -3513,7 +3673,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080098</v>
+        <v>2025080142</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3525,39 +3685,41 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
         <v>0</v>
       </c>
-      <c r="S29" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3565,7 +3727,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
@@ -3579,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080953</v>
+        <v>2025081296</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3591,19 +3753,19 @@
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>78</v>
@@ -3612,10 +3774,10 @@
         <v>79</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>70</v>
@@ -3633,7 +3795,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
@@ -3647,7 +3809,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025081193</v>
+        <v>2025081195</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3659,39 +3821,41 @@
         <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L31" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
         <v>0</v>
       </c>
-      <c r="S31" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3699,7 +3863,7 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
@@ -3713,7 +3877,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025081196</v>
+        <v>2025081374</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3725,16 +3889,16 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3742,10 +3906,10 @@
         <v>79</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>40</v>
@@ -3777,7 +3941,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025081194</v>
+        <v>2025080098</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3789,16 +3953,16 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3806,10 +3970,10 @@
         <v>79</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>40</v>
@@ -3843,7 +4007,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025080131</v>
+        <v>2025080953</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3855,39 +4019,41 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
         <v>0</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3895,7 +4061,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
@@ -3909,7 +4075,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080362</v>
+        <v>2025081193</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3921,41 +4087,39 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
         <v>0</v>
       </c>
-      <c r="S35" s="7"/>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3963,7 +4127,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3977,7 +4141,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080363</v>
+        <v>2025081196</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3989,41 +4153,39 @@
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
         <v>0</v>
       </c>
-      <c r="S36" s="3"/>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -4031,7 +4193,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
@@ -4043,7 +4205,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080617</v>
+        <v>2025081194</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -4052,56 +4214,50 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="8" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7">
-        <v>10117</v>
-      </c>
+      <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>69822</v>
-      </c>
-      <c r="S37" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
@@ -4115,7 +4271,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025081134</v>
+        <v>2025080131</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4124,46 +4280,42 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3">
-        <v>27842</v>
-      </c>
+      <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>23949</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4171,7 +4323,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -4185,7 +4337,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025081032</v>
+        <v>2025080362</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4194,46 +4346,42 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P39" s="7">
-        <v>1696</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>2263</v>
-      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>5390</v>
+        <v>0</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -4243,7 +4391,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -4257,7 +4405,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025080644</v>
+        <v>2025080363</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4266,48 +4414,44 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3">
-        <v>338</v>
-      </c>
+      <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>21935</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4315,9 +4459,11 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA40" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -4325,7 +4471,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080645</v>
+        <v>2025080617</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4334,44 +4480,44 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>207</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7">
-        <v>338</v>
+        <v>10117</v>
       </c>
       <c r="R41" s="7">
-        <v>21935</v>
+        <v>69822</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -4379,21 +4525,25 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
+      <c r="Y41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z41" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB41" s="7"/>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080704</v>
+        <v>2025081327</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4402,42 +4552,44 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="3">
+        <v>10738</v>
+      </c>
       <c r="R42" s="3">
-        <v>7108</v>
+        <v>73666</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>41</v>
@@ -4449,17 +4601,21 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080705</v>
+        <v>2025081328</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4468,42 +4624,44 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="Q43" s="7">
+        <v>10738</v>
+      </c>
       <c r="R43" s="7">
-        <v>7108</v>
+        <v>73666</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4513,7 +4671,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
@@ -4525,7 +4683,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025081092</v>
+        <v>2025081375</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4534,42 +4692,44 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="Q44" s="3">
+        <v>15935</v>
+      </c>
       <c r="R44" s="3">
-        <v>395025</v>
+        <v>140016</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>41</v>
@@ -4581,7 +4741,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
@@ -4595,7 +4755,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025081093</v>
+        <v>2025081376</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4604,42 +4764,44 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="Q45" s="7">
+        <v>15935</v>
+      </c>
       <c r="R45" s="7">
-        <v>395025</v>
+        <v>140016</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4649,7 +4811,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
@@ -4661,7 +4823,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025080586</v>
+        <v>2025081290</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4670,44 +4832,48 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="3">
+        <v>26639</v>
+      </c>
       <c r="R46" s="3">
-        <v>163873</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>44110</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4715,21 +4881,17 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025081100</v>
+        <v>2025081291</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4738,46 +4900,46 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="7">
+        <v>26639</v>
+      </c>
       <c r="R47" s="7">
-        <v>164338</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>44110</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4785,21 +4947,19 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025081101</v>
+        <v>2025081134</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4808,42 +4968,44 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="3">
+        <v>27842</v>
+      </c>
       <c r="R48" s="3">
-        <v>164338</v>
+        <v>23949</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4853,19 +5015,21 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025080852</v>
+        <v>2025081332</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4874,42 +5038,46 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="P49" s="7">
+        <v>6341</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>15083</v>
+      </c>
       <c r="R49" s="7">
-        <v>46640</v>
+        <v>18344</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>41</v>
@@ -4921,7 +5089,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
@@ -4935,7 +5103,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025080853</v>
+        <v>2025081333</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4944,42 +5112,46 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="P50" s="3">
+        <v>6341</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>15083</v>
+      </c>
       <c r="R50" s="3">
-        <v>46640</v>
+        <v>18344</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4989,7 +5161,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -5001,7 +5173,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025080850</v>
+        <v>2025081032</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -5010,46 +5182,48 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="P51" s="7">
+        <v>1696</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>2263</v>
+      </c>
       <c r="R51" s="7">
-        <v>76522</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>5390</v>
+      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -5057,7 +5231,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
@@ -5071,7 +5245,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025080851</v>
+        <v>2025081330</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -5080,44 +5254,50 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1749</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>2376</v>
+      </c>
       <c r="R52" s="3">
-        <v>76522</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>6220</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -5125,19 +5305,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025080858</v>
+        <v>2025081331</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5146,46 +5328,48 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P53" s="7">
+        <v>1749</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>2376</v>
+      </c>
       <c r="R53" s="7">
-        <v>146880</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>6220</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5193,21 +5377,19 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025080859</v>
+        <v>2025081334</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5216,44 +5398,50 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P54" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>766</v>
+      </c>
       <c r="R54" s="3">
-        <v>146880</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>2474</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5261,19 +5449,21 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB54" s="3"/>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025080863</v>
+        <v>2025081335</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5282,46 +5472,48 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P55" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>766</v>
+      </c>
       <c r="R55" s="7">
-        <v>131744</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>2474</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5329,21 +5521,19 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025080864</v>
+        <v>2025080644</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5352,44 +5542,48 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="Q56" s="3">
+        <v>338</v>
+      </c>
       <c r="R56" s="3">
-        <v>131744</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>21935</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5397,11 +5591,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -5409,7 +5601,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025080130</v>
+        <v>2025080645</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5418,42 +5610,44 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="Q57" s="7">
+        <v>338</v>
+      </c>
       <c r="R57" s="7">
-        <v>253107</v>
+        <v>21935</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5463,21 +5657,19 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025080129</v>
+        <v>2025080704</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5486,34 +5678,34 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>40</v>
@@ -5521,7 +5713,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>253107</v>
+        <v>7108</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>41</v>
@@ -5533,7 +5725,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
@@ -5543,7 +5735,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025080134</v>
+        <v>2025080705</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5552,46 +5744,44 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>199706</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>7108</v>
+      </c>
+      <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5599,9 +5789,11 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA59" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
@@ -5609,7 +5801,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025080135</v>
+        <v>2025081092</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5618,44 +5810,46 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>199706</v>
-      </c>
-      <c r="S60" s="3"/>
+        <v>395025</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5663,19 +5857,21 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB60" s="3"/>
+      <c r="AB60" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025080589</v>
+        <v>2025081093</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5684,42 +5880,42 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>199706</v>
+        <v>395025</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5727,25 +5923,21 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025080848</v>
+        <v>2025080586</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5754,46 +5946,44 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>2363</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>163873</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5801,7 +5991,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>41</v>
@@ -5815,7 +6005,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025080849</v>
+        <v>2025081100</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5824,44 +6014,46 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>2363</v>
-      </c>
-      <c r="S63" s="7"/>
+        <v>164338</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5869,19 +6061,21 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB63" s="7"/>
+      <c r="AB63" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025080415</v>
+        <v>2025081101</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5890,42 +6084,42 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>330</v>
+        <v>164338</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -5935,21 +6129,19 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025080615</v>
+        <v>2025081362</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5958,44 +6150,46 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>330</v>
-      </c>
-      <c r="S65" s="7"/>
+        <v>213124</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -6003,21 +6197,17 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA65" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB65" s="7">
-        <v>1</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025080775</v>
+        <v>2025081363</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -6026,44 +6216,42 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
-      <c r="Q66" s="3">
-        <v>1595</v>
-      </c>
+      <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>27090</v>
+        <v>213124</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -6073,21 +6261,19 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025080990</v>
+        <v>2025081427</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -6096,48 +6282,48 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P67" s="7"/>
-      <c r="Q67" s="7">
-        <v>1595</v>
-      </c>
+      <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>27090</v>
+        <v>213124</v>
       </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
+      <c r="U67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
@@ -6145,7 +6331,7 @@
         <v>41</v>
       </c>
       <c r="Z67" s="8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
@@ -6159,7 +6345,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025080696</v>
+        <v>2025080852</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6168,46 +6354,46 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3">
-        <v>6663</v>
-      </c>
+      <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>11174</v>
-      </c>
-      <c r="S68" s="3"/>
+        <v>46640</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -6215,7 +6401,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
@@ -6229,7 +6415,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025080143</v>
+        <v>2025080853</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6238,46 +6424,44 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>287428</v>
-      </c>
-      <c r="S69" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>46640</v>
+      </c>
+      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -6285,9 +6469,11 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA69" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
@@ -6295,7 +6481,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025080144</v>
+        <v>2025080850</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6304,44 +6490,46 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>287428</v>
-      </c>
-      <c r="S70" s="3"/>
+        <v>76522</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6349,19 +6537,21 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB70" s="3"/>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025080132</v>
+        <v>2025080851</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6370,46 +6560,44 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>116181</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>76522</v>
+      </c>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6417,9 +6605,11 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA71" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
@@ -6427,7 +6617,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025080133</v>
+        <v>2025080858</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6436,44 +6626,46 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S72" s="3"/>
+        <v>146880</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6481,19 +6673,21 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB72" s="3"/>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025081104</v>
+        <v>2025080859</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6502,46 +6696,44 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>11452</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>146880</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6549,21 +6741,19 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB73" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025081105</v>
+        <v>2025080863</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6572,44 +6762,46 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="I74" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>11452</v>
-      </c>
-      <c r="S74" s="3"/>
+        <v>131744</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6617,19 +6809,21 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB74" s="3"/>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025081095</v>
+        <v>2025080864</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6638,28 +6832,28 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>282</v>
+        <v>63</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>283</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>284</v>
@@ -6673,7 +6867,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>147602</v>
+        <v>131744</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -6683,21 +6877,19 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB75" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025081094</v>
+        <v>2025080129</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6706,34 +6898,34 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>40</v>
@@ -6741,7 +6933,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>147602</v>
+        <v>253107</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>41</v>
@@ -6753,11 +6945,9 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
@@ -6765,7 +6955,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025081098</v>
+        <v>2025080130</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6774,46 +6964,44 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>286</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>259807</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>253107</v>
+      </c>
+      <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -6821,21 +7009,19 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB77" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025081099</v>
+        <v>2025080134</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6844,44 +7030,46 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>259807</v>
-      </c>
-      <c r="S78" s="3"/>
+        <v>199706</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6889,11 +7077,9 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA78" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28">
@@ -6901,7 +7087,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025081102</v>
+        <v>2025080135</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6910,46 +7096,44 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>127215</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>199706</v>
+      </c>
+      <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -6957,21 +7141,19 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB79" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025081103</v>
+        <v>2025080589</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6980,42 +7162,42 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>127215</v>
+        <v>199706</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -7023,21 +7205,25 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
+      <c r="Y80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z80" s="6" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB80" s="3"/>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025080027</v>
+        <v>2025080848</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -7046,34 +7232,34 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>40</v>
@@ -7081,7 +7267,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>180622</v>
+        <v>2363</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>41</v>
@@ -7093,17 +7279,21 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025080028</v>
+        <v>2025080849</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7112,34 +7302,34 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>43</v>
@@ -7147,7 +7337,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>180622</v>
+        <v>2363</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -7157,7 +7347,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
@@ -7169,7 +7359,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025080029</v>
+        <v>2025080415</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7178,34 +7368,34 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>70</v>
@@ -7213,7 +7403,7 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>180622</v>
+        <v>330</v>
       </c>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
@@ -7223,19 +7413,21 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB83" s="7"/>
+      <c r="AB83" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025080588</v>
+        <v>2025080615</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7244,42 +7436,42 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>180622</v>
+        <v>330</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -7287,11 +7479,9 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
-      <c r="Y84" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
@@ -7305,7 +7495,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025080136</v>
+        <v>2025080775</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7314,46 +7504,46 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
+      <c r="Q85" s="7">
+        <v>1595</v>
+      </c>
       <c r="R85" s="7">
-        <v>342829</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>27090</v>
+      </c>
+      <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7361,17 +7551,21 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025080137</v>
+        <v>2025080990</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7380,42 +7574,44 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>199</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
+      <c r="Q86" s="3">
+        <v>1595</v>
+      </c>
       <c r="R86" s="3">
-        <v>342829</v>
+        <v>27090</v>
       </c>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
@@ -7423,21 +7619,25 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
+      <c r="Y86" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z86" s="6" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB86" s="3"/>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025081096</v>
+        <v>2025081440</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7446,46 +7646,46 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
+      <c r="Q87" s="7">
+        <v>984</v>
+      </c>
       <c r="R87" s="7">
-        <v>199625</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>8649</v>
+      </c>
+      <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7493,7 +7693,7 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
@@ -7507,7 +7707,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025081097</v>
+        <v>2025080696</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7516,42 +7716,44 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
+      <c r="Q88" s="3">
+        <v>6663</v>
+      </c>
       <c r="R88" s="3">
-        <v>199625</v>
+        <v>11174</v>
       </c>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
@@ -7561,19 +7763,21 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB88" s="3"/>
+      <c r="AB88" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025080856</v>
+        <v>2025080143</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7582,44 +7786,42 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P89" s="7"/>
-      <c r="Q89" s="7">
-        <v>1205</v>
-      </c>
+      <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>3849</v>
+        <v>287428</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>41</v>
@@ -7631,21 +7833,17 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA89" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB89" s="7">
-        <v>1</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025080857</v>
+        <v>2025080144</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7654,44 +7852,42 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P90" s="3"/>
-      <c r="Q90" s="3">
-        <v>1205</v>
-      </c>
+      <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>3849</v>
+        <v>287428</v>
       </c>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
@@ -7701,7 +7897,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>41</v>
@@ -7713,7 +7909,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025081132</v>
+        <v>2025080132</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7722,34 +7918,34 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>40</v>
@@ -7757,7 +7953,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>38278</v>
+        <v>116181</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>41</v>
@@ -7769,7 +7965,7 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA91" s="7"/>
       <c r="AB91" s="7"/>
@@ -7779,7 +7975,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025081133</v>
+        <v>2025080133</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7788,34 +7984,34 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>43</v>
@@ -7823,7 +8019,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>38278</v>
+        <v>116181</v>
       </c>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -7833,7 +8029,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>41</v>
@@ -7845,7 +8041,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025080766</v>
+        <v>2025081294</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7854,44 +8050,46 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>86982</v>
-      </c>
-      <c r="S93" s="7"/>
+        <v>115901</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
@@ -7899,21 +8097,17 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA93" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB93" s="7">
-        <v>1</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025080989</v>
+        <v>2025081295</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7922,42 +8116,42 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3">
-        <v>86982</v>
+        <v>115901</v>
       </c>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
@@ -7965,25 +8159,21 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-      <c r="Y94" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB94" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB94" s="3"/>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025080643</v>
+        <v>2025081104</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -7992,44 +8182,46 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7">
-        <v>31483</v>
-      </c>
-      <c r="S95" s="7"/>
+        <v>11452</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -8037,7 +8229,7 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>41</v>
@@ -8051,7 +8243,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025080642</v>
+        <v>2025081105</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -8060,46 +8252,44 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
-        <v>31483</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11452</v>
+      </c>
+      <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -8107,9 +8297,11 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA96" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB96" s="3"/>
     </row>
     <row r="97" spans="1:28">
@@ -8117,7 +8309,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025081106</v>
+        <v>2025081095</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8126,46 +8318,44 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>25326</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>147602</v>
+      </c>
+      <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -8173,7 +8363,7 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>41</v>
@@ -8187,7 +8377,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025081107</v>
+        <v>2025081094</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8196,44 +8386,46 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>25326</v>
-      </c>
-      <c r="S98" s="3"/>
+        <v>147602</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -8241,7 +8433,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="AA98" s="3" t="s">
         <v>41</v>
@@ -8253,7 +8445,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025081004</v>
+        <v>2025081098</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8262,30 +8454,34 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+        <v>337</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L99" s="8" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>40</v>
@@ -8293,7 +8489,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>0</v>
+        <v>259807</v>
       </c>
       <c r="S99" s="7" t="s">
         <v>41</v>
@@ -8305,7 +8501,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="AA99" s="7" t="s">
         <v>41</v>
@@ -8319,7 +8515,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025081012</v>
+        <v>2025081099</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8328,42 +8524,44 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+        <v>337</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L100" s="6" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>259807</v>
+      </c>
+      <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -8371,21 +8569,19 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB100" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB100" s="3"/>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025080447</v>
+        <v>2025081102</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8394,30 +8590,34 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L101" s="8" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>40</v>
@@ -8425,7 +8625,7 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>0</v>
+        <v>127215</v>
       </c>
       <c r="S101" s="7" t="s">
         <v>41</v>
@@ -8437,7 +8637,7 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="AA101" s="7" t="s">
         <v>41</v>
@@ -8451,7 +8651,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025081016</v>
+        <v>2025081103</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8460,42 +8660,44 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L102" s="6" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>127215</v>
+      </c>
+      <c r="S102" s="3"/>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
@@ -8503,21 +8705,19 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB102" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB102" s="3"/>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025081108</v>
+        <v>2025080027</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8526,44 +8726,46 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>339</v>
+        <v>107</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>9</v>
-      </c>
-      <c r="S103" s="7"/>
+        <v>180622</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
@@ -8571,21 +8773,17 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA103" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB103" s="7">
-        <v>1</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025080035</v>
+        <v>2025080028</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8594,42 +8792,42 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M104" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="N104" s="6" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
-        <v>0</v>
+        <v>180622</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
@@ -8639,21 +8837,19 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB104" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB104" s="3"/>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="7">
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025080425</v>
+        <v>2025080029</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8662,42 +8858,44 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L105" s="8" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>0</v>
-      </c>
-      <c r="S105" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S105" s="7"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
@@ -8705,21 +8903,19 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="AA105" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB105" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025080426</v>
+        <v>2025080588</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8728,30 +8924,34 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L106" s="6" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>40</v>
@@ -8759,31 +8959,33 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
-        <v>0</v>
-      </c>
-      <c r="S106" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S106" s="3"/>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
+      <c r="Y106" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z106" s="6" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="AA106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB106" s="3"/>
+      <c r="AB106" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025080367</v>
+        <v>2025080136</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -8792,44 +8994,46 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>0</v>
-      </c>
-      <c r="S107" s="7"/>
+        <v>342829</v>
+      </c>
+      <c r="S107" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -8837,11 +9041,9 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA107" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
     </row>
     <row r="108" spans="1:28">
@@ -8849,7 +9051,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025080889</v>
+        <v>2025080137</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -8858,42 +9060,42 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
-        <v>0</v>
+        <v>342829</v>
       </c>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
@@ -8903,21 +9105,19 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="AA108" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB108" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB108" s="3"/>
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025081062</v>
+        <v>2025081096</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -8926,30 +9126,34 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+        <v>350</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L109" s="8" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="O109" s="7" t="s">
         <v>40</v>
@@ -8957,7 +9161,7 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
-        <v>0</v>
+        <v>199625</v>
       </c>
       <c r="S109" s="7" t="s">
         <v>41</v>
@@ -8969,19 +9173,21 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB109" s="7"/>
+      <c r="AB109" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025080527</v>
+        <v>2025081097</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -8990,42 +9196,42 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>363</v>
+        <v>226</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
-        <v>0</v>
+        <v>199625</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
@@ -9035,21 +9241,19 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="AA110" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB110" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB110" s="3"/>
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="7">
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025080636</v>
+        <v>2025081357</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -9058,38 +9262,40 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L111" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="M111" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="N111" s="8" t="s">
-        <v>366</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N111" s="8"/>
       <c r="O111" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7">
-        <v>0</v>
+        <v>133644</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>41</v>
@@ -9101,19 +9307,21 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB111" s="7"/>
+      <c r="AB111" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025080521</v>
+        <v>2025081358</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9122,42 +9330,40 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L112" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="M112" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="N112" s="6" t="s">
-        <v>366</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N112" s="6"/>
       <c r="O112" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
-        <v>0</v>
+        <v>133644</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9167,7 +9373,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>41</v>
@@ -9179,7 +9385,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025080946</v>
+        <v>2025080856</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9188,44 +9394,48 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>369</v>
+        <v>143</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
+      <c r="Q113" s="7">
+        <v>1205</v>
+      </c>
       <c r="R113" s="7">
-        <v>0</v>
-      </c>
-      <c r="S113" s="7"/>
+        <v>3849</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
@@ -9233,7 +9443,7 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="8" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
       <c r="AA113" s="7" t="s">
         <v>41</v>
@@ -9247,7 +9457,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>2025081053</v>
+        <v>2025080857</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -9256,38 +9466,44 @@
         <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>369</v>
+        <v>143</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L114" s="6" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="3">
+        <v>1205</v>
+      </c>
       <c r="R114" s="3">
-        <v>0</v>
+        <v>3849</v>
       </c>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
@@ -9295,49 +9511,1775 @@
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
-      <c r="Y114" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y114" s="3"/>
       <c r="Z114" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>2025081132</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7">
+        <v>38278</v>
+      </c>
+      <c r="S115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2025081133</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3">
+        <v>38278</v>
+      </c>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2025080766</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7">
+        <v>86982</v>
+      </c>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2025080989</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3">
+        <v>86982</v>
+      </c>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z118" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2025081292</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7">
+        <v>3085</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2025081293</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3">
+        <v>3085</v>
+      </c>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB120" s="3"/>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>2025080642</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7">
+        <v>31483</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2025080643</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3">
+        <v>31483</v>
+      </c>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB122" s="3"/>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2025081106</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H123" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="AA114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB114" s="3"/>
-    </row>
-    <row r="115" spans="1:28">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="9"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="9"/>
-      <c r="Y115" s="9"/>
-      <c r="Z115" s="10"/>
-      <c r="AA115" s="9" t="s">
+      <c r="I123" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="AB115" s="9">
-        <v>63</v>
+      <c r="J123" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7">
+        <v>25326</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2025081107</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3">
+        <v>25326</v>
+      </c>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7">
+        <v>2025081004</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7">
+        <v>0</v>
+      </c>
+      <c r="S125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2025081012</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3">
+        <v>0</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7">
+        <v>2025080447</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+      <c r="S127" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA127" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2025081016</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7">
+        <v>2025081108</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7">
+        <v>9</v>
+      </c>
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7"/>
+      <c r="X129" s="7"/>
+      <c r="Y129" s="7"/>
+      <c r="Z129" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2025080035</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3">
+        <v>0</v>
+      </c>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7">
+        <v>2025080425</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7">
+        <v>0</v>
+      </c>
+      <c r="S131" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA131" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2025080426</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3">
+        <v>0</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7">
+        <v>2025080367</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7">
+        <v>0</v>
+      </c>
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA133" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB133" s="7"/>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2025080889</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3">
+        <v>0</v>
+      </c>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7">
+        <v>2025081062</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7">
+        <v>0</v>
+      </c>
+      <c r="S135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB135" s="7"/>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2025080636</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3">
+        <v>0</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="7">
+        <v>135</v>
+      </c>
+      <c r="B137" s="7">
+        <v>2025080521</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="O137" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7">
+        <v>0</v>
+      </c>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA137" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB137" s="7"/>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2025080527</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3">
+        <v>0</v>
+      </c>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA138" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB138" s="3"/>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" s="7">
+        <v>137</v>
+      </c>
+      <c r="B139" s="7">
+        <v>2025081053</v>
+      </c>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="O139" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7">
+        <v>0</v>
+      </c>
+      <c r="S139" s="7"/>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="7"/>
+      <c r="Y139" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z139" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA139" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2025080946</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3">
+        <v>0</v>
+      </c>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB140" s="3"/>
+    </row>
+    <row r="141" spans="1:28">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="9"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="10"/>
+      <c r="AA141" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB141" s="9">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$151</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -429,6 +429,39 @@
     <t>三重美溪店</t>
   </si>
   <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>14:47:00</t>
+  </si>
+  <si>
+    <t>THILF03796</t>
+  </si>
+  <si>
+    <t>新北市三重區進安街76號</t>
+  </si>
+  <si>
+    <t>三重進安店</t>
+  </si>
+  <si>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>THILF03811</t>
+  </si>
+  <si>
+    <t>新北市三重區仁安街2號</t>
+  </si>
+  <si>
+    <t>三重碧華公園</t>
+  </si>
+  <si>
+    <t>PMQ3 TVV</t>
+  </si>
+  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -510,9 +543,6 @@
 將TM1和TM2交換對接做卡機測試，比且等待店家交班及清帳後再次測試確認，目前都可以進行讀卡的動作，請店家在進行觀察</t>
   </si>
   <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>16:05:00</t>
   </si>
   <si>
@@ -595,9 +625,6 @@
   </si>
   <si>
     <t>重新插拔客顯USB，重開機後正常</t>
-  </si>
-  <si>
-    <t>15:30:00</t>
   </si>
   <si>
     <t>15:59:00</t>
@@ -701,6 +728,30 @@
     <t>更換掃描槍
 換下8119008137
 換上8119012490</t>
+  </si>
+  <si>
+    <t>16:22:00</t>
+  </si>
+  <si>
+    <t>THILF0D350</t>
+  </si>
+  <si>
+    <t>新北市三重區三和路四段233號</t>
+  </si>
+  <si>
+    <t>三重徐匯店</t>
+  </si>
+  <si>
+    <t>14:19:00</t>
+  </si>
+  <si>
+    <t>THILF0D620</t>
+  </si>
+  <si>
+    <t>新北市三重區仁愛街253號</t>
+  </si>
+  <si>
+    <t>北縣三愛三店</t>
   </si>
   <si>
     <t>湯家瑋</t>
@@ -1822,10 +1873,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A147" sqref="A147"/>
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3265,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025080101</v>
+        <v>2025081493</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -3277,16 +3328,16 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -3294,10 +3345,10 @@
         <v>79</v>
       </c>
       <c r="M22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>40</v>
@@ -3331,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025080892</v>
+        <v>2025081505</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3343,41 +3394,39 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <v>0</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -3385,7 +3434,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -3399,7 +3448,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025080422</v>
+        <v>2025080101</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3411,10 +3460,10 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>140</v>
@@ -3422,12 +3471,8 @@
       <c r="I24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
         <v>79</v>
       </c>
@@ -3438,14 +3483,16 @@
         <v>143</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -3453,7 +3500,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -3467,7 +3514,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025080594</v>
+        <v>2025080892</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3479,7 +3526,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>145</v>
@@ -3488,30 +3535,32 @@
         <v>146</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <v>0</v>
       </c>
-      <c r="S25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -3519,19 +3568,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025080821</v>
+        <v>2025080422</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3543,16 +3594,16 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>116</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>77</v>
@@ -3564,10 +3615,10 @@
         <v>79</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>70</v>
@@ -3585,7 +3636,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
@@ -3599,7 +3650,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025081073</v>
+        <v>2025080594</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3611,41 +3662,39 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <v>0</v>
       </c>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3653,21 +3702,19 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025080371</v>
+        <v>2025080821</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3679,16 +3726,16 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>77</v>
@@ -3700,10 +3747,10 @@
         <v>79</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>70</v>
@@ -3721,7 +3768,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
@@ -3735,7 +3782,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025080482</v>
+        <v>2025081073</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3747,16 +3794,16 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>77</v>
@@ -3768,10 +3815,10 @@
         <v>79</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>70</v>
@@ -3789,19 +3836,21 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025080112</v>
+        <v>2025080371</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3813,39 +3862,41 @@
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
         <v>0</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3853,7 +3904,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
@@ -3867,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025080142</v>
+        <v>2025080482</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3882,13 +3933,13 @@
         <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>77</v>
@@ -3900,10 +3951,10 @@
         <v>79</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -3921,21 +3972,19 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025081296</v>
+        <v>2025080112</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3947,23 +3996,19 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="6" t="s">
         <v>79</v>
       </c>
@@ -3974,14 +4019,16 @@
         <v>173</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3989,7 +4036,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
@@ -4003,7 +4050,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025081195</v>
+        <v>2025080142</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -4015,16 +4062,16 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>77</v>
@@ -4036,10 +4083,10 @@
         <v>79</v>
       </c>
       <c r="M33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>70</v>
@@ -4057,7 +4104,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
@@ -4071,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025081374</v>
+        <v>2025081296</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -4086,36 +4133,38 @@
         <v>99</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
         <v>0</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -4123,19 +4172,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025080098</v>
+        <v>2025081195</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -4147,39 +4198,41 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L35" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
         <v>0</v>
       </c>
-      <c r="S35" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -4187,7 +4240,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -4201,7 +4254,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025080953</v>
+        <v>2025081374</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -4213,41 +4266,39 @@
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
         <v>0</v>
       </c>
-      <c r="S36" s="3"/>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -4255,21 +4306,19 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025081415</v>
+        <v>2025080098</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -4281,41 +4330,39 @@
         <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
         <v>0</v>
       </c>
-      <c r="S37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -4323,7 +4370,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
@@ -4337,7 +4384,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025081193</v>
+        <v>2025080953</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4349,7 +4396,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>197</v>
@@ -4360,8 +4407,12 @@
       <c r="I38" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L38" s="6" t="s">
         <v>79</v>
       </c>
@@ -4372,16 +4423,14 @@
         <v>201</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
         <v>0</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4389,7 +4438,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -4403,7 +4452,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025081196</v>
+        <v>2025081415</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4415,19 +4464,23 @@
         <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L39" s="8" t="s">
         <v>79</v>
       </c>
@@ -4438,16 +4491,14 @@
         <v>201</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <v>0</v>
       </c>
-      <c r="S39" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -4455,19 +4506,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB39" s="7"/>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025081194</v>
+        <v>2025081193</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4482,13 +4535,13 @@
         <v>83</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -4496,10 +4549,10 @@
         <v>79</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
@@ -4533,7 +4586,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025080131</v>
+        <v>2025081196</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4545,7 +4598,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>206</v>
@@ -4590,16 +4643,14 @@
       <c r="AA41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB41" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025080362</v>
+        <v>2025081194</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4611,41 +4662,39 @@
         <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>211</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4653,7 +4702,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -4667,7 +4716,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080363</v>
+        <v>2025080131</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4679,41 +4728,39 @@
         <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
         <v>0</v>
       </c>
-      <c r="S43" s="7"/>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4721,19 +4768,21 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7"/>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080617</v>
+        <v>2025080362</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4742,44 +4791,42 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="N44" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="O44" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3">
-        <v>10117</v>
-      </c>
+      <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>69822</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -4787,11 +4834,9 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
@@ -4805,7 +4850,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025081327</v>
+        <v>2025080363</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4814,48 +4859,44 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="N45" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="O45" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7">
-        <v>10738</v>
-      </c>
+      <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>73666</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4863,21 +4904,19 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025081328</v>
+        <v>2025081518</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4886,46 +4925,42 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="6" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3">
-        <v>10738</v>
-      </c>
+      <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>73666</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4933,19 +4968,21 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB46" s="3"/>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025081375</v>
+        <v>2025081485</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4954,44 +4991,38 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="8" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7">
-        <v>15935</v>
-      </c>
+      <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>140016</v>
+        <v>0</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>41</v>
@@ -5003,7 +5034,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
@@ -5017,7 +5048,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025081376</v>
+        <v>2025080617</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -5026,44 +5057,44 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3">
-        <v>15935</v>
+        <v>10117</v>
       </c>
       <c r="R48" s="3">
-        <v>140016</v>
+        <v>69822</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -5071,21 +5102,25 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
+      <c r="Y48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z48" s="6" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025081290</v>
+        <v>2025081327</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -5094,44 +5129,44 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7">
-        <v>26639</v>
+        <v>10738</v>
       </c>
       <c r="R49" s="7">
-        <v>44110</v>
+        <v>73666</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>41</v>
@@ -5143,17 +5178,21 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025081291</v>
+        <v>2025081328</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -5162,44 +5201,44 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3">
-        <v>26639</v>
+        <v>10738</v>
       </c>
       <c r="R50" s="3">
-        <v>44110</v>
+        <v>73666</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -5209,7 +5248,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -5221,7 +5260,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025081134</v>
+        <v>2025081376</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -5230,44 +5269,44 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7">
-        <v>27842</v>
+        <v>15935</v>
       </c>
       <c r="R51" s="7">
-        <v>23949</v>
+        <v>140016</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -5277,7 +5316,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
@@ -5291,7 +5330,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025081332</v>
+        <v>2025081375</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -5300,46 +5339,44 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>242</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="M52" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="N52" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P52" s="3">
-        <v>6341</v>
-      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3">
-        <v>15083</v>
+        <v>15935</v>
       </c>
       <c r="R52" s="3">
-        <v>18344</v>
+        <v>140016</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>41</v>
@@ -5351,21 +5388,19 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025081333</v>
+        <v>2025081290</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5374,48 +5409,48 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P53" s="7">
-        <v>6341</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P53" s="7"/>
       <c r="Q53" s="7">
-        <v>15083</v>
+        <v>26639</v>
       </c>
       <c r="R53" s="7">
-        <v>18344</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>44110</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5423,11 +5458,9 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
@@ -5435,7 +5468,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025081032</v>
+        <v>2025081291</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5444,46 +5477,44 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1696</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <v>2263</v>
+        <v>26639</v>
       </c>
       <c r="R54" s="3">
-        <v>5390</v>
+        <v>44110</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -5493,21 +5524,19 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025081330</v>
+        <v>2025081134</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5516,50 +5545,46 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P55" s="7">
-        <v>1749</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P55" s="7"/>
       <c r="Q55" s="7">
-        <v>2376</v>
+        <v>27842</v>
       </c>
       <c r="R55" s="7">
-        <v>6220</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>23949</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5567,7 +5592,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
@@ -5581,7 +5606,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025081331</v>
+        <v>2025081332</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5590,48 +5615,50 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P56" s="3">
-        <v>1749</v>
+        <v>6341</v>
       </c>
       <c r="Q56" s="3">
-        <v>2376</v>
+        <v>15083</v>
       </c>
       <c r="R56" s="3">
-        <v>6220</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>18344</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5639,19 +5666,21 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB56" s="3"/>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025081334</v>
+        <v>2025081333</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5660,50 +5689,48 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="I57" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P57" s="7">
-        <v>81</v>
+        <v>6341</v>
       </c>
       <c r="Q57" s="7">
-        <v>766</v>
+        <v>15083</v>
       </c>
       <c r="R57" s="7">
-        <v>2474</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>18344</v>
+      </c>
+      <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5711,21 +5738,19 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025081335</v>
+        <v>2025081032</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5734,46 +5759,46 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P58" s="3">
-        <v>81</v>
+        <v>1696</v>
       </c>
       <c r="Q58" s="3">
-        <v>766</v>
+        <v>2263</v>
       </c>
       <c r="R58" s="3">
-        <v>2474</v>
+        <v>5390</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -5783,19 +5808,21 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="3"/>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025080644</v>
+        <v>2025081330</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5804,44 +5831,46 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P59" s="7"/>
+      <c r="P59" s="7">
+        <v>1749</v>
+      </c>
       <c r="Q59" s="7">
-        <v>338</v>
+        <v>2376</v>
       </c>
       <c r="R59" s="7">
-        <v>21935</v>
+        <v>6220</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>41</v>
@@ -5853,17 +5882,21 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025080645</v>
+        <v>2025081331</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5872,44 +5905,46 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P60" s="3"/>
+      <c r="P60" s="3">
+        <v>1749</v>
+      </c>
       <c r="Q60" s="3">
-        <v>338</v>
+        <v>2376</v>
       </c>
       <c r="R60" s="3">
-        <v>21935</v>
+        <v>6220</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -5919,7 +5954,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
@@ -5931,7 +5966,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025080704</v>
+        <v>2025081334</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5940,42 +5975,46 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
+      <c r="P61" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>766</v>
+      </c>
       <c r="R61" s="7">
-        <v>7108</v>
+        <v>2474</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>41</v>
@@ -5987,17 +6026,21 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025080705</v>
+        <v>2025081335</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -6006,42 +6049,46 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="P62" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>766</v>
+      </c>
       <c r="R62" s="3">
-        <v>7108</v>
+        <v>2474</v>
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -6051,7 +6098,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>41</v>
@@ -6063,7 +6110,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025081092</v>
+        <v>2025080644</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -6072,42 +6119,44 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
+      <c r="Q63" s="7">
+        <v>338</v>
+      </c>
       <c r="R63" s="7">
-        <v>395025</v>
+        <v>21935</v>
       </c>
       <c r="S63" s="7" t="s">
         <v>41</v>
@@ -6119,21 +6168,17 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB63" s="7">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025081093</v>
+        <v>2025080645</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -6142,42 +6187,44 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="3">
+        <v>338</v>
+      </c>
       <c r="R64" s="3">
-        <v>395025</v>
+        <v>21935</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -6187,7 +6234,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
@@ -6199,7 +6246,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025080586</v>
+        <v>2025080704</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -6208,19 +6255,19 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>35</v>
@@ -6229,23 +6276,25 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>163873</v>
-      </c>
-      <c r="S65" s="7"/>
+        <v>7108</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -6253,21 +6302,17 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA65" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB65" s="7">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025081100</v>
+        <v>2025080705</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -6276,19 +6321,19 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>35</v>
@@ -6297,25 +6342,23 @@
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>164338</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>7108</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -6323,21 +6366,19 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025081101</v>
+        <v>2025081092</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -6346,19 +6387,19 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>35</v>
@@ -6367,23 +6408,25 @@
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>164338</v>
-      </c>
-      <c r="S67" s="7"/>
+        <v>395025</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -6391,19 +6434,21 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025081362</v>
+        <v>2025081093</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6412,19 +6457,19 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>35</v>
@@ -6433,25 +6478,23 @@
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>213124</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>395025</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -6459,9 +6502,11 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA68" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
@@ -6469,7 +6514,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025081363</v>
+        <v>2025080586</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6478,19 +6523,19 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>35</v>
@@ -6499,21 +6544,21 @@
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>213124</v>
+        <v>163873</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -6523,19 +6568,21 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7"/>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025081427</v>
+        <v>2025081100</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6544,19 +6591,19 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>35</v>
@@ -6565,13 +6612,13 @@
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>40</v>
@@ -6579,21 +6626,19 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>213124</v>
-      </c>
-      <c r="S70" s="3"/>
+        <v>164338</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T70" s="3"/>
-      <c r="U70" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-      <c r="Y70" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>41</v>
@@ -6607,7 +6652,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025080852</v>
+        <v>2025081101</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6616,19 +6661,19 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>35</v>
@@ -6637,25 +6682,23 @@
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>46640</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>164338</v>
+      </c>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6663,21 +6706,19 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025080853</v>
+        <v>2025081362</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6686,19 +6727,19 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>35</v>
@@ -6707,23 +6748,25 @@
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>46640</v>
-      </c>
-      <c r="S72" s="3"/>
+        <v>213124</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6731,11 +6774,9 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
@@ -6743,7 +6784,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025080850</v>
+        <v>2025081363</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6752,19 +6793,19 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>35</v>
@@ -6773,25 +6814,23 @@
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>76522</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>213124</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6799,21 +6838,19 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB73" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025080851</v>
+        <v>2025081427</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6822,19 +6859,19 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>35</v>
@@ -6843,43 +6880,49 @@
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>76522</v>
+        <v>213124</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
+      <c r="U74" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
+      <c r="Y74" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z74" s="6" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB74" s="3"/>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025080858</v>
+        <v>2025080852</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6888,34 +6931,34 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>40</v>
@@ -6923,7 +6966,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>146880</v>
+        <v>46640</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>41</v>
@@ -6935,7 +6978,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
@@ -6949,7 +6992,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025080859</v>
+        <v>2025080853</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6958,34 +7001,34 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>43</v>
@@ -6993,7 +7036,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>146880</v>
+        <v>46640</v>
       </c>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
@@ -7003,7 +7046,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>41</v>
@@ -7015,7 +7058,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025080863</v>
+        <v>2025080850</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -7024,34 +7067,34 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>40</v>
@@ -7059,7 +7102,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>131744</v>
+        <v>76522</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>41</v>
@@ -7071,7 +7114,7 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
@@ -7085,7 +7128,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025080864</v>
+        <v>2025080851</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -7094,34 +7137,34 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>43</v>
@@ -7129,7 +7172,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>131744</v>
+        <v>76522</v>
       </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
@@ -7139,7 +7182,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA78" s="3" t="s">
         <v>41</v>
@@ -7151,7 +7194,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025080129</v>
+        <v>2025080858</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -7160,19 +7203,19 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>48</v>
@@ -7181,13 +7224,13 @@
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>40</v>
@@ -7195,7 +7238,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>253107</v>
+        <v>146880</v>
       </c>
       <c r="S79" s="7" t="s">
         <v>41</v>
@@ -7207,17 +7250,21 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025080130</v>
+        <v>2025080859</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -7226,19 +7273,19 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>48</v>
@@ -7247,13 +7294,13 @@
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>43</v>
@@ -7261,7 +7308,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>253107</v>
+        <v>146880</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -7271,7 +7318,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>41</v>
@@ -7283,7 +7330,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025080134</v>
+        <v>2025080863</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -7292,19 +7339,19 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>48</v>
@@ -7313,13 +7360,13 @@
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>40</v>
@@ -7327,7 +7374,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>199706</v>
+        <v>131744</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>41</v>
@@ -7339,17 +7386,21 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025080135</v>
+        <v>2025080864</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7358,19 +7409,19 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>48</v>
@@ -7379,13 +7430,13 @@
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>43</v>
@@ -7393,7 +7444,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>199706</v>
+        <v>131744</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -7403,7 +7454,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
@@ -7415,7 +7466,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025080589</v>
+        <v>2025080129</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7424,19 +7475,19 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>48</v>
@@ -7445,13 +7496,13 @@
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>40</v>
@@ -7459,33 +7510,29 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>199706</v>
-      </c>
-      <c r="S83" s="7"/>
+        <v>253107</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
-      <c r="Y83" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA83" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB83" s="7">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025080848</v>
+        <v>2025080130</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7494,19 +7541,19 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>48</v>
@@ -7515,25 +7562,23 @@
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>2363</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>253107</v>
+      </c>
+      <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7541,21 +7586,19 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025080849</v>
+        <v>2025080135</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7564,19 +7607,19 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>48</v>
@@ -7585,13 +7628,13 @@
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>43</v>
@@ -7599,7 +7642,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>2363</v>
+        <v>199706</v>
       </c>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
@@ -7609,19 +7652,21 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7"/>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025080415</v>
+        <v>2025080134</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7630,44 +7675,46 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>330</v>
-      </c>
-      <c r="S86" s="3"/>
+        <v>199706</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -7675,21 +7722,17 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA86" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025080615</v>
+        <v>2025080589</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7698,42 +7741,42 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>330</v>
+        <v>199706</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -7741,9 +7784,11 @@
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
+      <c r="Y87" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z87" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
@@ -7757,7 +7802,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025080775</v>
+        <v>2025080848</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7766,46 +7811,46 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3">
-        <v>1595</v>
-      </c>
+      <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>27090</v>
-      </c>
-      <c r="S88" s="3"/>
+        <v>2363</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7813,7 +7858,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
@@ -7827,7 +7872,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025080990</v>
+        <v>2025080849</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7836,44 +7881,42 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P89" s="7"/>
-      <c r="Q89" s="7">
-        <v>1595</v>
-      </c>
+      <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>27090</v>
+        <v>2363</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -7881,25 +7924,21 @@
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
-      <c r="Y89" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB89" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025081440</v>
+        <v>2025080415</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7908,19 +7947,19 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>170</v>
+        <v>323</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>60</v>
@@ -7929,23 +7968,21 @@
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>70</v>
       </c>
       <c r="P90" s="3"/>
-      <c r="Q90" s="3">
-        <v>984</v>
-      </c>
+      <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>8649</v>
+        <v>330</v>
       </c>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
@@ -7955,7 +7992,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>41</v>
@@ -7969,7 +8006,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025080696</v>
+        <v>2025080615</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7978,19 +8015,19 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="H91" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I91" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>60</v>
@@ -7999,23 +8036,21 @@
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M91" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="N91" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="N91" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>70</v>
       </c>
       <c r="P91" s="7"/>
-      <c r="Q91" s="7">
-        <v>6663</v>
-      </c>
+      <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>11174</v>
+        <v>330</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8039,7 +8074,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025080143</v>
+        <v>2025080775</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -8048,46 +8083,46 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
+      <c r="Q92" s="3">
+        <v>1595</v>
+      </c>
       <c r="R92" s="3">
-        <v>287428</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>27090</v>
+      </c>
+      <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -8095,17 +8130,21 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025080144</v>
+        <v>2025080990</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -8114,42 +8153,44 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
+      <c r="Q93" s="7">
+        <v>1595</v>
+      </c>
       <c r="R93" s="7">
-        <v>287428</v>
+        <v>27090</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -8157,21 +8198,25 @@
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
+      <c r="Y93" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z93" s="8" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB93" s="7"/>
+      <c r="AB93" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025080132</v>
+        <v>2025081440</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -8180,46 +8225,46 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>197</v>
+        <v>336</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
+      <c r="Q94" s="3">
+        <v>984</v>
+      </c>
       <c r="R94" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>8649</v>
+      </c>
+      <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
@@ -8227,17 +8272,21 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025080133</v>
+        <v>2025080696</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -8246,42 +8295,44 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
+      <c r="Q95" s="7">
+        <v>6663</v>
+      </c>
       <c r="R95" s="7">
-        <v>116181</v>
+        <v>11174</v>
       </c>
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
@@ -8291,19 +8342,21 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB95" s="7"/>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025081294</v>
+        <v>2025080143</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -8312,19 +8365,19 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>66</v>
@@ -8333,13 +8386,13 @@
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>40</v>
@@ -8347,7 +8400,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
-        <v>115901</v>
+        <v>287428</v>
       </c>
       <c r="S96" s="3" t="s">
         <v>41</v>
@@ -8359,7 +8412,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
@@ -8369,7 +8422,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025081295</v>
+        <v>2025080144</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8378,19 +8431,19 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>66</v>
@@ -8399,13 +8452,13 @@
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>43</v>
@@ -8413,7 +8466,7 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>115901</v>
+        <v>287428</v>
       </c>
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
@@ -8423,7 +8476,7 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>41</v>
@@ -8435,7 +8488,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025081104</v>
+        <v>2025080132</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8444,19 +8497,19 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>66</v>
@@ -8465,13 +8518,13 @@
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>40</v>
@@ -8479,7 +8532,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>11452</v>
+        <v>116181</v>
       </c>
       <c r="S98" s="3" t="s">
         <v>41</v>
@@ -8491,21 +8544,17 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA98" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB98" s="3">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="7">
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025081105</v>
+        <v>2025080133</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8514,19 +8563,19 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>66</v>
@@ -8535,13 +8584,13 @@
         <v>36</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>43</v>
@@ -8549,7 +8598,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>11452</v>
+        <v>116181</v>
       </c>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
@@ -8559,7 +8608,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA99" s="7" t="s">
         <v>41</v>
@@ -8571,7 +8620,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025081094</v>
+        <v>2025081294</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8580,19 +8629,19 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>66</v>
@@ -8601,13 +8650,13 @@
         <v>36</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>40</v>
@@ -8615,7 +8664,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
-        <v>147602</v>
+        <v>115901</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>41</v>
@@ -8627,21 +8676,17 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA100" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>1</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025081095</v>
+        <v>2025081295</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8650,19 +8695,19 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>66</v>
@@ -8671,13 +8716,13 @@
         <v>36</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>43</v>
@@ -8685,7 +8730,7 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>147602</v>
+        <v>115901</v>
       </c>
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
@@ -8695,7 +8740,7 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AA101" s="7" t="s">
         <v>41</v>
@@ -8707,7 +8752,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025081098</v>
+        <v>2025081104</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8716,19 +8761,19 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>66</v>
@@ -8737,13 +8782,13 @@
         <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>40</v>
@@ -8751,7 +8796,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
-        <v>259807</v>
+        <v>11452</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>41</v>
@@ -8763,7 +8808,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>41</v>
@@ -8777,7 +8822,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025081099</v>
+        <v>2025081105</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8786,19 +8831,19 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>66</v>
@@ -8807,13 +8852,13 @@
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="O103" s="7" t="s">
         <v>43</v>
@@ -8821,7 +8866,7 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>259807</v>
+        <v>11452</v>
       </c>
       <c r="S103" s="7"/>
       <c r="T103" s="7"/>
@@ -8831,7 +8876,7 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA103" s="7" t="s">
         <v>41</v>
@@ -8843,7 +8888,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025081102</v>
+        <v>2025081094</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8852,19 +8897,19 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>66</v>
@@ -8873,13 +8918,13 @@
         <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>40</v>
@@ -8887,7 +8932,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
-        <v>127215</v>
+        <v>147602</v>
       </c>
       <c r="S104" s="3" t="s">
         <v>41</v>
@@ -8899,7 +8944,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>41</v>
@@ -8913,7 +8958,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025081103</v>
+        <v>2025081095</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8922,19 +8967,19 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>66</v>
@@ -8943,13 +8988,13 @@
         <v>36</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="O105" s="7" t="s">
         <v>43</v>
@@ -8957,7 +9002,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>127215</v>
+        <v>147602</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
@@ -8967,7 +9012,7 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA105" s="7" t="s">
         <v>41</v>
@@ -8979,7 +9024,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025080027</v>
+        <v>2025081098</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8988,19 +9033,19 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>66</v>
@@ -9009,13 +9054,13 @@
         <v>36</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>40</v>
@@ -9023,7 +9068,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
-        <v>180622</v>
+        <v>259807</v>
       </c>
       <c r="S106" s="3" t="s">
         <v>41</v>
@@ -9035,17 +9080,21 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="AA106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025080028</v>
+        <v>2025081099</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -9054,19 +9103,19 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>66</v>
@@ -9075,13 +9124,13 @@
         <v>36</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>43</v>
@@ -9089,7 +9138,7 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>180622</v>
+        <v>259807</v>
       </c>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
@@ -9099,7 +9148,7 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA107" s="7" t="s">
         <v>41</v>
@@ -9111,7 +9160,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025080029</v>
+        <v>2025081102</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -9120,19 +9169,19 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>66</v>
@@ -9141,23 +9190,25 @@
         <v>36</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S108" s="3"/>
+        <v>127215</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -9165,19 +9216,21 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="AA108" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB108" s="3"/>
+      <c r="AB108" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025080588</v>
+        <v>2025081103</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -9186,19 +9239,19 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>66</v>
@@ -9207,21 +9260,21 @@
         <v>36</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
-        <v>180622</v>
+        <v>127215</v>
       </c>
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
@@ -9229,25 +9282,21 @@
       <c r="V109" s="7"/>
       <c r="W109" s="7"/>
       <c r="X109" s="7"/>
-      <c r="Y109" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB109" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB109" s="7"/>
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025080136</v>
+        <v>2025080027</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -9256,19 +9305,19 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>66</v>
@@ -9277,13 +9326,13 @@
         <v>36</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>40</v>
@@ -9291,7 +9340,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
-        <v>342829</v>
+        <v>180622</v>
       </c>
       <c r="S110" s="3" t="s">
         <v>41</v>
@@ -9303,7 +9352,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
@@ -9313,7 +9362,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025080137</v>
+        <v>2025080028</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -9322,19 +9371,19 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>66</v>
@@ -9343,13 +9392,13 @@
         <v>36</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>43</v>
@@ -9357,7 +9406,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7">
-        <v>342829</v>
+        <v>180622</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
@@ -9367,7 +9416,7 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>41</v>
@@ -9379,7 +9428,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025081097</v>
+        <v>2025080029</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9388,19 +9437,19 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>66</v>
@@ -9409,21 +9458,21 @@
         <v>36</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
-        <v>199625</v>
+        <v>180622</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9433,21 +9482,19 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB112" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB112" s="3"/>
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="7">
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025081096</v>
+        <v>2025080588</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9456,19 +9503,19 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>66</v>
@@ -9477,13 +9524,13 @@
         <v>36</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="O113" s="7" t="s">
         <v>40</v>
@@ -9491,31 +9538,33 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7">
-        <v>199625</v>
-      </c>
-      <c r="S113" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
+      <c r="Y113" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z113" s="8" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="AA113" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB113" s="7"/>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>2025081357</v>
+        <v>2025080136</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -9524,19 +9573,19 @@
         <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>66</v>
@@ -9545,19 +9594,21 @@
         <v>36</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="N114" s="6"/>
+        <v>374</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="O114" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
-        <v>133644</v>
+        <v>342829</v>
       </c>
       <c r="S114" s="3" t="s">
         <v>41</v>
@@ -9569,21 +9620,17 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB114" s="3">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="7">
         <v>113</v>
       </c>
       <c r="B115" s="7">
-        <v>2025081358</v>
+        <v>2025080137</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -9592,19 +9639,19 @@
         <v>29</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>66</v>
@@ -9613,19 +9660,21 @@
         <v>36</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="N115" s="8"/>
+        <v>374</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="O115" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7">
-        <v>133644</v>
+        <v>342829</v>
       </c>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
@@ -9635,7 +9684,7 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="8" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="AA115" s="7" t="s">
         <v>41</v>
@@ -9647,7 +9696,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>2025080856</v>
+        <v>2025081096</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -9656,44 +9705,42 @@
         <v>29</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P116" s="3"/>
-      <c r="Q116" s="3">
-        <v>1205</v>
-      </c>
+      <c r="Q116" s="3"/>
       <c r="R116" s="3">
-        <v>3849</v>
+        <v>199625</v>
       </c>
       <c r="S116" s="3" t="s">
         <v>41</v>
@@ -9705,7 +9752,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA116" s="3" t="s">
         <v>41</v>
@@ -9719,7 +9766,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="7">
-        <v>2025080857</v>
+        <v>2025081097</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -9728,44 +9775,42 @@
         <v>29</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="O117" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P117" s="7"/>
-      <c r="Q117" s="7">
-        <v>1205</v>
-      </c>
+      <c r="Q117" s="7"/>
       <c r="R117" s="7">
-        <v>3849</v>
+        <v>199625</v>
       </c>
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
@@ -9775,7 +9820,7 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AA117" s="7" t="s">
         <v>41</v>
@@ -9787,7 +9832,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>2025081132</v>
+        <v>2025081358</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -9796,46 +9841,42 @@
         <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="N118" s="6" t="s">
-        <v>281</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N118" s="6"/>
       <c r="O118" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3">
-        <v>38278</v>
-      </c>
-      <c r="S118" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>133644</v>
+      </c>
+      <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
@@ -9843,17 +9884,21 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="7">
         <v>117</v>
       </c>
       <c r="B119" s="7">
-        <v>2025081133</v>
+        <v>2025081357</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -9862,44 +9907,44 @@
         <v>29</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="N119" s="8" t="s">
-        <v>281</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N119" s="8"/>
       <c r="O119" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7">
-        <v>38278</v>
-      </c>
-      <c r="S119" s="7"/>
+        <v>133644</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
       <c r="V119" s="7"/>
@@ -9907,7 +9952,7 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="8" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="AA119" s="7" t="s">
         <v>41</v>
@@ -9919,7 +9964,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>2025080766</v>
+        <v>2025080856</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -9928,44 +9973,48 @@
         <v>29</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
+      <c r="Q120" s="3">
+        <v>1205</v>
+      </c>
       <c r="R120" s="3">
-        <v>86982</v>
-      </c>
-      <c r="S120" s="3"/>
+        <v>3849</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
@@ -9973,7 +10022,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="6" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="AA120" s="3" t="s">
         <v>41</v>
@@ -9987,7 +10036,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="7">
-        <v>2025080989</v>
+        <v>2025080857</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -9996,42 +10045,44 @@
         <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
+      <c r="Q121" s="7">
+        <v>1205</v>
+      </c>
       <c r="R121" s="7">
-        <v>86982</v>
+        <v>3849</v>
       </c>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
@@ -10039,25 +10090,21 @@
       <c r="V121" s="7"/>
       <c r="W121" s="7"/>
       <c r="X121" s="7"/>
-      <c r="Y121" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y121" s="7"/>
       <c r="Z121" s="8" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="AA121" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB121" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB121" s="7"/>
     </row>
     <row r="122" spans="1:28">
       <c r="A122" s="3">
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>2025081292</v>
+        <v>2025081132</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -10066,34 +10113,34 @@
         <v>29</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>116</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>40</v>
@@ -10101,7 +10148,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
-        <v>3085</v>
+        <v>38278</v>
       </c>
       <c r="S122" s="3" t="s">
         <v>41</v>
@@ -10113,7 +10160,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="6" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
@@ -10123,7 +10170,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="7">
-        <v>2025081293</v>
+        <v>2025081133</v>
       </c>
       <c r="C123" s="7">
         <v>1</v>
@@ -10132,34 +10179,34 @@
         <v>29</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>116</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="O123" s="7" t="s">
         <v>43</v>
@@ -10167,7 +10214,7 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7">
-        <v>3085</v>
+        <v>38278</v>
       </c>
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
@@ -10177,7 +10224,7 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="8" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="AA123" s="7" t="s">
         <v>41</v>
@@ -10189,7 +10236,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>2025080642</v>
+        <v>2025080766</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -10198,46 +10245,44 @@
         <v>29</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3">
-        <v>31483</v>
-      </c>
-      <c r="S124" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>86982</v>
+      </c>
+      <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
@@ -10245,17 +10290,21 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
+        <v>393</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB124" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="B125" s="7">
-        <v>2025080643</v>
+        <v>2025080989</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -10264,42 +10313,42 @@
         <v>29</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7">
-        <v>31483</v>
+        <v>86982</v>
       </c>
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
@@ -10307,21 +10356,25 @@
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="7"/>
+      <c r="Y125" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z125" s="8" t="s">
-        <v>260</v>
+        <v>394</v>
       </c>
       <c r="AA125" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB125" s="7"/>
+      <c r="AB125" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="3">
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>2025081106</v>
+        <v>2025081292</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -10330,34 +10383,34 @@
         <v>29</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>40</v>
@@ -10365,7 +10418,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
-        <v>25326</v>
+        <v>3085</v>
       </c>
       <c r="S126" s="3" t="s">
         <v>41</v>
@@ -10377,21 +10430,17 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA126" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB126" s="3">
-        <v>1</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="7">
         <v>125</v>
       </c>
       <c r="B127" s="7">
-        <v>2025081107</v>
+        <v>2025081293</v>
       </c>
       <c r="C127" s="7">
         <v>1</v>
@@ -10400,34 +10449,34 @@
         <v>29</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>43</v>
@@ -10435,7 +10484,7 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7">
-        <v>25326</v>
+        <v>3085</v>
       </c>
       <c r="S127" s="7"/>
       <c r="T127" s="7"/>
@@ -10445,7 +10494,7 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AA127" s="7" t="s">
         <v>41</v>
@@ -10457,7 +10506,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>2025081004</v>
+        <v>2025080642</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -10466,30 +10515,34 @@
         <v>29</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+        <v>397</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L128" s="6" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>40</v>
@@ -10497,7 +10550,7 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
       <c r="R128" s="3">
-        <v>0</v>
+        <v>31483</v>
       </c>
       <c r="S128" s="3" t="s">
         <v>41</v>
@@ -10509,21 +10562,17 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA128" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB128" s="3">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AA128" s="3"/>
+      <c r="AB128" s="3"/>
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="7">
         <v>127</v>
       </c>
       <c r="B129" s="7">
-        <v>2025081012</v>
+        <v>2025080643</v>
       </c>
       <c r="C129" s="7">
         <v>1</v>
@@ -10532,42 +10581,44 @@
         <v>29</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
+        <v>397</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L129" s="8" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7">
-        <v>0</v>
-      </c>
-      <c r="S129" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>31483</v>
+      </c>
+      <c r="S129" s="7"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
       <c r="V129" s="7"/>
@@ -10575,21 +10626,19 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="8" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="AA129" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB129" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB129" s="7"/>
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="3">
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>2025080447</v>
+        <v>2025081106</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -10598,30 +10647,34 @@
         <v>29</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+        <v>402</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L130" s="6" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>40</v>
@@ -10629,7 +10682,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="3">
-        <v>0</v>
+        <v>25326</v>
       </c>
       <c r="S130" s="3" t="s">
         <v>41</v>
@@ -10641,7 +10694,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="6" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="AA130" s="3" t="s">
         <v>41</v>
@@ -10655,7 +10708,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="7">
-        <v>2025081016</v>
+        <v>2025081107</v>
       </c>
       <c r="C131" s="7">
         <v>1</v>
@@ -10664,42 +10717,44 @@
         <v>29</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>189</v>
+        <v>401</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
+        <v>402</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L131" s="8" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7">
-        <v>0</v>
-      </c>
-      <c r="S131" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>25326</v>
+      </c>
+      <c r="S131" s="7"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
       <c r="V131" s="7"/>
@@ -10707,21 +10762,19 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="8" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="AA131" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB131" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB131" s="7"/>
     </row>
     <row r="132" spans="1:28">
       <c r="A132" s="3">
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>2025081108</v>
+        <v>2025081004</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -10730,44 +10783,42 @@
         <v>29</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
       <c r="L132" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="3">
-        <v>9</v>
-      </c>
-      <c r="S132" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
@@ -10775,7 +10826,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="6" t="s">
-        <v>406</v>
+        <v>89</v>
       </c>
       <c r="AA132" s="3" t="s">
         <v>41</v>
@@ -10789,7 +10840,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="7">
-        <v>2025080035</v>
+        <v>2025081012</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
@@ -10798,44 +10849,42 @@
         <v>29</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>407</v>
+        <v>197</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K133" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
       <c r="L133" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7">
         <v>0</v>
       </c>
-      <c r="S133" s="7"/>
+      <c r="S133" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="V133" s="7"/>
@@ -10843,7 +10892,7 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="8" t="s">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="AA133" s="7" t="s">
         <v>41</v>
@@ -10857,7 +10906,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>2025080425</v>
+        <v>2025080447</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -10866,19 +10915,19 @@
         <v>29</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -10886,10 +10935,10 @@
         <v>79</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>40</v>
@@ -10923,7 +10972,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="7">
-        <v>2025080426</v>
+        <v>2025081016</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
@@ -10932,19 +10981,19 @@
         <v>29</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -10952,10 +11001,10 @@
         <v>79</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O135" s="7" t="s">
         <v>40</v>
@@ -10980,14 +11029,16 @@
       <c r="AA135" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB135" s="7"/>
+      <c r="AB135" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="3">
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>2025080367</v>
+        <v>2025081108</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -10996,19 +11047,19 @@
         <v>29</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>149</v>
+        <v>419</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>77</v>
@@ -11020,10 +11071,10 @@
         <v>79</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>70</v>
@@ -11031,7 +11082,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
@@ -11041,19 +11092,21 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="6" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AA136" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB136" s="3"/>
+      <c r="AB136" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="7">
         <v>135</v>
       </c>
       <c r="B137" s="7">
-        <v>2025081464</v>
+        <v>2025080035</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
@@ -11062,42 +11115,44 @@
         <v>29</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+        <v>425</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L137" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="7">
         <v>0</v>
       </c>
-      <c r="S137" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
       <c r="V137" s="7"/>
@@ -11105,7 +11160,7 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="8" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="AA137" s="7" t="s">
         <v>41</v>
@@ -11119,7 +11174,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>2025081304</v>
+        <v>2025080425</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -11128,44 +11183,42 @@
         <v>29</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>417</v>
+        <v>116</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
       <c r="L138" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="3">
         <v>0</v>
       </c>
-      <c r="S138" s="3"/>
+      <c r="S138" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
@@ -11173,19 +11226,21 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="6" t="s">
-        <v>421</v>
+        <v>89</v>
       </c>
       <c r="AA138" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB138" s="3"/>
+      <c r="AB138" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:28">
       <c r="A139" s="7">
         <v>137</v>
       </c>
       <c r="B139" s="7">
-        <v>2025081467</v>
+        <v>2025080426</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
@@ -11194,19 +11249,19 @@
         <v>29</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>422</v>
+        <v>248</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -11214,10 +11269,10 @@
         <v>79</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="O139" s="7" t="s">
         <v>40</v>
@@ -11242,16 +11297,14 @@
       <c r="AA139" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB139" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB139" s="7"/>
     </row>
     <row r="140" spans="1:28">
       <c r="A140" s="3">
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>2025080889</v>
+        <v>2025080367</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -11260,19 +11313,19 @@
         <v>29</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>426</v>
+        <v>116</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>427</v>
+        <v>160</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>77</v>
@@ -11284,10 +11337,10 @@
         <v>79</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>70</v>
@@ -11305,21 +11358,19 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA140" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB140" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB140" s="3"/>
     </row>
     <row r="141" spans="1:28">
       <c r="A141" s="7">
         <v>139</v>
       </c>
       <c r="B141" s="7">
-        <v>2025081062</v>
+        <v>2025081304</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -11328,42 +11379,44 @@
         <v>29</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>432</v>
+        <v>268</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
+        <v>435</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L141" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
       <c r="R141" s="7">
         <v>0</v>
       </c>
-      <c r="S141" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S141" s="7"/>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
       <c r="V141" s="7"/>
@@ -11371,19 +11424,21 @@
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="8" t="s">
-        <v>89</v>
+        <v>438</v>
       </c>
       <c r="AA141" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB141" s="7"/>
+      <c r="AB141" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:28">
       <c r="A142" s="3">
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>2025080521</v>
+        <v>2025081464</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -11392,13 +11447,13 @@
         <v>29</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>434</v>
@@ -11406,12 +11461,8 @@
       <c r="I142" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J142" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
       <c r="L142" s="6" t="s">
         <v>79</v>
       </c>
@@ -11422,14 +11473,16 @@
         <v>437</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3">
         <v>0</v>
       </c>
-      <c r="S142" s="3"/>
+      <c r="S142" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
@@ -11437,21 +11490,19 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="6" t="s">
-        <v>438</v>
+        <v>89</v>
       </c>
       <c r="AA142" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB142" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB142" s="3"/>
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="7">
         <v>141</v>
       </c>
       <c r="B143" s="7">
-        <v>2025080527</v>
+        <v>2025081467</v>
       </c>
       <c r="C143" s="7">
         <v>1</v>
@@ -11460,44 +11511,42 @@
         <v>29</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K143" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
       <c r="L143" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
       <c r="R143" s="7">
         <v>0</v>
       </c>
-      <c r="S143" s="7"/>
+      <c r="S143" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
       <c r="V143" s="7"/>
@@ -11505,19 +11554,21 @@
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
       <c r="Z143" s="8" t="s">
-        <v>438</v>
+        <v>89</v>
       </c>
       <c r="AA143" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB143" s="7"/>
+      <c r="AB143" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:28">
       <c r="A144" s="3">
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>2025080636</v>
+        <v>2025080889</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -11526,42 +11577,44 @@
         <v>29</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
+        <v>445</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L144" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="3">
         <v>0</v>
       </c>
-      <c r="S144" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S144" s="3"/>
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
@@ -11569,19 +11622,21 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="6" t="s">
-        <v>89</v>
+        <v>448</v>
       </c>
       <c r="AA144" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB144" s="3"/>
+      <c r="AB144" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:28">
       <c r="A145" s="7">
         <v>143</v>
       </c>
       <c r="B145" s="7">
-        <v>2025081053</v>
+        <v>2025081062</v>
       </c>
       <c r="C145" s="7">
         <v>1</v>
@@ -11590,19 +11645,19 @@
         <v>29</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -11610,10 +11665,10 @@
         <v>79</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O145" s="7" t="s">
         <v>40</v>
@@ -11623,31 +11678,29 @@
       <c r="R145" s="7">
         <v>0</v>
       </c>
-      <c r="S145" s="7"/>
+      <c r="S145" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
       <c r="V145" s="7"/>
       <c r="W145" s="7"/>
       <c r="X145" s="7"/>
-      <c r="Y145" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y145" s="7"/>
       <c r="Z145" s="8" t="s">
-        <v>445</v>
+        <v>89</v>
       </c>
       <c r="AA145" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB145" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB145" s="7"/>
     </row>
     <row r="146" spans="1:28">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>2025080946</v>
+        <v>2025080521</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -11656,19 +11709,19 @@
         <v>29</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>77</v>
@@ -11680,10 +11733,10 @@
         <v>79</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>70</v>
@@ -11701,45 +11754,309 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="6" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AA146" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB146" s="3"/>
+      <c r="AB146" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:28">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="9"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
-      <c r="T147" s="9"/>
-      <c r="U147" s="9"/>
-      <c r="V147" s="9"/>
-      <c r="W147" s="9"/>
-      <c r="X147" s="9"/>
-      <c r="Y147" s="9"/>
-      <c r="Z147" s="10"/>
-      <c r="AA147" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB147" s="9">
-        <v>76</v>
+      <c r="A147" s="7">
+        <v>145</v>
+      </c>
+      <c r="B147" s="7">
+        <v>2025080527</v>
+      </c>
+      <c r="C147" s="7">
+        <v>1</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="N147" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="O147" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7">
+        <v>0</v>
+      </c>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA147" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB147" s="7"/>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>2025080636</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3">
+        <v>0</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB148" s="3"/>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" s="7">
+        <v>147</v>
+      </c>
+      <c r="B149" s="7">
+        <v>2025081053</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="N149" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="O149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7">
+        <v>0</v>
+      </c>
+      <c r="S149" s="7"/>
+      <c r="T149" s="7"/>
+      <c r="U149" s="7"/>
+      <c r="V149" s="7"/>
+      <c r="W149" s="7"/>
+      <c r="X149" s="7"/>
+      <c r="Y149" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z149" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA149" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2025080946</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3">
+        <v>0</v>
+      </c>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA150" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB150" s="3"/>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="9"/>
+      <c r="T151" s="9"/>
+      <c r="U151" s="9"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="9"/>
+      <c r="X151" s="9"/>
+      <c r="Y151" s="9"/>
+      <c r="Z151" s="10"/>
+      <c r="AA151" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB151" s="9">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$162</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -576,6 +576,24 @@
     <t>三重仁義店</t>
   </si>
   <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>12:14:00</t>
+  </si>
+  <si>
+    <t>THILF04259</t>
+  </si>
+  <si>
+    <t>新北市八里區中山路1段125、127號1樓</t>
+  </si>
+  <si>
+    <t>八里水灣店</t>
+  </si>
+  <si>
+    <t>至現場更新到Firmware8 4，比且中斷中華電信數據機測試4G的使用，可正常使用連線</t>
+  </si>
+  <si>
     <t>10:19:00</t>
   </si>
   <si>
@@ -712,6 +730,14 @@
   </si>
   <si>
     <t>三重維德店</t>
+  </si>
+  <si>
+    <t>11:58:00</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119008137
+換上8119012490</t>
   </si>
   <si>
     <t>11:56:00</t>
@@ -722,14 +748,6 @@
 換上8119012493</t>
   </si>
   <si>
-    <t>11:58:00</t>
-  </si>
-  <si>
-    <t>更換掃描槍
-換下8119008137
-換上8119012490</t>
-  </si>
-  <si>
     <t>16:22:00</t>
   </si>
   <si>
@@ -784,6 +802,21 @@
     <t>pm</t>
   </si>
   <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>T251000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沛盈實業有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路665號9樓</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
     <t>T251000056</t>
   </si>
   <si>
@@ -796,15 +829,9 @@
     <t>奧爾資訊多媒體</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>08:30:00</t>
   </si>
   <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
     <t>T251000065</t>
   </si>
   <si>
@@ -860,6 +887,18 @@
   </si>
   <si>
     <t>請客戶另存新檔 重新列印 目前正常 觀察中</t>
+  </si>
+  <si>
+    <t>T252000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仲誠不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路3段110號</t>
+  </si>
+  <si>
+    <t>三重</t>
   </si>
   <si>
     <t>12:00:00</t>
@@ -995,6 +1034,15 @@
     <t>4F</t>
   </si>
   <si>
+    <t>T302800012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捷旺宅不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區捷運路32號</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -1025,9 +1073,6 @@
     <t>新北市三重區正義北路218號(三重分校)</t>
   </si>
   <si>
-    <t>三重</t>
-  </si>
-  <si>
     <t>16:30:00</t>
   </si>
   <si>
@@ -1289,6 +1334,18 @@
     <t>北縣莊玲店</t>
   </si>
   <si>
+    <t>12:50:00</t>
+  </si>
+  <si>
+    <t>THILF03652</t>
+  </si>
+  <si>
+    <t>新北市新莊區民樂街80、82號一樓</t>
+  </si>
+  <si>
+    <t>北縣莊民店</t>
+  </si>
+  <si>
     <t>THILF04025</t>
   </si>
   <si>
@@ -1331,7 +1388,16 @@
     <t>客戶取消</t>
   </si>
   <si>
-    <t>12:50:00</t>
+    <t>13:10:00</t>
+  </si>
+  <si>
+    <t>THILF05057</t>
+  </si>
+  <si>
+    <t>新北市新莊區中港路84號1樓</t>
+  </si>
+  <si>
+    <t>新莊中港店</t>
   </si>
   <si>
     <t>THILF0D148</t>
@@ -1378,6 +1444,36 @@
 換下 81Z1001049</t>
   </si>
   <si>
+    <t>12:15:00</t>
+  </si>
+  <si>
+    <t>THILF03962</t>
+  </si>
+  <si>
+    <t>新北市板橋區仁化街186號一樓全部</t>
+  </si>
+  <si>
+    <t>板橋仁化店</t>
+  </si>
+  <si>
+    <t>11:35:00</t>
+  </si>
+  <si>
+    <t>11:55:00</t>
+  </si>
+  <si>
+    <t>THILF03965</t>
+  </si>
+  <si>
+    <t>新北市板橋區民治街57巷2號、59號</t>
+  </si>
+  <si>
+    <t>板橋民治店</t>
+  </si>
+  <si>
+    <t>PMQ3 螢幕線路重置</t>
+  </si>
+  <si>
     <t>13:05:00</t>
   </si>
   <si>
@@ -1430,9 +1526,6 @@
   <si>
     <t>錢箱線路換接至TCX800
 測試正常</t>
-  </si>
-  <si>
-    <t>12:14:00</t>
   </si>
   <si>
     <t>14:23:00</t>
@@ -1873,10 +1966,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4050,7 +4143,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025080142</v>
+        <v>2025081491</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -4062,10 +4155,10 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>175</v>
@@ -4118,7 +4211,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025081296</v>
+        <v>2025080142</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -4130,19 +4223,19 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>180</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>78</v>
@@ -4151,10 +4244,10 @@
         <v>79</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>70</v>
@@ -4172,7 +4265,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
@@ -4186,7 +4279,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025081195</v>
+        <v>2025081296</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -4201,16 +4294,16 @@
         <v>99</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>187</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>78</v>
@@ -4254,7 +4347,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025081374</v>
+        <v>2025081195</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -4269,36 +4362,38 @@
         <v>99</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L36" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
         <v>0</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -4306,19 +4401,21 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="3"/>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025080098</v>
+        <v>2025081374</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -4330,16 +4427,16 @@
         <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -4347,10 +4444,10 @@
         <v>79</v>
       </c>
       <c r="M37" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>40</v>
@@ -4375,16 +4472,14 @@
       <c r="AA37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025080953</v>
+        <v>2025080098</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4396,41 +4491,39 @@
         <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
         <v>0</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4438,7 +4531,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -4452,7 +4545,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025081415</v>
+        <v>2025080953</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4464,7 +4557,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>203</v>
@@ -4473,7 +4566,7 @@
         <v>204</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>77</v>
@@ -4485,10 +4578,10 @@
         <v>79</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>70</v>
@@ -4506,7 +4599,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -4520,7 +4613,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025081193</v>
+        <v>2025081415</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4532,39 +4625,41 @@
         <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L40" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
         <v>0</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4572,7 +4667,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
@@ -4586,7 +4681,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025081196</v>
+        <v>2025081193</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4601,13 +4696,13 @@
         <v>83</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -4615,10 +4710,10 @@
         <v>79</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
@@ -4643,14 +4738,16 @@
       <c r="AA41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB41" s="7"/>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025081194</v>
+        <v>2025081196</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4665,13 +4762,13 @@
         <v>83</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -4679,10 +4776,10 @@
         <v>79</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
@@ -4707,16 +4804,14 @@
       <c r="AA42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB42" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025080131</v>
+        <v>2025081194</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4728,16 +4823,16 @@
         <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -4745,10 +4840,10 @@
         <v>79</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
@@ -4782,7 +4877,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025080362</v>
+        <v>2025080131</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4794,41 +4889,39 @@
         <v>30</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4836,7 +4929,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
@@ -4868,10 +4961,10 @@
         <v>108</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>77</v>
@@ -4883,10 +4976,10 @@
         <v>79</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>70</v>
@@ -4904,19 +4997,21 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB45" s="7"/>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025081518</v>
+        <v>2025080362</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4928,39 +5023,41 @@
         <v>30</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L46" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4968,21 +5065,19 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025081485</v>
+        <v>2025081518</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4997,13 +5092,13 @@
         <v>107</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -5011,10 +5106,10 @@
         <v>79</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
@@ -5048,7 +5143,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025080617</v>
+        <v>2025081485</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -5057,13 +5152,13 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>234</v>
@@ -5071,42 +5166,36 @@
       <c r="I48" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="6" t="s">
+      <c r="N48" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3">
-        <v>10117</v>
-      </c>
+      <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>69822</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -5120,7 +5209,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025081327</v>
+        <v>2025080617</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -5129,56 +5218,56 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7">
-        <v>10738</v>
+        <v>10117</v>
       </c>
       <c r="R49" s="7">
-        <v>73666</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>69822</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
+      <c r="Y49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z49" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
@@ -5192,7 +5281,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025081328</v>
+        <v>2025081327</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -5201,7 +5290,7 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>99</v>
@@ -5213,25 +5302,25 @@
         <v>160</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3">
@@ -5240,7 +5329,9 @@
       <c r="R50" s="3">
         <v>73666</v>
       </c>
-      <c r="S50" s="3"/>
+      <c r="S50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -5248,19 +5339,21 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB50" s="3"/>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025081376</v>
+        <v>2025081328</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -5269,22 +5362,22 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
@@ -5303,10 +5396,10 @@
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7">
-        <v>15935</v>
+        <v>10738</v>
       </c>
       <c r="R51" s="7">
-        <v>140016</v>
+        <v>73666</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -5316,21 +5409,19 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025081375</v>
+        <v>2025081550</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -5339,44 +5430,42 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>245</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N52" s="6"/>
       <c r="O52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3">
-        <v>15935</v>
+        <v>2050</v>
       </c>
       <c r="R52" s="3">
-        <v>140016</v>
+        <v>41000</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>41</v>
@@ -5388,19 +5477,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025081290</v>
+        <v>2025081551</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5409,22 +5500,22 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>249</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
@@ -5435,22 +5526,18 @@
       <c r="M53" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="N53" s="8"/>
       <c r="O53" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7">
-        <v>26639</v>
+        <v>2050</v>
       </c>
       <c r="R53" s="7">
-        <v>44110</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>41000</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5458,9 +5545,11 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA53" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
@@ -5468,7 +5557,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025081291</v>
+        <v>2025081375</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5477,46 +5566,48 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <v>26639</v>
+        <v>15935</v>
       </c>
       <c r="R54" s="3">
-        <v>44110</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>140016</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5524,19 +5615,21 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB54" s="3"/>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025081134</v>
+        <v>2025081376</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5545,44 +5638,44 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="J55" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="N55" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N55" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="O55" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7">
-        <v>27842</v>
+        <v>15935</v>
       </c>
       <c r="R55" s="7">
-        <v>23949</v>
+        <v>140016</v>
       </c>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -5592,21 +5685,19 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025081332</v>
+        <v>2025081290</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5615,46 +5706,44 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P56" s="3">
-        <v>6341</v>
-      </c>
+      <c r="P56" s="3"/>
       <c r="Q56" s="3">
-        <v>15083</v>
+        <v>26639</v>
       </c>
       <c r="R56" s="3">
-        <v>18344</v>
+        <v>44110</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>41</v>
@@ -5666,21 +5755,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025081333</v>
+        <v>2025081291</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5689,46 +5774,44 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P57" s="7">
-        <v>6341</v>
-      </c>
+      <c r="P57" s="7"/>
       <c r="Q57" s="7">
-        <v>15083</v>
+        <v>26639</v>
       </c>
       <c r="R57" s="7">
-        <v>18344</v>
+        <v>44110</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5738,7 +5821,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
@@ -5750,7 +5833,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025081032</v>
+        <v>2025081134</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5759,28 +5842,28 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>265</v>
@@ -5791,14 +5874,12 @@
       <c r="O58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P58" s="3">
-        <v>1696</v>
-      </c>
+      <c r="P58" s="3"/>
       <c r="Q58" s="3">
-        <v>2263</v>
+        <v>27842</v>
       </c>
       <c r="R58" s="3">
-        <v>5390</v>
+        <v>23949</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -5822,7 +5903,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025081330</v>
+        <v>2025081332</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5831,46 +5912,46 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P59" s="7">
-        <v>1749</v>
+        <v>6341</v>
       </c>
       <c r="Q59" s="7">
-        <v>2376</v>
+        <v>15083</v>
       </c>
       <c r="R59" s="7">
-        <v>6220</v>
+        <v>18344</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>41</v>
@@ -5882,7 +5963,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>41</v>
@@ -5896,7 +5977,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025081331</v>
+        <v>2025081333</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5905,46 +5986,46 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P60" s="3">
-        <v>1749</v>
+        <v>6341</v>
       </c>
       <c r="Q60" s="3">
-        <v>2376</v>
+        <v>15083</v>
       </c>
       <c r="R60" s="3">
-        <v>6220</v>
+        <v>18344</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -5954,7 +6035,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
@@ -5966,7 +6047,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025081334</v>
+        <v>2025081032</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5975,50 +6056,48 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="I61" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P61" s="7">
-        <v>81</v>
+        <v>1696</v>
       </c>
       <c r="Q61" s="7">
-        <v>766</v>
+        <v>2263</v>
       </c>
       <c r="R61" s="7">
-        <v>2474</v>
-      </c>
-      <c r="S61" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>5390</v>
+      </c>
+      <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -6026,7 +6105,7 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
@@ -6040,7 +6119,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025081335</v>
+        <v>2025081330</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -6049,48 +6128,50 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3">
-        <v>81</v>
+        <v>1749</v>
       </c>
       <c r="Q62" s="3">
-        <v>766</v>
+        <v>2376</v>
       </c>
       <c r="R62" s="3">
-        <v>2474</v>
-      </c>
-      <c r="S62" s="3"/>
+        <v>6220</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -6098,19 +6179,21 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB62" s="3"/>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025080644</v>
+        <v>2025081331</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -6119,48 +6202,48 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>273</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M63" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="N63" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="N63" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P63" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P63" s="7">
+        <v>1749</v>
+      </c>
       <c r="Q63" s="7">
-        <v>338</v>
+        <v>2376</v>
       </c>
       <c r="R63" s="7">
-        <v>21935</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>6220</v>
+      </c>
+      <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -6168,9 +6251,11 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA63" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -6178,7 +6263,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025080645</v>
+        <v>2025081560</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -6187,46 +6272,48 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3">
-        <v>338</v>
+        <v>700</v>
       </c>
       <c r="R64" s="3">
-        <v>21935</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>10500</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -6234,19 +6321,21 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB64" s="3"/>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025080704</v>
+        <v>2025081561</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -6255,46 +6344,46 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>278</v>
+        <v>151</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
+      <c r="Q65" s="7">
+        <v>700</v>
+      </c>
       <c r="R65" s="7">
-        <v>7108</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>10500</v>
+      </c>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -6302,9 +6391,11 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA65" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
@@ -6312,7 +6403,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025080705</v>
+        <v>2025081334</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -6321,44 +6412,50 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P66" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>766</v>
+      </c>
       <c r="R66" s="3">
-        <v>7108</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>2474</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -6366,19 +6463,21 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3"/>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025081092</v>
+        <v>2025081335</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -6387,46 +6486,48 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P67" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>766</v>
+      </c>
       <c r="R67" s="7">
-        <v>395025</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>2474</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -6434,21 +6535,19 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025081093</v>
+        <v>2025080644</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6457,44 +6556,48 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="Q68" s="3">
+        <v>338</v>
+      </c>
       <c r="R68" s="3">
-        <v>395025</v>
-      </c>
-      <c r="S68" s="3"/>
+        <v>21935</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -6502,11 +6605,9 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
@@ -6514,7 +6615,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025080586</v>
+        <v>2025080645</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6523,42 +6624,44 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
+      <c r="Q69" s="7">
+        <v>338</v>
+      </c>
       <c r="R69" s="7">
-        <v>163873</v>
+        <v>21935</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -6568,21 +6671,19 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025081100</v>
+        <v>2025080704</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6591,19 +6692,19 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>35</v>
@@ -6612,13 +6713,13 @@
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>40</v>
@@ -6626,7 +6727,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>164338</v>
+        <v>7108</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>41</v>
@@ -6638,21 +6739,17 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>1</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025081101</v>
+        <v>2025080705</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6661,19 +6758,19 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>35</v>
@@ -6682,13 +6779,13 @@
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>43</v>
@@ -6696,7 +6793,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>164338</v>
+        <v>7108</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -6706,7 +6803,7 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
@@ -6718,7 +6815,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025081362</v>
+        <v>2025081092</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6727,19 +6824,19 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>35</v>
@@ -6748,13 +6845,13 @@
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>40</v>
@@ -6762,7 +6859,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>213124</v>
+        <v>395025</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>41</v>
@@ -6774,17 +6871,21 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025081363</v>
+        <v>2025081093</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6793,19 +6894,19 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>35</v>
@@ -6814,13 +6915,13 @@
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>43</v>
@@ -6828,7 +6929,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>213124</v>
+        <v>395025</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -6838,7 +6939,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
@@ -6850,7 +6951,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025081427</v>
+        <v>2025080586</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6859,19 +6960,19 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>35</v>
@@ -6880,35 +6981,31 @@
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>213124</v>
+        <v>163873</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="Y74" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
@@ -6922,7 +7019,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025080852</v>
+        <v>2025081100</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6931,19 +7028,19 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>35</v>
@@ -6952,13 +7049,13 @@
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>40</v>
@@ -6966,7 +7063,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>46640</v>
+        <v>164338</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>41</v>
@@ -6978,7 +7075,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
@@ -6992,7 +7089,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025080853</v>
+        <v>2025081101</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -7001,19 +7098,19 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>35</v>
@@ -7022,13 +7119,13 @@
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>43</v>
@@ -7036,7 +7133,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>46640</v>
+        <v>164338</v>
       </c>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
@@ -7046,7 +7143,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>41</v>
@@ -7058,7 +7155,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025080850</v>
+        <v>2025081362</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -7067,19 +7164,19 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>35</v>
@@ -7088,13 +7185,13 @@
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>40</v>
@@ -7102,7 +7199,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>76522</v>
+        <v>213124</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>41</v>
@@ -7114,21 +7211,17 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA77" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB77" s="7">
-        <v>1</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025080851</v>
+        <v>2025081363</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -7137,19 +7230,19 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>35</v>
@@ -7158,13 +7251,13 @@
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>43</v>
@@ -7172,7 +7265,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>76522</v>
+        <v>213124</v>
       </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
@@ -7182,7 +7275,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AA78" s="3" t="s">
         <v>41</v>
@@ -7194,7 +7287,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025080858</v>
+        <v>2025081427</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -7203,34 +7296,34 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>40</v>
@@ -7238,19 +7331,21 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>146880</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>213124</v>
+      </c>
+      <c r="S79" s="7"/>
       <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
+      <c r="U79" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
+      <c r="Y79" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z79" s="8" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
@@ -7264,7 +7359,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025080859</v>
+        <v>2025080852</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -7273,44 +7368,46 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>146880</v>
-      </c>
-      <c r="S80" s="3"/>
+        <v>46640</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
@@ -7318,19 +7415,21 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB80" s="3"/>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025080863</v>
+        <v>2025080853</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -7339,46 +7438,44 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>311</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>131744</v>
-      </c>
-      <c r="S81" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>46640</v>
+      </c>
+      <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -7386,21 +7483,19 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA81" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB81" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025080864</v>
+        <v>2025080850</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7409,44 +7504,46 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>131744</v>
-      </c>
-      <c r="S82" s="3"/>
+        <v>76522</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -7454,19 +7551,21 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB82" s="3"/>
+      <c r="AB82" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025080129</v>
+        <v>2025080851</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7475,46 +7574,44 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>253107</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>76522</v>
+      </c>
+      <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -7522,9 +7619,11 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA83" s="7"/>
+        <v>290</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
@@ -7532,7 +7631,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025080130</v>
+        <v>2025080858</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7541,19 +7640,19 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>48</v>
@@ -7562,23 +7661,25 @@
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>253107</v>
-      </c>
-      <c r="S84" s="3"/>
+        <v>146880</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7586,19 +7687,21 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="3"/>
+      <c r="AB84" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025080135</v>
+        <v>2025080859</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7607,19 +7710,19 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>48</v>
@@ -7628,13 +7731,13 @@
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>43</v>
@@ -7642,7 +7745,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>199706</v>
+        <v>146880</v>
       </c>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
@@ -7652,21 +7755,19 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025080134</v>
+        <v>2025080863</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7675,19 +7776,19 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>48</v>
@@ -7696,13 +7797,13 @@
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>40</v>
@@ -7710,7 +7811,7 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>199706</v>
+        <v>131744</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>41</v>
@@ -7722,17 +7823,21 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025080589</v>
+        <v>2025080864</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7741,19 +7846,19 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>48</v>
@@ -7762,21 +7867,21 @@
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>199706</v>
+        <v>131744</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -7784,25 +7889,21 @@
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
-      <c r="Y87" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB87" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025080848</v>
+        <v>2025081552</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7811,19 +7912,19 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>48</v>
@@ -7832,21 +7933,19 @@
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="N88" s="6" t="s">
-        <v>322</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N88" s="6"/>
       <c r="O88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>2363</v>
+        <v>46000</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>41</v>
@@ -7858,7 +7957,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
@@ -7872,7 +7971,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025080849</v>
+        <v>2025081553</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7881,19 +7980,19 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>48</v>
@@ -7902,21 +8001,19 @@
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="N89" s="8" t="s">
-        <v>322</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N89" s="8"/>
       <c r="O89" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>2363</v>
+        <v>46000</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -7926,7 +8023,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>41</v>
@@ -7938,7 +8035,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025080415</v>
+        <v>2025080129</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7947,44 +8044,46 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>330</v>
-      </c>
-      <c r="S90" s="3"/>
+        <v>253107</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7992,21 +8091,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA90" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB90" s="3">
-        <v>1</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025080615</v>
+        <v>2025080130</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -8015,42 +8110,42 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>330</v>
+        <v>253107</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8060,21 +8155,19 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB91" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB91" s="7"/>
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025080775</v>
+        <v>2025080134</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -8083,46 +8176,46 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3">
-        <v>1595</v>
-      </c>
+      <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>27090</v>
-      </c>
-      <c r="S92" s="3"/>
+        <v>199706</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -8130,21 +8223,17 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA92" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB92" s="3">
-        <v>1</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025080990</v>
+        <v>2025080135</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -8153,44 +8242,42 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P93" s="7"/>
-      <c r="Q93" s="7">
-        <v>1595</v>
-      </c>
+      <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>27090</v>
+        <v>199706</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -8198,25 +8285,21 @@
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
-      <c r="Y93" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB93" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025081440</v>
+        <v>2025080589</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -8225,44 +8308,42 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>336</v>
+        <v>116</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3">
-        <v>984</v>
-      </c>
+      <c r="Q94" s="3"/>
       <c r="R94" s="3">
-        <v>8649</v>
+        <v>199706</v>
       </c>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
@@ -8270,9 +8351,11 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
+      <c r="Y94" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z94" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>41</v>
@@ -8286,7 +8369,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025080696</v>
+        <v>2025080848</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -8295,46 +8378,46 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P95" s="7"/>
-      <c r="Q95" s="7">
-        <v>6663</v>
-      </c>
+      <c r="Q95" s="7"/>
       <c r="R95" s="7">
-        <v>11174</v>
-      </c>
-      <c r="S95" s="7"/>
+        <v>2363</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -8342,7 +8425,7 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>41</v>
@@ -8356,7 +8439,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025080143</v>
+        <v>2025080849</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -8365,46 +8448,44 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
-        <v>287428</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>2363</v>
+      </c>
+      <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -8412,9 +8493,11 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA96" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB96" s="3"/>
     </row>
     <row r="97" spans="1:28">
@@ -8422,7 +8505,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025080144</v>
+        <v>2025080415</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8431,42 +8514,42 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>287428</v>
+        <v>330</v>
       </c>
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
@@ -8476,19 +8559,21 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB97" s="7"/>
+      <c r="AB97" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025080132</v>
+        <v>2025080615</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8497,46 +8582,44 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>116181</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -8544,17 +8627,21 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="7">
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025080133</v>
+        <v>2025080775</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8563,42 +8650,44 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
+      <c r="Q99" s="7">
+        <v>1595</v>
+      </c>
       <c r="R99" s="7">
-        <v>116181</v>
+        <v>27090</v>
       </c>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
@@ -8608,19 +8697,21 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="AA99" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB99" s="7"/>
+      <c r="AB99" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025081294</v>
+        <v>2025080990</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8629,64 +8720,70 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
+      <c r="Q100" s="3">
+        <v>1595</v>
+      </c>
       <c r="R100" s="3">
-        <v>115901</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>27090</v>
+      </c>
+      <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
+      <c r="Y100" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z100" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025081295</v>
+        <v>2025081440</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8695,42 +8792,44 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="N101" s="8" t="s">
         <v>354</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
+      <c r="Q101" s="7">
+        <v>984</v>
+      </c>
       <c r="R101" s="7">
-        <v>115901</v>
+        <v>8649</v>
       </c>
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
@@ -8740,19 +8839,21 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>241</v>
+        <v>355</v>
       </c>
       <c r="AA101" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB101" s="7"/>
+      <c r="AB101" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025081104</v>
+        <v>2025080696</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8761,46 +8862,46 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
+      <c r="Q102" s="3">
+        <v>6663</v>
+      </c>
       <c r="R102" s="3">
-        <v>11452</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11174</v>
+      </c>
+      <c r="S102" s="3"/>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
@@ -8808,7 +8909,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>41</v>
@@ -8822,7 +8923,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025081105</v>
+        <v>2025080143</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8831,19 +8932,19 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G103" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="I103" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>66</v>
@@ -8852,23 +8953,25 @@
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>11452</v>
-      </c>
-      <c r="S103" s="7"/>
+        <v>287428</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
@@ -8876,11 +8979,9 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA103" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA103" s="7"/>
       <c r="AB103" s="7"/>
     </row>
     <row r="104" spans="1:28">
@@ -8888,7 +8989,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025081094</v>
+        <v>2025080144</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8897,19 +8998,19 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>66</v>
@@ -8918,25 +9019,23 @@
         <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
-        <v>147602</v>
-      </c>
-      <c r="S104" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>287428</v>
+      </c>
+      <c r="S104" s="3"/>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -8944,21 +9043,19 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB104" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB104" s="3"/>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="7">
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025081095</v>
+        <v>2025080133</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8967,19 +9064,19 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>66</v>
@@ -8988,13 +9085,13 @@
         <v>36</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O105" s="7" t="s">
         <v>43</v>
@@ -9002,7 +9099,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>147602</v>
+        <v>116181</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
@@ -9012,19 +9109,21 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA105" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB105" s="7"/>
+      <c r="AB105" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025081098</v>
+        <v>2025080132</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -9033,19 +9132,19 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>66</v>
@@ -9054,13 +9153,13 @@
         <v>36</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>40</v>
@@ -9068,7 +9167,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
-        <v>259807</v>
+        <v>116181</v>
       </c>
       <c r="S106" s="3" t="s">
         <v>41</v>
@@ -9080,21 +9179,17 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA106" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB106" s="3">
-        <v>1</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025081099</v>
+        <v>2025081294</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -9103,19 +9198,19 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>66</v>
@@ -9124,23 +9219,25 @@
         <v>36</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>259807</v>
-      </c>
-      <c r="S107" s="7"/>
+        <v>115901</v>
+      </c>
+      <c r="S107" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -9148,11 +9245,9 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA107" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
     </row>
     <row r="108" spans="1:28">
@@ -9160,7 +9255,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025081102</v>
+        <v>2025081295</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -9169,19 +9264,19 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>66</v>
@@ -9190,25 +9285,23 @@
         <v>36</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
-        <v>127215</v>
-      </c>
-      <c r="S108" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>115901</v>
+      </c>
+      <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -9216,21 +9309,19 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AA108" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB108" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB108" s="3"/>
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025081103</v>
+        <v>2025081104</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -9239,19 +9330,19 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>66</v>
@@ -9260,23 +9351,25 @@
         <v>36</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
-        <v>127215</v>
-      </c>
-      <c r="S109" s="7"/>
+        <v>11452</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
@@ -9284,19 +9377,21 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB109" s="7"/>
+      <c r="AB109" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025080027</v>
+        <v>2025081105</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -9305,19 +9400,19 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>66</v>
@@ -9326,25 +9421,23 @@
         <v>36</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
-        <v>180622</v>
-      </c>
-      <c r="S110" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11452</v>
+      </c>
+      <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -9352,9 +9445,11 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA110" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA110" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB110" s="3"/>
     </row>
     <row r="111" spans="1:28">
@@ -9362,7 +9457,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025080028</v>
+        <v>2025081094</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -9371,19 +9466,19 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>66</v>
@@ -9392,23 +9487,25 @@
         <v>36</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7">
-        <v>180622</v>
-      </c>
-      <c r="S111" s="7"/>
+        <v>147602</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
@@ -9416,19 +9513,21 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB111" s="7"/>
+      <c r="AB111" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025080029</v>
+        <v>2025081095</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9437,19 +9536,19 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>160</v>
+        <v>374</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>66</v>
@@ -9458,21 +9557,21 @@
         <v>36</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
-        <v>180622</v>
+        <v>147602</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9482,7 +9581,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>41</v>
@@ -9494,7 +9593,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025080588</v>
+        <v>2025081098</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9503,19 +9602,19 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>66</v>
@@ -9524,13 +9623,13 @@
         <v>36</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="O113" s="7" t="s">
         <v>40</v>
@@ -9538,19 +9637,19 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7">
-        <v>180622</v>
-      </c>
-      <c r="S113" s="7"/>
+        <v>259807</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y113" s="7"/>
       <c r="Z113" s="8" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="AA113" s="7" t="s">
         <v>41</v>
@@ -9564,7 +9663,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>2025080136</v>
+        <v>2025081099</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -9573,19 +9672,19 @@
         <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>66</v>
@@ -9594,25 +9693,23 @@
         <v>36</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
-        <v>342829</v>
-      </c>
-      <c r="S114" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>259807</v>
+      </c>
+      <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -9620,9 +9717,11 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA114" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB114" s="3"/>
     </row>
     <row r="115" spans="1:28">
@@ -9630,7 +9729,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="7">
-        <v>2025080137</v>
+        <v>2025081103</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -9639,19 +9738,19 @@
         <v>29</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>66</v>
@@ -9660,13 +9759,13 @@
         <v>36</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="O115" s="7" t="s">
         <v>43</v>
@@ -9674,7 +9773,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7">
-        <v>342829</v>
+        <v>127215</v>
       </c>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
@@ -9684,19 +9783,21 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA115" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB115" s="7"/>
+      <c r="AB115" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>2025081096</v>
+        <v>2025081102</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -9705,19 +9806,19 @@
         <v>29</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>66</v>
@@ -9726,13 +9827,13 @@
         <v>36</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>40</v>
@@ -9740,7 +9841,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3">
-        <v>199625</v>
+        <v>127215</v>
       </c>
       <c r="S116" s="3" t="s">
         <v>41</v>
@@ -9752,21 +9853,19 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA116" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB116" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB116" s="3"/>
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="7">
         <v>115</v>
       </c>
       <c r="B117" s="7">
-        <v>2025081097</v>
+        <v>2025080027</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -9775,19 +9874,19 @@
         <v>29</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>66</v>
@@ -9796,23 +9895,25 @@
         <v>36</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7">
-        <v>199625</v>
-      </c>
-      <c r="S117" s="7"/>
+        <v>180622</v>
+      </c>
+      <c r="S117" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
       <c r="V117" s="7"/>
@@ -9820,11 +9921,9 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA117" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA117" s="7"/>
       <c r="AB117" s="7"/>
     </row>
     <row r="118" spans="1:28">
@@ -9832,7 +9931,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>2025081358</v>
+        <v>2025080028</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -9841,19 +9940,19 @@
         <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>66</v>
@@ -9862,19 +9961,21 @@
         <v>36</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="N118" s="6"/>
+        <v>385</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="O118" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3">
-        <v>133644</v>
+        <v>180622</v>
       </c>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -9884,21 +9985,19 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="6" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="AA118" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB118" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB118" s="3"/>
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="7">
         <v>117</v>
       </c>
       <c r="B119" s="7">
-        <v>2025081357</v>
+        <v>2025080029</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -9907,19 +10006,19 @@
         <v>29</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>66</v>
@@ -9928,23 +10027,23 @@
         <v>36</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="N119" s="8"/>
+        <v>385</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="O119" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7">
-        <v>133644</v>
-      </c>
-      <c r="S119" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
       <c r="V119" s="7"/>
@@ -9952,7 +10051,7 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="8" t="s">
-        <v>19</v>
+        <v>386</v>
       </c>
       <c r="AA119" s="7" t="s">
         <v>41</v>
@@ -9964,7 +10063,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>2025080856</v>
+        <v>2025080588</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -9973,56 +10072,54 @@
         <v>29</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>383</v>
+        <v>66</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="M120" s="6" t="s">
         <v>385</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P120" s="3"/>
-      <c r="Q120" s="3">
-        <v>1205</v>
-      </c>
+      <c r="Q120" s="3"/>
       <c r="R120" s="3">
-        <v>3849</v>
-      </c>
-      <c r="S120" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>180622</v>
+      </c>
+      <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
+      <c r="Y120" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z120" s="6" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="AA120" s="3" t="s">
         <v>41</v>
@@ -10036,7 +10133,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="7">
-        <v>2025080857</v>
+        <v>2025080136</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -10045,46 +10142,46 @@
         <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>383</v>
+        <v>66</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P121" s="7"/>
-      <c r="Q121" s="7">
-        <v>1205</v>
-      </c>
+      <c r="Q121" s="7"/>
       <c r="R121" s="7">
-        <v>3849</v>
-      </c>
-      <c r="S121" s="7"/>
+        <v>342829</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
@@ -10092,11 +10189,9 @@
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA121" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA121" s="7"/>
       <c r="AB121" s="7"/>
     </row>
     <row r="122" spans="1:28">
@@ -10104,7 +10199,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>2025081132</v>
+        <v>2025080137</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -10113,46 +10208,44 @@
         <v>29</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="M122" s="6" t="s">
         <v>389</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
-        <v>38278</v>
-      </c>
-      <c r="S122" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>342829</v>
+      </c>
+      <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
@@ -10160,9 +10253,11 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA122" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB122" s="3"/>
     </row>
     <row r="123" spans="1:28">
@@ -10170,7 +10265,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="7">
-        <v>2025081133</v>
+        <v>2025081096</v>
       </c>
       <c r="C123" s="7">
         <v>1</v>
@@ -10179,44 +10274,46 @@
         <v>29</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7">
-        <v>38278</v>
-      </c>
-      <c r="S123" s="7"/>
+        <v>199625</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
       <c r="V123" s="7"/>
@@ -10224,19 +10321,21 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="8" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA123" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB123" s="7"/>
+      <c r="AB123" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="3">
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>2025080766</v>
+        <v>2025081097</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -10245,42 +10344,42 @@
         <v>29</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3">
-        <v>86982</v>
+        <v>199625</v>
       </c>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
@@ -10290,21 +10389,19 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="6" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="AA124" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB124" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB124" s="3"/>
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="B125" s="7">
-        <v>2025080989</v>
+        <v>2025081357</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -10313,54 +10410,52 @@
         <v>29</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="N125" s="8" t="s">
-        <v>392</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N125" s="8"/>
       <c r="O125" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7">
-        <v>86982</v>
-      </c>
-      <c r="S125" s="7"/>
+        <v>133644</v>
+      </c>
+      <c r="S125" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y125" s="7"/>
       <c r="Z125" s="8" t="s">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="AA125" s="7" t="s">
         <v>41</v>
@@ -10374,7 +10469,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>2025081292</v>
+        <v>2025081358</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -10383,46 +10478,42 @@
         <v>29</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="N126" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="N126" s="6"/>
       <c r="O126" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
-        <v>3085</v>
-      </c>
-      <c r="S126" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>133644</v>
+      </c>
+      <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
@@ -10430,9 +10521,11 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA126" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="AA126" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB126" s="3"/>
     </row>
     <row r="127" spans="1:28">
@@ -10440,7 +10533,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="7">
-        <v>2025081293</v>
+        <v>2025080856</v>
       </c>
       <c r="C127" s="7">
         <v>1</v>
@@ -10449,44 +10542,48 @@
         <v>29</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>250</v>
+        <v>399</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
+      <c r="Q127" s="7">
+        <v>1205</v>
+      </c>
       <c r="R127" s="7">
-        <v>3085</v>
-      </c>
-      <c r="S127" s="7"/>
+        <v>3849</v>
+      </c>
+      <c r="S127" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
       <c r="V127" s="7"/>
@@ -10494,19 +10591,21 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="8" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="AA127" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB127" s="7"/>
+      <c r="AB127" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="3">
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>2025080642</v>
+        <v>2025080857</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -10515,16 +10614,16 @@
         <v>29</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>397</v>
@@ -10536,25 +10635,25 @@
         <v>36</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
+      <c r="Q128" s="3">
+        <v>1205</v>
+      </c>
       <c r="R128" s="3">
-        <v>31483</v>
-      </c>
-      <c r="S128" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>3849</v>
+      </c>
+      <c r="S128" s="3"/>
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
@@ -10562,9 +10661,11 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA128" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB128" s="3"/>
     </row>
     <row r="129" spans="1:28">
@@ -10572,7 +10673,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="7">
-        <v>2025080643</v>
+        <v>2025081132</v>
       </c>
       <c r="C129" s="7">
         <v>1</v>
@@ -10581,44 +10682,46 @@
         <v>29</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>274</v>
+        <v>403</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7">
-        <v>31483</v>
-      </c>
-      <c r="S129" s="7"/>
+        <v>38278</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
       <c r="V129" s="7"/>
@@ -10626,11 +10729,9 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA129" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA129" s="7"/>
       <c r="AB129" s="7"/>
     </row>
     <row r="130" spans="1:28">
@@ -10638,7 +10739,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>2025081106</v>
+        <v>2025081133</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -10647,46 +10748,44 @@
         <v>29</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="H130" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I130" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>285</v>
+        <v>403</v>
       </c>
       <c r="M130" s="6" t="s">
         <v>404</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="3">
-        <v>25326</v>
-      </c>
-      <c r="S130" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>38278</v>
+      </c>
+      <c r="S130" s="3"/>
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
@@ -10694,21 +10793,19 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AA130" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB130" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB130" s="3"/>
     </row>
     <row r="131" spans="1:28">
       <c r="A131" s="7">
         <v>129</v>
       </c>
       <c r="B131" s="7">
-        <v>2025081107</v>
+        <v>2025080766</v>
       </c>
       <c r="C131" s="7">
         <v>1</v>
@@ -10717,42 +10814,42 @@
         <v>29</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="I131" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J131" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7">
-        <v>25326</v>
+        <v>86982</v>
       </c>
       <c r="S131" s="7"/>
       <c r="T131" s="7"/>
@@ -10762,19 +10859,21 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="8" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="AA131" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB131" s="7"/>
+      <c r="AB131" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:28">
       <c r="A132" s="3">
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>2025081004</v>
+        <v>2025080989</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -10783,30 +10882,34 @@
         <v>29</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="H132" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M132" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="N132" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M132" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="N132" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>40</v>
@@ -10814,19 +10917,19 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="3">
-        <v>0</v>
-      </c>
-      <c r="S132" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>86982</v>
+      </c>
+      <c r="S132" s="3"/>
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
+      <c r="Y132" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z132" s="6" t="s">
-        <v>89</v>
+        <v>409</v>
       </c>
       <c r="AA132" s="3" t="s">
         <v>41</v>
@@ -10840,7 +10943,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="7">
-        <v>2025081012</v>
+        <v>2025081293</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
@@ -10849,42 +10952,44 @@
         <v>29</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="J133" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L133" s="8" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>411</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7">
-        <v>0</v>
-      </c>
-      <c r="S133" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3085</v>
+      </c>
+      <c r="S133" s="7"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="V133" s="7"/>
@@ -10892,7 +10997,7 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="8" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="AA133" s="7" t="s">
         <v>41</v>
@@ -10906,7 +11011,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>2025080447</v>
+        <v>2025081292</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -10915,30 +11020,34 @@
         <v>29</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L134" s="6" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>40</v>
@@ -10946,7 +11055,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
-        <v>0</v>
+        <v>3085</v>
       </c>
       <c r="S134" s="3" t="s">
         <v>41</v>
@@ -10958,21 +11067,17 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA134" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB134" s="3">
-        <v>1</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
     </row>
     <row r="135" spans="1:28">
       <c r="A135" s="7">
         <v>133</v>
       </c>
       <c r="B135" s="7">
-        <v>2025081016</v>
+        <v>2025080642</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
@@ -10981,30 +11086,34 @@
         <v>29</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
+        <v>412</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L135" s="8" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O135" s="7" t="s">
         <v>40</v>
@@ -11012,7 +11121,7 @@
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7">
-        <v>0</v>
+        <v>31483</v>
       </c>
       <c r="S135" s="7" t="s">
         <v>41</v>
@@ -11024,21 +11133,17 @@
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA135" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB135" s="7">
-        <v>1</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AA135" s="7"/>
+      <c r="AB135" s="7"/>
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="3">
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>2025081108</v>
+        <v>2025080643</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -11047,42 +11152,42 @@
         <v>29</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>419</v>
+        <v>285</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="3">
-        <v>9</v>
+        <v>31483</v>
       </c>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
@@ -11092,21 +11197,19 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="6" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="AA136" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB136" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB136" s="3"/>
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="7">
         <v>135</v>
       </c>
       <c r="B137" s="7">
-        <v>2025080035</v>
+        <v>2025081106</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
@@ -11115,44 +11218,46 @@
         <v>29</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="7">
-        <v>0</v>
-      </c>
-      <c r="S137" s="7"/>
+        <v>25326</v>
+      </c>
+      <c r="S137" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
       <c r="V137" s="7"/>
@@ -11160,7 +11265,7 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="8" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="AA137" s="7" t="s">
         <v>41</v>
@@ -11174,7 +11279,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>2025080425</v>
+        <v>2025081107</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -11183,42 +11288,44 @@
         <v>29</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
+        <v>417</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L138" s="6" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="3">
-        <v>0</v>
-      </c>
-      <c r="S138" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>25326</v>
+      </c>
+      <c r="S138" s="3"/>
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
@@ -11226,21 +11333,19 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="6" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="AA138" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB138" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB138" s="3"/>
     </row>
     <row r="139" spans="1:28">
       <c r="A139" s="7">
         <v>137</v>
       </c>
       <c r="B139" s="7">
-        <v>2025080426</v>
+        <v>2025081004</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
@@ -11249,19 +11354,19 @@
         <v>29</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>116</v>
+        <v>421</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -11269,10 +11374,10 @@
         <v>79</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="O139" s="7" t="s">
         <v>40</v>
@@ -11297,14 +11402,16 @@
       <c r="AA139" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB139" s="7"/>
+      <c r="AB139" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:28">
       <c r="A140" s="3">
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>2025080367</v>
+        <v>2025081589</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -11313,44 +11420,42 @@
         <v>29</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>160</v>
+        <v>425</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
       <c r="L140" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="3">
         <v>0</v>
       </c>
-      <c r="S140" s="3"/>
+      <c r="S140" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
@@ -11358,19 +11463,21 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="6" t="s">
-        <v>432</v>
+        <v>89</v>
       </c>
       <c r="AA140" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB140" s="3"/>
+      <c r="AB140" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:28">
       <c r="A141" s="7">
         <v>139</v>
       </c>
       <c r="B141" s="7">
-        <v>2025081304</v>
+        <v>2025081012</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -11379,44 +11486,42 @@
         <v>29</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>434</v>
+        <v>203</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K141" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
       <c r="L141" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
       <c r="R141" s="7">
         <v>0</v>
       </c>
-      <c r="S141" s="7"/>
+      <c r="S141" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
       <c r="V141" s="7"/>
@@ -11424,7 +11529,7 @@
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="8" t="s">
-        <v>438</v>
+        <v>89</v>
       </c>
       <c r="AA141" s="7" t="s">
         <v>41</v>
@@ -11438,7 +11543,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>2025081464</v>
+        <v>2025080447</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -11447,19 +11552,19 @@
         <v>29</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>434</v>
+        <v>75</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -11467,10 +11572,10 @@
         <v>79</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>40</v>
@@ -11495,14 +11600,16 @@
       <c r="AA142" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB142" s="3"/>
+      <c r="AB142" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="7">
         <v>141</v>
       </c>
       <c r="B143" s="7">
-        <v>2025081467</v>
+        <v>2025081016</v>
       </c>
       <c r="C143" s="7">
         <v>1</v>
@@ -11511,19 +11618,19 @@
         <v>29</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -11531,10 +11638,10 @@
         <v>79</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>40</v>
@@ -11568,7 +11675,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>2025080889</v>
+        <v>2025081108</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -11577,19 +11684,19 @@
         <v>29</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>443</v>
+        <v>257</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>77</v>
@@ -11601,10 +11708,10 @@
         <v>79</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>70</v>
@@ -11612,7 +11719,7 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
@@ -11622,7 +11729,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AA144" s="3" t="s">
         <v>41</v>
@@ -11636,7 +11743,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="7">
-        <v>2025081062</v>
+        <v>2025081592</v>
       </c>
       <c r="C145" s="7">
         <v>1</v>
@@ -11645,19 +11752,19 @@
         <v>29</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -11665,10 +11772,10 @@
         <v>79</v>
       </c>
       <c r="M145" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="N145" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="N145" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="O145" s="7" t="s">
         <v>40</v>
@@ -11693,14 +11800,16 @@
       <c r="AA145" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB145" s="7"/>
+      <c r="AB145" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:28">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>2025080521</v>
+        <v>2025080035</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -11709,19 +11818,19 @@
         <v>29</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>77</v>
@@ -11733,10 +11842,10 @@
         <v>79</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>70</v>
@@ -11754,7 +11863,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AA146" s="3" t="s">
         <v>41</v>
@@ -11768,7 +11877,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="7">
-        <v>2025080527</v>
+        <v>2025080425</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
@@ -11777,44 +11886,42 @@
         <v>29</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>456</v>
+        <v>116</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K147" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M147" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="N147" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="N147" s="8" t="s">
-        <v>454</v>
-      </c>
       <c r="O147" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
       <c r="R147" s="7">
         <v>0</v>
       </c>
-      <c r="S147" s="7"/>
+      <c r="S147" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T147" s="7"/>
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
@@ -11822,19 +11929,21 @@
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
       <c r="Z147" s="8" t="s">
-        <v>455</v>
+        <v>89</v>
       </c>
       <c r="AA147" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB147" s="7"/>
+      <c r="AB147" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <v>2025080636</v>
+        <v>2025080426</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -11843,19 +11952,19 @@
         <v>29</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>406</v>
+        <v>116</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -11863,10 +11972,10 @@
         <v>79</v>
       </c>
       <c r="M148" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N148" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="N148" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>40</v>
@@ -11898,7 +12007,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="7">
-        <v>2025081053</v>
+        <v>2025080367</v>
       </c>
       <c r="C149" s="7">
         <v>1</v>
@@ -11907,33 +12016,37 @@
         <v>29</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>458</v>
+        <v>160</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
+        <v>451</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="L149" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M149" s="8" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="N149" s="8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
@@ -11946,25 +12059,21 @@
       <c r="V149" s="7"/>
       <c r="W149" s="7"/>
       <c r="X149" s="7"/>
-      <c r="Y149" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y149" s="7"/>
       <c r="Z149" s="8" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="AA149" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB149" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB149" s="7"/>
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="3">
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <v>2025080946</v>
+        <v>2025081304</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -11973,19 +12082,19 @@
         <v>29</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G150" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>77</v>
@@ -11997,10 +12106,10 @@
         <v>79</v>
       </c>
       <c r="M150" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>70</v>
@@ -12018,45 +12127,771 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA150" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" s="7">
+        <v>149</v>
+      </c>
+      <c r="B151" s="7">
+        <v>2025081464</v>
+      </c>
+      <c r="C151" s="7">
+        <v>1</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="N151" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="O151" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7">
+        <v>0</v>
+      </c>
+      <c r="S151" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T151" s="7"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="7"/>
+      <c r="W151" s="7"/>
+      <c r="X151" s="7"/>
+      <c r="Y151" s="7"/>
+      <c r="Z151" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA151" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB151" s="7"/>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2025081585</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M152" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="AA150" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB150" s="3"/>
-    </row>
-    <row r="151" spans="1:28">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="9"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="9"/>
-      <c r="R151" s="9"/>
-      <c r="S151" s="9"/>
-      <c r="T151" s="9"/>
-      <c r="U151" s="9"/>
-      <c r="V151" s="9"/>
-      <c r="W151" s="9"/>
-      <c r="X151" s="9"/>
-      <c r="Y151" s="9"/>
-      <c r="Z151" s="10"/>
-      <c r="AA151" s="9" t="s">
+      <c r="N152" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AB151" s="9">
-        <v>81</v>
+      <c r="O152" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3">
+        <v>0</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
+      <c r="Z152" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA152" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" s="7">
+        <v>151</v>
+      </c>
+      <c r="B153" s="7">
+        <v>2025081584</v>
+      </c>
+      <c r="C153" s="7">
+        <v>1</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="N153" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="O153" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7">
+        <v>0</v>
+      </c>
+      <c r="S153" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T153" s="7"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="7"/>
+      <c r="Y153" s="7"/>
+      <c r="Z153" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA153" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2025081467</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3">
+        <v>0</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+      <c r="Z154" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA154" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" s="7">
+        <v>153</v>
+      </c>
+      <c r="B155" s="7">
+        <v>2025080889</v>
+      </c>
+      <c r="C155" s="7">
+        <v>1</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M155" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="N155" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="O155" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7">
+        <v>0</v>
+      </c>
+      <c r="S155" s="7"/>
+      <c r="T155" s="7"/>
+      <c r="U155" s="7"/>
+      <c r="V155" s="7"/>
+      <c r="W155" s="7"/>
+      <c r="X155" s="7"/>
+      <c r="Y155" s="7"/>
+      <c r="Z155" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA155" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>2025081062</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M156" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="N156" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3">
+        <v>0</v>
+      </c>
+      <c r="S156" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA156" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB156" s="3"/>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" s="7">
+        <v>155</v>
+      </c>
+      <c r="B157" s="7">
+        <v>2025080521</v>
+      </c>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M157" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="N157" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="O157" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7">
+        <v>0</v>
+      </c>
+      <c r="S157" s="7"/>
+      <c r="T157" s="7"/>
+      <c r="U157" s="7"/>
+      <c r="V157" s="7"/>
+      <c r="W157" s="7"/>
+      <c r="X157" s="7"/>
+      <c r="Y157" s="7"/>
+      <c r="Z157" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA157" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB157" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2025080527</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M158" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3">
+        <v>0</v>
+      </c>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA158" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB158" s="3"/>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" s="7">
+        <v>157</v>
+      </c>
+      <c r="B159" s="7">
+        <v>2025080636</v>
+      </c>
+      <c r="C159" s="7">
+        <v>1</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M159" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="N159" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="O159" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7">
+        <v>0</v>
+      </c>
+      <c r="S159" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA159" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB159" s="7"/>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2025081053</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3">
+        <v>0</v>
+      </c>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z160" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA160" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" s="7">
+        <v>159</v>
+      </c>
+      <c r="B161" s="7">
+        <v>2025080946</v>
+      </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M161" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="O161" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7">
+        <v>0</v>
+      </c>
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="7"/>
+      <c r="V161" s="7"/>
+      <c r="W161" s="7"/>
+      <c r="X161" s="7"/>
+      <c r="Y161" s="7"/>
+      <c r="Z161" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA161" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB161" s="7"/>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="9"/>
+      <c r="T162" s="9"/>
+      <c r="U162" s="9"/>
+      <c r="V162" s="9"/>
+      <c r="W162" s="9"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="9"/>
+      <c r="Z162" s="10"/>
+      <c r="AA162" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB162" s="9">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202508_Service_Count_Report.xlsx
+++ b/IM/202508_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$237</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$238</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
   <si>
     <t>服務次數統計表        篩選月份：202508</t>
   </si>
@@ -532,29 +532,29 @@
     <t>12:30:00</t>
   </si>
   <si>
+    <t>13:28:00</t>
+  </si>
+  <si>
+    <t>THILF02259</t>
+  </si>
+  <si>
+    <t>新北市三重區中華路18號</t>
+  </si>
+  <si>
+    <t>三重興華店</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119011857
+換上8119012492</t>
+  </si>
+  <si>
     <t>13:29:00</t>
-  </si>
-  <si>
-    <t>THILF02259</t>
-  </si>
-  <si>
-    <t>新北市三重區中華路18號</t>
-  </si>
-  <si>
-    <t>三重興華店</t>
   </si>
   <si>
     <t>更換掃描槍
 換下8119011905
 換上8119012491</t>
-  </si>
-  <si>
-    <t>13:28:00</t>
-  </si>
-  <si>
-    <t>更換掃描槍
-換下8119011857
-換上8119012492</t>
   </si>
   <si>
     <t>2025-08-11</t>
@@ -1968,6 +1968,21 @@
     <t>狄澤洋</t>
   </si>
   <si>
+    <t>17:01:00</t>
+  </si>
+  <si>
+    <t>T301800045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台芝國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區光復路一段82之8號8樓</t>
+  </si>
+  <si>
+    <t>A4紙8 15已送達</t>
+  </si>
+  <si>
     <t>17:33:00</t>
   </si>
   <si>
@@ -2006,7 +2021,7 @@
     <t>2025-08-17</t>
   </si>
   <si>
-    <t>15:45:00</t>
+    <t>14:33:00</t>
   </si>
   <si>
     <t>THILF03955</t>
@@ -2016,14 +2031,14 @@
   </si>
   <si>
     <t>板橋海龍店</t>
-  </si>
-  <si>
-    <t>14:33:00</t>
   </si>
   <si>
     <t>更換SC第一顆硬碟無備份還原
 H20250805
 已通知檢查代收</t>
+  </si>
+  <si>
+    <t>15:45:00</t>
   </si>
   <si>
     <t>12:15:00</t>
@@ -2590,10 +2605,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB237"/>
+  <dimension ref="A1:AB238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A237" sqref="A237"/>
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4739,7 +4754,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025080366</v>
+        <v>2025080365</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -4807,7 +4822,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025080365</v>
+        <v>2025080366</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -8619,7 +8634,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025081551</v>
+        <v>2025081550</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -8656,7 +8671,7 @@
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3">
@@ -8665,7 +8680,9 @@
       <c r="R90" s="3">
         <v>41000</v>
       </c>
-      <c r="S90" s="3"/>
+      <c r="S90" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -8687,7 +8704,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025081550</v>
+        <v>2025081551</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -8724,7 +8741,7 @@
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7">
@@ -8733,9 +8750,7 @@
       <c r="R91" s="7">
         <v>41000</v>
       </c>
-      <c r="S91" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -9881,7 +9896,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025080704</v>
+        <v>2025080705</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -9920,16 +9935,14 @@
         <v>429</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
         <v>7108</v>
       </c>
-      <c r="S108" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -9939,15 +9952,19 @@
       <c r="Z108" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="AA108" s="3"/>
-      <c r="AB108" s="3"/>
+      <c r="AA108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025080705</v>
+        <v>2025080704</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -9986,14 +10003,16 @@
         <v>429</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
         <v>7108</v>
       </c>
-      <c r="S109" s="7"/>
+      <c r="S109" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
@@ -10003,9 +10022,7 @@
       <c r="Z109" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="AA109" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA109" s="7"/>
       <c r="AB109" s="7"/>
     </row>
     <row r="110" spans="1:28">
@@ -11033,7 +11050,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="7">
-        <v>2025080863</v>
+        <v>2025080864</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -11072,16 +11089,14 @@
         <v>459</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7">
         <v>131744</v>
       </c>
-      <c r="S125" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S125" s="7"/>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
@@ -11103,7 +11118,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>2025080864</v>
+        <v>2025080863</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -11142,14 +11157,16 @@
         <v>459</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
         <v>131744</v>
       </c>
-      <c r="S126" s="3"/>
+      <c r="S126" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
@@ -14085,7 +14102,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <v>2025081973</v>
+        <v>2025081974</v>
       </c>
       <c r="C170" s="3">
         <v>1</v>
@@ -14122,16 +14139,14 @@
       </c>
       <c r="N170" s="6"/>
       <c r="O170" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="3">
         <v>80962</v>
       </c>
-      <c r="S170" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S170" s="3"/>
       <c r="T170" s="3"/>
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
@@ -14153,7 +14168,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="7">
-        <v>2025081974</v>
+        <v>2025081973</v>
       </c>
       <c r="C171" s="7">
         <v>1</v>
@@ -14190,14 +14205,16 @@
       </c>
       <c r="N171" s="8"/>
       <c r="O171" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
       <c r="R171" s="7">
         <v>80962</v>
       </c>
-      <c r="S171" s="7"/>
+      <c r="S171" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T171" s="7"/>
       <c r="U171" s="7"/>
       <c r="V171" s="7"/>
@@ -14899,7 +14916,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="3">
-        <v>2025081292</v>
+        <v>2025081293</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -14938,16 +14955,14 @@
         <v>509</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3">
         <v>3085</v>
       </c>
-      <c r="S182" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S182" s="3"/>
       <c r="T182" s="3"/>
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
@@ -14957,15 +14972,19 @@
       <c r="Z182" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
+      <c r="AA182" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB182" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:28">
       <c r="A183" s="7">
         <v>181</v>
       </c>
       <c r="B183" s="7">
-        <v>2025081293</v>
+        <v>2025081292</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
@@ -15004,14 +15023,16 @@
         <v>509</v>
       </c>
       <c r="O183" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7">
         <v>3085</v>
       </c>
-      <c r="S183" s="7"/>
+      <c r="S183" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T183" s="7"/>
       <c r="U183" s="7"/>
       <c r="V183" s="7"/>
@@ -15021,9 +15042,7 @@
       <c r="Z183" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="AA183" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA183" s="7"/>
       <c r="AB183" s="7"/>
     </row>
     <row r="184" spans="1:28">
@@ -17099,7 +17118,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="7">
-        <v>2025081824</v>
+        <v>2025082186</v>
       </c>
       <c r="C215" s="7">
         <v>1</v>
@@ -17111,50 +17130,52 @@
         <v>632</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G215" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H215" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="H215" s="7" t="s">
+      <c r="I215" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="I215" s="7" t="s">
-        <v>635</v>
-      </c>
       <c r="J215" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="K215" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L215" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="M215" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="M215" s="8" t="s">
-        <v>637</v>
-      </c>
       <c r="N215" s="8" t="s">
-        <v>450</v>
+        <v>632</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P215" s="7"/>
-      <c r="Q215" s="7">
-        <v>4667</v>
-      </c>
+      <c r="Q215" s="7"/>
       <c r="R215" s="7">
-        <v>56483</v>
+        <v>140764</v>
       </c>
       <c r="S215" s="7"/>
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
-      <c r="V215" s="7"/>
+      <c r="V215" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="W215" s="7"/>
       <c r="X215" s="7"/>
       <c r="Y215" s="7"/>
-      <c r="Z215" s="8"/>
+      <c r="Z215" s="8" t="s">
+        <v>637</v>
+      </c>
       <c r="AA215" s="7" t="s">
         <v>40</v>
       </c>
@@ -17167,7 +17188,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>2025081823</v>
+        <v>2025081824</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
@@ -17182,13 +17203,13 @@
         <v>47</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="J216" s="3" t="s">
         <v>133</v>
@@ -17197,10 +17218,10 @@
         <v>36</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M216" s="6" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="N216" s="6" t="s">
         <v>450</v>
@@ -17210,10 +17231,10 @@
       </c>
       <c r="P216" s="3"/>
       <c r="Q216" s="3">
-        <v>7042</v>
+        <v>4667</v>
       </c>
       <c r="R216" s="3">
-        <v>96734</v>
+        <v>56483</v>
       </c>
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
@@ -17235,7 +17256,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="7">
-        <v>2025081304</v>
+        <v>2025081823</v>
       </c>
       <c r="C217" s="7">
         <v>1</v>
@@ -17247,39 +17268,41 @@
         <v>632</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>415</v>
+        <v>638</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>639</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J217" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>145</v>
+        <v>641</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N217" s="8" t="s">
-        <v>642</v>
+        <v>450</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="P217" s="7"/>
-      <c r="Q217" s="7"/>
+      <c r="Q217" s="7">
+        <v>7042</v>
+      </c>
       <c r="R217" s="7">
-        <v>0</v>
+        <v>96734</v>
       </c>
       <c r="S217" s="7"/>
       <c r="T217" s="7"/>
@@ -17288,9 +17311,7 @@
       <c r="W217" s="7"/>
       <c r="X217" s="7"/>
       <c r="Y217" s="7"/>
-      <c r="Z217" s="8" t="s">
-        <v>643</v>
-      </c>
+      <c r="Z217" s="8"/>
       <c r="AA217" s="7" t="s">
         <v>40</v>
       </c>
@@ -17321,10 +17342,10 @@
         <v>415</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -17332,10 +17353,10 @@
         <v>145</v>
       </c>
       <c r="M218" s="6" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="O218" s="3" t="s">
         <v>54</v>
@@ -17360,14 +17381,16 @@
       <c r="AA218" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB218" s="3"/>
+      <c r="AB218" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:28">
       <c r="A219" s="7">
         <v>217</v>
       </c>
       <c r="B219" s="7">
-        <v>2025082021</v>
+        <v>2025081304</v>
       </c>
       <c r="C219" s="7">
         <v>1</v>
@@ -17379,39 +17402,41 @@
         <v>632</v>
       </c>
       <c r="F219" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H219" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="G219" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H219" s="7" t="s">
+      <c r="I219" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="I219" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
+      <c r="J219" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="L219" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M219" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="N219" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="N219" s="8" t="s">
-        <v>648</v>
-      </c>
       <c r="O219" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="7"/>
       <c r="R219" s="7">
         <v>0</v>
       </c>
-      <c r="S219" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S219" s="7"/>
       <c r="T219" s="7"/>
       <c r="U219" s="7"/>
       <c r="V219" s="7"/>
@@ -17419,14 +17444,12 @@
       <c r="X219" s="7"/>
       <c r="Y219" s="7"/>
       <c r="Z219" s="8" t="s">
-        <v>161</v>
+        <v>648</v>
       </c>
       <c r="AA219" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB219" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB219" s="7"/>
     </row>
     <row r="220" spans="1:28">
       <c r="A220" s="3">
@@ -17445,16 +17468,16 @@
         <v>632</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>326</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>175</v>
@@ -17466,10 +17489,10 @@
         <v>145</v>
       </c>
       <c r="M220" s="6" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="N220" s="6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="O220" s="3" t="s">
         <v>125</v>
@@ -17487,19 +17510,21 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
       <c r="Z220" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="AA220" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB220" s="3"/>
+      <c r="AB220" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:28">
       <c r="A221" s="7">
         <v>219</v>
       </c>
       <c r="B221" s="7">
-        <v>2025081585</v>
+        <v>2025082021</v>
       </c>
       <c r="C221" s="7">
         <v>1</v>
@@ -17511,16 +17536,16 @@
         <v>632</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>239</v>
+        <v>649</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="H221" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="I221" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="I221" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
@@ -17528,10 +17553,10 @@
         <v>145</v>
       </c>
       <c r="M221" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="N221" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="N221" s="8" t="s">
-        <v>654</v>
       </c>
       <c r="O221" s="7" t="s">
         <v>54</v>
@@ -17556,16 +17581,14 @@
       <c r="AA221" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB221" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB221" s="7"/>
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="3">
         <v>220</v>
       </c>
       <c r="B222" s="3">
-        <v>2025081584</v>
+        <v>2025081585</v>
       </c>
       <c r="C222" s="3">
         <v>1</v>
@@ -17580,7 +17603,7 @@
         <v>239</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>655</v>
+        <v>415</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>656</v>
@@ -17617,7 +17640,7 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
       <c r="Z222" s="6" t="s">
-        <v>660</v>
+        <v>161</v>
       </c>
       <c r="AA222" s="3" t="s">
         <v>40</v>
@@ -17631,7 +17654,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="7">
-        <v>2025081467</v>
+        <v>2025081584</v>
       </c>
       <c r="C223" s="7">
         <v>1</v>
@@ -17643,13 +17666,13 @@
         <v>632</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="G223" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="H223" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="H223" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="I223" s="7" t="s">
         <v>662</v>
@@ -17683,7 +17706,7 @@
       <c r="X223" s="7"/>
       <c r="Y223" s="7"/>
       <c r="Z223" s="8" t="s">
-        <v>161</v>
+        <v>665</v>
       </c>
       <c r="AA223" s="7" t="s">
         <v>40</v>
@@ -17697,7 +17720,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="3">
-        <v>2025080889</v>
+        <v>2025081467</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -17709,23 +17732,19 @@
         <v>632</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>666</v>
+        <v>149</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J224" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K224" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
       <c r="L224" s="6" t="s">
         <v>145</v>
       </c>
@@ -17736,14 +17755,16 @@
         <v>669</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3">
         <v>0</v>
       </c>
-      <c r="S224" s="3"/>
+      <c r="S224" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
@@ -17751,7 +17772,7 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
       <c r="Z224" s="6" t="s">
-        <v>670</v>
+        <v>161</v>
       </c>
       <c r="AA224" s="3" t="s">
         <v>40</v>
@@ -17765,7 +17786,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="7">
-        <v>2025081062</v>
+        <v>2025080889</v>
       </c>
       <c r="C225" s="7">
         <v>1</v>
@@ -17780,36 +17801,38 @@
         <v>232</v>
       </c>
       <c r="G225" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="H225" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="H225" s="7" t="s">
-        <v>645</v>
-      </c>
       <c r="I225" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="J225" s="7"/>
-      <c r="K225" s="7"/>
+        <v>672</v>
+      </c>
+      <c r="J225" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K225" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="L225" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M225" s="8" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="N225" s="8" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="7"/>
       <c r="R225" s="7">
         <v>0</v>
       </c>
-      <c r="S225" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S225" s="7"/>
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
       <c r="V225" s="7"/>
@@ -17817,19 +17840,21 @@
       <c r="X225" s="7"/>
       <c r="Y225" s="7"/>
       <c r="Z225" s="8" t="s">
-        <v>161</v>
+        <v>675</v>
       </c>
       <c r="AA225" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB225" s="7"/>
+      <c r="AB225" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:28">
       <c r="A226" s="3">
         <v>224</v>
       </c>
       <c r="B226" s="3">
-        <v>2025082114</v>
+        <v>2025081062</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
@@ -17841,23 +17866,19 @@
         <v>632</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>326</v>
+        <v>676</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>215</v>
+        <v>655</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K226" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
       <c r="L226" s="6" t="s">
         <v>145</v>
       </c>
@@ -17868,14 +17889,16 @@
         <v>674</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
       <c r="R226" s="3">
         <v>0</v>
       </c>
-      <c r="S226" s="3"/>
+      <c r="S226" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
@@ -17883,21 +17906,19 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
       <c r="Z226" s="6" t="s">
-        <v>675</v>
+        <v>161</v>
       </c>
       <c r="AA226" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB226" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB226" s="3"/>
     </row>
     <row r="227" spans="1:28">
       <c r="A227" s="7">
         <v>225</v>
       </c>
       <c r="B227" s="7">
-        <v>2025082122</v>
+        <v>2025082114</v>
       </c>
       <c r="C227" s="7">
         <v>1</v>
@@ -17918,30 +17939,32 @@
         <v>215</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="J227" s="7"/>
-      <c r="K227" s="7"/>
+        <v>677</v>
+      </c>
+      <c r="J227" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K227" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="L227" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M227" s="8" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="N227" s="8" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="7"/>
       <c r="R227" s="7">
         <v>0</v>
       </c>
-      <c r="S227" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S227" s="7"/>
       <c r="T227" s="7"/>
       <c r="U227" s="7"/>
       <c r="V227" s="7"/>
@@ -17949,19 +17972,21 @@
       <c r="X227" s="7"/>
       <c r="Y227" s="7"/>
       <c r="Z227" s="8" t="s">
-        <v>161</v>
+        <v>680</v>
       </c>
       <c r="AA227" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB227" s="7"/>
+      <c r="AB227" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:28">
       <c r="A228" s="3">
         <v>226</v>
       </c>
       <c r="B228" s="3">
-        <v>2025081870</v>
+        <v>2025082122</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
@@ -17982,32 +18007,30 @@
         <v>215</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K228" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
       <c r="L228" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M228" s="6" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="N228" s="6" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="O228" s="3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
       <c r="R228" s="3">
         <v>0</v>
       </c>
-      <c r="S228" s="3"/>
+      <c r="S228" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
@@ -18015,7 +18038,7 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
       <c r="Z228" s="6" t="s">
-        <v>676</v>
+        <v>161</v>
       </c>
       <c r="AA228" s="3" t="s">
         <v>40</v>
@@ -18027,7 +18050,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="7">
-        <v>2025080521</v>
+        <v>2025081870</v>
       </c>
       <c r="C229" s="7">
         <v>1</v>
@@ -18039,16 +18062,16 @@
         <v>632</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="H229" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I229" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="I229" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>143</v>
@@ -18060,10 +18083,10 @@
         <v>145</v>
       </c>
       <c r="M229" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="N229" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="N229" s="8" t="s">
-        <v>680</v>
       </c>
       <c r="O229" s="7" t="s">
         <v>125</v>
@@ -18086,16 +18109,14 @@
       <c r="AA229" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB229" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB229" s="7"/>
     </row>
     <row r="230" spans="1:28">
       <c r="A230" s="3">
         <v>228</v>
       </c>
       <c r="B230" s="3">
-        <v>2025080527</v>
+        <v>2025080521</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -18113,10 +18134,10 @@
         <v>245</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>282</v>
+        <v>682</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="J230" s="3" t="s">
         <v>143</v>
@@ -18128,10 +18149,10 @@
         <v>145</v>
       </c>
       <c r="M230" s="6" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="O230" s="3" t="s">
         <v>125</v>
@@ -18149,19 +18170,21 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
       <c r="Z230" s="6" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AA230" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB230" s="3"/>
+      <c r="AB230" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:28">
       <c r="A231" s="7">
         <v>229</v>
       </c>
       <c r="B231" s="7">
-        <v>2025080636</v>
+        <v>2025080527</v>
       </c>
       <c r="C231" s="7">
         <v>1</v>
@@ -18179,33 +18202,35 @@
         <v>245</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="I231" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="J231" s="7"/>
-      <c r="K231" s="7"/>
+        <v>683</v>
+      </c>
+      <c r="J231" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K231" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="L231" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M231" s="8" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="N231" s="8" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
       <c r="R231" s="7">
         <v>0</v>
       </c>
-      <c r="S231" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S231" s="7"/>
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
       <c r="V231" s="7"/>
@@ -18213,7 +18238,7 @@
       <c r="X231" s="7"/>
       <c r="Y231" s="7"/>
       <c r="Z231" s="8" t="s">
-        <v>161</v>
+        <v>686</v>
       </c>
       <c r="AA231" s="7" t="s">
         <v>40</v>
@@ -18225,7 +18250,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="3">
-        <v>2025080946</v>
+        <v>2025080636</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -18237,41 +18262,39 @@
         <v>632</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>682</v>
+        <v>245</v>
       </c>
       <c r="H232" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I232" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="I232" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K232" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
       <c r="L232" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M232" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="N232" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="N232" s="6" t="s">
-        <v>686</v>
-      </c>
       <c r="O232" s="3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
       <c r="R232" s="3">
         <v>0</v>
       </c>
-      <c r="S232" s="3"/>
+      <c r="S232" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
@@ -18279,21 +18302,19 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
       <c r="Z232" s="6" t="s">
-        <v>687</v>
+        <v>161</v>
       </c>
       <c r="AA232" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB232" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB232" s="3"/>
     </row>
     <row r="233" spans="1:28">
       <c r="A233" s="7">
         <v>231</v>
       </c>
       <c r="B233" s="7">
-        <v>2025081053</v>
+        <v>2025080946</v>
       </c>
       <c r="C233" s="7">
         <v>1</v>
@@ -18308,27 +18329,31 @@
         <v>232</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
+        <v>689</v>
+      </c>
+      <c r="J233" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K233" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="L233" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M233" s="8" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="N233" s="8" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="7"/>
@@ -18341,23 +18366,23 @@
       <c r="V233" s="7"/>
       <c r="W233" s="7"/>
       <c r="X233" s="7"/>
-      <c r="Y233" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y233" s="7"/>
       <c r="Z233" s="8" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="AA233" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB233" s="7"/>
+      <c r="AB233" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:28">
       <c r="A234" s="3">
         <v>232</v>
       </c>
       <c r="B234" s="3">
-        <v>2025082152</v>
+        <v>2025081053</v>
       </c>
       <c r="C234" s="3">
         <v>1</v>
@@ -18369,16 +18394,16 @@
         <v>632</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>240</v>
+        <v>687</v>
       </c>
       <c r="H234" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I234" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -18386,10 +18411,10 @@
         <v>145</v>
       </c>
       <c r="M234" s="6" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="O234" s="3" t="s">
         <v>54</v>
@@ -18409,21 +18434,19 @@
         <v>40</v>
       </c>
       <c r="Z234" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AA234" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB234" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB234" s="3"/>
     </row>
     <row r="235" spans="1:28">
       <c r="A235" s="7">
         <v>233</v>
       </c>
       <c r="B235" s="7">
-        <v>2025081606</v>
+        <v>2025082152</v>
       </c>
       <c r="C235" s="7">
         <v>1</v>
@@ -18435,34 +18458,30 @@
         <v>632</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="J235" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K235" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="J235" s="7"/>
+      <c r="K235" s="7"/>
       <c r="L235" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M235" s="8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N235" s="8" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="7"/>
@@ -18475,7 +18494,9 @@
       <c r="V235" s="7"/>
       <c r="W235" s="7"/>
       <c r="X235" s="7"/>
-      <c r="Y235" s="7"/>
+      <c r="Y235" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z235" s="8" t="s">
         <v>695</v>
       </c>
@@ -18491,7 +18512,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="3">
-        <v>2025081702</v>
+        <v>2025081606</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -18509,10 +18530,10 @@
         <v>199</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="J236" s="3" t="s">
         <v>143</v>
@@ -18524,10 +18545,10 @@
         <v>145</v>
       </c>
       <c r="M236" s="6" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="O236" s="3" t="s">
         <v>125</v>
@@ -18545,45 +18566,113 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
       <c r="Z236" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA236" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28">
+      <c r="A237" s="7">
+        <v>235</v>
+      </c>
+      <c r="B237" s="7">
+        <v>2025081702</v>
+      </c>
+      <c r="C237" s="7">
+        <v>1</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H237" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="AA236" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB236" s="3"/>
-    </row>
-    <row r="237" spans="1:28">
-      <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="9"/>
-      <c r="L237" s="10"/>
-      <c r="M237" s="10"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="9"/>
-      <c r="P237" s="9"/>
-      <c r="Q237" s="9"/>
-      <c r="R237" s="9"/>
-      <c r="S237" s="9"/>
-      <c r="T237" s="9"/>
-      <c r="U237" s="9"/>
-      <c r="V237" s="9"/>
-      <c r="W237" s="9"/>
-      <c r="X237" s="9"/>
-      <c r="Y237" s="9"/>
-      <c r="Z237" s="10"/>
-      <c r="AA237" s="9" t="s">
+      <c r="I237" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="AB237" s="9">
-        <v>140</v>
+      <c r="J237" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K237" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M237" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="N237" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="O237" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P237" s="7"/>
+      <c r="Q237" s="7"/>
+      <c r="R237" s="7">
+        <v>0</v>
+      </c>
+      <c r="S237" s="7"/>
+      <c r="T237" s="7"/>
+      <c r="U237" s="7"/>
+      <c r="V237" s="7"/>
+      <c r="W237" s="7"/>
+      <c r="X237" s="7"/>
+      <c r="Y237" s="7"/>
+      <c r="Z237" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA237" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB237" s="7"/>
+    </row>
+    <row r="238" spans="1:28">
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="9"/>
+      <c r="P238" s="9"/>
+      <c r="Q238" s="9"/>
+      <c r="R238" s="9"/>
+      <c r="S238" s="9"/>
+      <c r="T238" s="9"/>
+      <c r="U238" s="9"/>
+      <c r="V238" s="9"/>
+      <c r="W238" s="9"/>
+      <c r="X238" s="9"/>
+      <c r="Y238" s="9"/>
+      <c r="Z238" s="10"/>
+      <c r="AA238" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB238" s="9">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
